--- a/5/9/Índice de stress local 2020 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2020 - Diaria.xlsx
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4118</v>
+        <v>0.3487</v>
       </c>
       <c r="C2">
-        <v>0.1956</v>
+        <v>0.1977</v>
       </c>
       <c r="D2">
-        <v>0.2162</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3985</v>
+        <v>0.3345</v>
       </c>
       <c r="C3">
-        <v>0.1903</v>
+        <v>0.1917</v>
       </c>
       <c r="D3">
-        <v>0.2082</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3863</v>
+        <v>0.3215</v>
       </c>
       <c r="C4">
-        <v>0.1855</v>
+        <v>0.1863</v>
       </c>
       <c r="D4">
-        <v>0.2007</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3772</v>
+        <v>0.3119</v>
       </c>
       <c r="C5">
-        <v>0.1831</v>
+        <v>0.1835</v>
       </c>
       <c r="D5">
-        <v>0.1941</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3658</v>
+        <v>0.3004</v>
       </c>
       <c r="C6">
-        <v>0.1799</v>
+        <v>0.1798</v>
       </c>
       <c r="D6">
-        <v>0.1859</v>
+        <v>0.1207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3539</v>
+        <v>0.2883</v>
       </c>
       <c r="C7">
-        <v>0.1754</v>
+        <v>0.1747</v>
       </c>
       <c r="D7">
-        <v>0.1785</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3438</v>
+        <v>0.2778</v>
       </c>
       <c r="C8">
-        <v>0.1713</v>
+        <v>0.1701</v>
       </c>
       <c r="D8">
-        <v>0.1725</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3342</v>
+        <v>0.2678</v>
       </c>
       <c r="C9">
-        <v>0.1673</v>
+        <v>0.1656</v>
       </c>
       <c r="D9">
-        <v>0.1668</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3246</v>
+        <v>0.2581</v>
       </c>
       <c r="C10">
-        <v>0.1632</v>
+        <v>0.161</v>
       </c>
       <c r="D10">
-        <v>0.1613</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3162</v>
+        <v>0.2499</v>
       </c>
       <c r="C11">
-        <v>0.1598</v>
+        <v>0.1572</v>
       </c>
       <c r="D11">
-        <v>0.1564</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3074</v>
+        <v>0.2413</v>
       </c>
       <c r="C12">
-        <v>0.1557</v>
+        <v>0.1526</v>
       </c>
       <c r="D12">
-        <v>0.1517</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2991</v>
+        <v>0.2333</v>
       </c>
       <c r="C13">
-        <v>0.1519</v>
+        <v>0.1485</v>
       </c>
       <c r="D13">
-        <v>0.1471</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.29</v>
+        <v>0.2249</v>
       </c>
       <c r="C14">
-        <v>0.1486</v>
+        <v>0.1448</v>
       </c>
       <c r="D14">
-        <v>0.1414</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2814</v>
+        <v>0.217</v>
       </c>
       <c r="C15">
-        <v>0.1453</v>
+        <v>0.1411</v>
       </c>
       <c r="D15">
-        <v>0.1361</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2733</v>
+        <v>0.2095</v>
       </c>
       <c r="C16">
-        <v>0.142</v>
+        <v>0.1375</v>
       </c>
       <c r="D16">
-        <v>0.1313</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2656</v>
+        <v>0.2023</v>
       </c>
       <c r="C17">
-        <v>0.1386</v>
+        <v>0.1337</v>
       </c>
       <c r="D17">
-        <v>0.127</v>
+        <v>0.0687</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2589</v>
+        <v>0.1963</v>
       </c>
       <c r="C18">
-        <v>0.1357</v>
+        <v>0.1305</v>
       </c>
       <c r="D18">
-        <v>0.1232</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2529</v>
+        <v>0.1909</v>
       </c>
       <c r="C19">
-        <v>0.1331</v>
+        <v>0.1276</v>
       </c>
       <c r="D19">
-        <v>0.1198</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2482</v>
+        <v>0.1868</v>
       </c>
       <c r="C20">
-        <v>0.1314</v>
+        <v>0.1257</v>
       </c>
       <c r="D20">
-        <v>0.1168</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2441</v>
+        <v>0.1833</v>
       </c>
       <c r="C21">
-        <v>0.1299</v>
+        <v>0.1241</v>
       </c>
       <c r="D21">
-        <v>0.1142</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2402</v>
+        <v>0.1799</v>
       </c>
       <c r="C22">
-        <v>0.1281</v>
+        <v>0.1221</v>
       </c>
       <c r="D22">
-        <v>0.1121</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2372</v>
+        <v>0.1776</v>
       </c>
       <c r="C23">
-        <v>0.127</v>
+        <v>0.1209</v>
       </c>
       <c r="D23">
-        <v>0.1102</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2354</v>
+        <v>0.1764</v>
       </c>
       <c r="C24">
-        <v>0.1265</v>
+        <v>0.1204</v>
       </c>
       <c r="D24">
-        <v>0.1089</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2332</v>
+        <v>0.1747</v>
       </c>
       <c r="C25">
-        <v>0.1253</v>
+        <v>0.1191</v>
       </c>
       <c r="D25">
-        <v>0.1079</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2318</v>
+        <v>0.1738</v>
       </c>
       <c r="C26">
-        <v>0.1243</v>
+        <v>0.1181</v>
       </c>
       <c r="D26">
-        <v>0.1075</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2308</v>
+        <v>0.1736</v>
       </c>
       <c r="C27">
-        <v>0.1241</v>
+        <v>0.118</v>
       </c>
       <c r="D27">
-        <v>0.1068</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2292</v>
+        <v>0.173</v>
       </c>
       <c r="C28">
-        <v>0.1236</v>
+        <v>0.1176</v>
       </c>
       <c r="D28">
-        <v>0.1056</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2282</v>
+        <v>0.1733</v>
       </c>
       <c r="C29">
-        <v>0.1236</v>
+        <v>0.1177</v>
       </c>
       <c r="D29">
-        <v>0.1047</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2285</v>
+        <v>0.1748</v>
       </c>
       <c r="C30">
-        <v>0.1242</v>
+        <v>0.1185</v>
       </c>
       <c r="D30">
-        <v>0.1043</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2277</v>
+        <v>0.1751</v>
       </c>
       <c r="C31">
-        <v>0.1237</v>
+        <v>0.1181</v>
       </c>
       <c r="D31">
-        <v>0.104</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2273</v>
+        <v>0.1759</v>
       </c>
       <c r="C32">
-        <v>0.1234</v>
+        <v>0.118</v>
       </c>
       <c r="D32">
-        <v>0.1039</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2274</v>
+        <v>0.1774</v>
       </c>
       <c r="C33">
-        <v>0.1233</v>
+        <v>0.1181</v>
       </c>
       <c r="D33">
-        <v>0.1041</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.2279</v>
+        <v>0.1791</v>
       </c>
       <c r="C34">
-        <v>0.1231</v>
+        <v>0.1181</v>
       </c>
       <c r="D34">
-        <v>0.1048</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2294</v>
+        <v>0.182</v>
       </c>
       <c r="C35">
-        <v>0.1232</v>
+        <v>0.1186</v>
       </c>
       <c r="D35">
-        <v>0.1062</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2318</v>
+        <v>0.1859</v>
       </c>
       <c r="C36">
-        <v>0.1237</v>
+        <v>0.1194</v>
       </c>
       <c r="D36">
-        <v>0.1081</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2352</v>
+        <v>0.191</v>
       </c>
       <c r="C37">
-        <v>0.1247</v>
+        <v>0.1208</v>
       </c>
       <c r="D37">
-        <v>0.1105</v>
+        <v>0.0702</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2398</v>
+        <v>0.1973</v>
       </c>
       <c r="C38">
-        <v>0.1257</v>
+        <v>0.1222</v>
       </c>
       <c r="D38">
-        <v>0.1141</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2452</v>
+        <v>0.2045</v>
       </c>
       <c r="C39">
-        <v>0.1268</v>
+        <v>0.1238</v>
       </c>
       <c r="D39">
-        <v>0.1184</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2539</v>
+        <v>0.2146</v>
       </c>
       <c r="C40">
-        <v>0.1282</v>
+        <v>0.1257</v>
       </c>
       <c r="D40">
-        <v>0.1257</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2632</v>
+        <v>0.2253</v>
       </c>
       <c r="C41">
-        <v>0.1296</v>
+        <v>0.1277</v>
       </c>
       <c r="D41">
-        <v>0.1336</v>
+        <v>0.09760000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2734</v>
+        <v>0.2371</v>
       </c>
       <c r="C42">
-        <v>0.1319</v>
+        <v>0.1306</v>
       </c>
       <c r="D42">
-        <v>0.1415</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2847</v>
+        <v>0.2499</v>
       </c>
       <c r="C43">
-        <v>0.1347</v>
+        <v>0.134</v>
       </c>
       <c r="D43">
-        <v>0.15</v>
+        <v>0.1159</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2961</v>
+        <v>0.263</v>
       </c>
       <c r="C44">
-        <v>0.1377</v>
+        <v>0.1376</v>
       </c>
       <c r="D44">
-        <v>0.1585</v>
+        <v>0.1254</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3075</v>
+        <v>0.2759</v>
       </c>
       <c r="C45">
-        <v>0.1401</v>
+        <v>0.1406</v>
       </c>
       <c r="D45">
-        <v>0.1674</v>
+        <v>0.1354</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3185</v>
+        <v>0.2886</v>
       </c>
       <c r="C46">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="D46">
-        <v>0.1765</v>
+        <v>0.1456</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3326</v>
+        <v>0.3038</v>
       </c>
       <c r="C47">
-        <v>0.1444</v>
+        <v>0.146</v>
       </c>
       <c r="D47">
-        <v>0.1881</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3465</v>
+        <v>0.3187</v>
       </c>
       <c r="C48">
-        <v>0.1467</v>
+        <v>0.1488</v>
       </c>
       <c r="D48">
-        <v>0.1998</v>
+        <v>0.1699</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3599</v>
+        <v>0.3329</v>
       </c>
       <c r="C49">
-        <v>0.1485</v>
+        <v>0.151</v>
       </c>
       <c r="D49">
-        <v>0.2114</v>
+        <v>0.1819</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3747</v>
+        <v>0.3483</v>
       </c>
       <c r="C50">
-        <v>0.1508</v>
+        <v>0.1539</v>
       </c>
       <c r="D50">
-        <v>0.2238</v>
+        <v>0.1944</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3909</v>
+        <v>0.3652</v>
       </c>
       <c r="C51">
-        <v>0.1547</v>
+        <v>0.1582</v>
       </c>
       <c r="D51">
-        <v>0.2362</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4089</v>
+        <v>0.3843</v>
       </c>
       <c r="C52">
-        <v>0.1614</v>
+        <v>0.1657</v>
       </c>
       <c r="D52">
-        <v>0.2474</v>
+        <v>0.2187</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4336</v>
+        <v>0.4094</v>
       </c>
       <c r="C53">
-        <v>0.1701</v>
+        <v>0.1752</v>
       </c>
       <c r="D53">
-        <v>0.2634</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4565</v>
+        <v>0.4328</v>
       </c>
       <c r="C54">
-        <v>0.1784</v>
+        <v>0.1842</v>
       </c>
       <c r="D54">
-        <v>0.278</v>
+        <v>0.2486</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4813</v>
+        <v>0.4578</v>
       </c>
       <c r="C55">
-        <v>0.1875</v>
+        <v>0.1941</v>
       </c>
       <c r="D55">
-        <v>0.2938</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.505</v>
+        <v>0.482</v>
       </c>
       <c r="C56">
-        <v>0.1976</v>
+        <v>0.205</v>
       </c>
       <c r="D56">
-        <v>0.3074</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.534</v>
+        <v>0.5107</v>
       </c>
       <c r="C57">
-        <v>0.2092</v>
+        <v>0.2175</v>
       </c>
       <c r="D57">
-        <v>0.3248</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.5585</v>
+        <v>0.5351</v>
       </c>
       <c r="C58">
-        <v>0.2189</v>
+        <v>0.2279</v>
       </c>
       <c r="D58">
-        <v>0.3396</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.5798</v>
+        <v>0.5563</v>
       </c>
       <c r="C59">
-        <v>0.2274</v>
+        <v>0.237</v>
       </c>
       <c r="D59">
-        <v>0.3524</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.5966</v>
+        <v>0.5737</v>
       </c>
       <c r="C60">
-        <v>0.2355</v>
+        <v>0.2457</v>
       </c>
       <c r="D60">
-        <v>0.3611</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.6126</v>
+        <v>0.5904</v>
       </c>
       <c r="C61">
-        <v>0.2438</v>
+        <v>0.2546</v>
       </c>
       <c r="D61">
-        <v>0.3688</v>
+        <v>0.3358</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.6274999999999999</v>
+        <v>0.606</v>
       </c>
       <c r="C62">
-        <v>0.2519</v>
+        <v>0.2632</v>
       </c>
       <c r="D62">
-        <v>0.3757</v>
+        <v>0.3428</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.6412</v>
+        <v>0.6204</v>
       </c>
       <c r="C63">
-        <v>0.2597</v>
+        <v>0.2716</v>
       </c>
       <c r="D63">
-        <v>0.3815</v>
+        <v>0.3489</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.653</v>
+        <v>0.6332</v>
       </c>
       <c r="C64">
-        <v>0.2667</v>
+        <v>0.279</v>
       </c>
       <c r="D64">
-        <v>0.3863</v>
+        <v>0.3541</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.6634</v>
+        <v>0.6445</v>
       </c>
       <c r="C65">
-        <v>0.2735</v>
+        <v>0.2863</v>
       </c>
       <c r="D65">
-        <v>0.3899</v>
+        <v>0.3582</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.6722</v>
+        <v>0.6544</v>
       </c>
       <c r="C66">
-        <v>0.28</v>
+        <v>0.2932</v>
       </c>
       <c r="D66">
-        <v>0.3922</v>
+        <v>0.3612</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.6793</v>
+        <v>0.6629</v>
       </c>
       <c r="C67">
-        <v>0.286</v>
+        <v>0.2997</v>
       </c>
       <c r="D67">
-        <v>0.3933</v>
+        <v>0.3632</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.6851</v>
+        <v>0.6701</v>
       </c>
       <c r="C68">
-        <v>0.2915</v>
+        <v>0.3054</v>
       </c>
       <c r="D68">
-        <v>0.3937</v>
+        <v>0.3647</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.6905</v>
+        <v>0.6772</v>
       </c>
       <c r="C69">
-        <v>0.2974</v>
+        <v>0.3117</v>
       </c>
       <c r="D69">
-        <v>0.3932</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.6941000000000001</v>
+        <v>0.6828</v>
       </c>
       <c r="C70">
-        <v>0.303</v>
+        <v>0.3177</v>
       </c>
       <c r="D70">
-        <v>0.3912</v>
+        <v>0.3652</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.6956</v>
+        <v>0.6863</v>
       </c>
       <c r="C71">
-        <v>0.3072</v>
+        <v>0.3221</v>
       </c>
       <c r="D71">
-        <v>0.3884</v>
+        <v>0.3642</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.6946</v>
+        <v>0.6871</v>
       </c>
       <c r="C72">
-        <v>0.3083</v>
+        <v>0.3234</v>
       </c>
       <c r="D72">
-        <v>0.3864</v>
+        <v>0.3638</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.6861</v>
+        <v>0.6812</v>
       </c>
       <c r="C73">
-        <v>0.3074</v>
+        <v>0.3224</v>
       </c>
       <c r="D73">
-        <v>0.3787</v>
+        <v>0.3588</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.6788999999999999</v>
+        <v>0.6766</v>
       </c>
       <c r="C74">
-        <v>0.3071</v>
+        <v>0.3222</v>
       </c>
       <c r="D74">
-        <v>0.3717</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.6689000000000001</v>
+        <v>0.6696</v>
       </c>
       <c r="C75">
-        <v>0.3061</v>
+        <v>0.3212</v>
       </c>
       <c r="D75">
-        <v>0.3628</v>
+        <v>0.3484</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.659</v>
+        <v>0.6623</v>
       </c>
       <c r="C76">
-        <v>0.3035</v>
+        <v>0.3184</v>
       </c>
       <c r="D76">
-        <v>0.3554</v>
+        <v>0.3438</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.6434</v>
+        <v>0.6502</v>
       </c>
       <c r="C77">
-        <v>0.2999</v>
+        <v>0.3146</v>
       </c>
       <c r="D77">
-        <v>0.3435</v>
+        <v>0.3356</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.6311</v>
+        <v>0.6414</v>
       </c>
       <c r="C78">
-        <v>0.2983</v>
+        <v>0.313</v>
       </c>
       <c r="D78">
-        <v>0.3328</v>
+        <v>0.3284</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.6216</v>
+        <v>0.6353</v>
       </c>
       <c r="C79">
-        <v>0.2983</v>
+        <v>0.313</v>
       </c>
       <c r="D79">
-        <v>0.3233</v>
+        <v>0.3224</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.6116</v>
+        <v>0.6284999999999999</v>
       </c>
       <c r="C80">
-        <v>0.2966</v>
+        <v>0.3113</v>
       </c>
       <c r="D80">
-        <v>0.315</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.6001</v>
+        <v>0.62</v>
       </c>
       <c r="C81">
-        <v>0.2933</v>
+        <v>0.3079</v>
       </c>
       <c r="D81">
-        <v>0.3067</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.5889</v>
+        <v>0.6117</v>
       </c>
       <c r="C82">
-        <v>0.2896</v>
+        <v>0.3039</v>
       </c>
       <c r="D82">
-        <v>0.2993</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5773</v>
+        <v>0.6028</v>
       </c>
       <c r="C83">
-        <v>0.2849</v>
+        <v>0.2991</v>
       </c>
       <c r="D83">
-        <v>0.2924</v>
+        <v>0.3037</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5666</v>
+        <v>0.5947</v>
       </c>
       <c r="C84">
-        <v>0.2807</v>
+        <v>0.2947</v>
       </c>
       <c r="D84">
-        <v>0.2859</v>
+        <v>0.3001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5566</v>
+        <v>0.5871</v>
       </c>
       <c r="C85">
-        <v>0.2762</v>
+        <v>0.29</v>
       </c>
       <c r="D85">
-        <v>0.2804</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.548</v>
+        <v>0.5807</v>
       </c>
       <c r="C86">
-        <v>0.2726</v>
+        <v>0.2862</v>
       </c>
       <c r="D86">
-        <v>0.2754</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5376</v>
+        <v>0.5727</v>
       </c>
       <c r="C87">
-        <v>0.2686</v>
+        <v>0.2821</v>
       </c>
       <c r="D87">
-        <v>0.269</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.5291</v>
+        <v>0.5662</v>
       </c>
       <c r="C88">
-        <v>0.2657</v>
+        <v>0.2791</v>
       </c>
       <c r="D88">
-        <v>0.2635</v>
+        <v>0.2872</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.5205</v>
+        <v>0.5593</v>
       </c>
       <c r="C89">
-        <v>0.2619</v>
+        <v>0.2752</v>
       </c>
       <c r="D89">
-        <v>0.2585</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.5117</v>
+        <v>0.552</v>
       </c>
       <c r="C90">
-        <v>0.2575</v>
+        <v>0.2706</v>
       </c>
       <c r="D90">
-        <v>0.2541</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.5031</v>
+        <v>0.5447</v>
       </c>
       <c r="C91">
-        <v>0.2529</v>
+        <v>0.2657</v>
       </c>
       <c r="D91">
-        <v>0.2502</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.4941</v>
+        <v>0.5369</v>
       </c>
       <c r="C92">
-        <v>0.2479</v>
+        <v>0.2605</v>
       </c>
       <c r="D92">
-        <v>0.2463</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4849</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="C93">
-        <v>0.2423</v>
+        <v>0.2546</v>
       </c>
       <c r="D93">
-        <v>0.2427</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4755</v>
+        <v>0.5202</v>
       </c>
       <c r="C94">
-        <v>0.236</v>
+        <v>0.248</v>
       </c>
       <c r="D94">
-        <v>0.2396</v>
+        <v>0.2722</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4656</v>
+        <v>0.5109</v>
       </c>
       <c r="C95">
-        <v>0.2291</v>
+        <v>0.2407</v>
       </c>
       <c r="D95">
-        <v>0.2365</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4556</v>
+        <v>0.5014</v>
       </c>
       <c r="C96">
-        <v>0.2221</v>
+        <v>0.2334</v>
       </c>
       <c r="D96">
-        <v>0.2335</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4453</v>
+        <v>0.4914</v>
       </c>
       <c r="C97">
-        <v>0.2142</v>
+        <v>0.2251</v>
       </c>
       <c r="D97">
-        <v>0.2312</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4351</v>
+        <v>0.4813</v>
       </c>
       <c r="C98">
-        <v>0.2062</v>
+        <v>0.2167</v>
       </c>
       <c r="D98">
-        <v>0.2289</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4252</v>
+        <v>0.4716</v>
       </c>
       <c r="C99">
-        <v>0.1984</v>
+        <v>0.2085</v>
       </c>
       <c r="D99">
-        <v>0.2268</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4181</v>
+        <v>0.4647</v>
       </c>
       <c r="C100">
-        <v>0.1929</v>
+        <v>0.2027</v>
       </c>
       <c r="D100">
-        <v>0.2252</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4137</v>
+        <v>0.4605</v>
       </c>
       <c r="C101">
-        <v>0.1891</v>
+        <v>0.1987</v>
       </c>
       <c r="D101">
-        <v>0.2246</v>
+        <v>0.2618</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4091</v>
+        <v>0.4563</v>
       </c>
       <c r="C102">
-        <v>0.1857</v>
+        <v>0.1951</v>
       </c>
       <c r="D102">
-        <v>0.2234</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4047</v>
+        <v>0.452</v>
       </c>
       <c r="C103">
-        <v>0.1812</v>
+        <v>0.1904</v>
       </c>
       <c r="D103">
-        <v>0.2235</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4009</v>
+        <v>0.4486</v>
       </c>
       <c r="C104">
-        <v>0.1773</v>
+        <v>0.1864</v>
       </c>
       <c r="D104">
-        <v>0.2236</v>
+        <v>0.2622</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3979</v>
+        <v>0.4459</v>
       </c>
       <c r="C105">
-        <v>0.174</v>
+        <v>0.1829</v>
       </c>
       <c r="D105">
-        <v>0.2239</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3943</v>
+        <v>0.4428</v>
       </c>
       <c r="C106">
-        <v>0.1704</v>
+        <v>0.1792</v>
       </c>
       <c r="D106">
-        <v>0.2238</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3911</v>
+        <v>0.4404</v>
       </c>
       <c r="C107">
-        <v>0.1676</v>
+        <v>0.1762</v>
       </c>
       <c r="D107">
-        <v>0.2235</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3866</v>
+        <v>0.437</v>
       </c>
       <c r="C108">
-        <v>0.1638</v>
+        <v>0.1723</v>
       </c>
       <c r="D108">
-        <v>0.2227</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.383</v>
+        <v>0.4343</v>
       </c>
       <c r="C109">
-        <v>0.1602</v>
+        <v>0.1686</v>
       </c>
       <c r="D109">
-        <v>0.2228</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3778</v>
+        <v>0.43</v>
       </c>
       <c r="C110">
-        <v>0.1554</v>
+        <v>0.1636</v>
       </c>
       <c r="D110">
-        <v>0.2223</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2687,13 +2687,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3748</v>
+        <v>0.4282</v>
       </c>
       <c r="C111">
-        <v>0.1523</v>
+        <v>0.1604</v>
       </c>
       <c r="D111">
-        <v>0.2225</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3718</v>
+        <v>0.4265</v>
       </c>
       <c r="C112">
-        <v>0.1493</v>
+        <v>0.1572</v>
       </c>
       <c r="D112">
-        <v>0.2225</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3696</v>
+        <v>0.4257</v>
       </c>
       <c r="C113">
-        <v>0.1472</v>
+        <v>0.1551</v>
       </c>
       <c r="D113">
-        <v>0.2224</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3676</v>
+        <v>0.4253</v>
       </c>
       <c r="C114">
-        <v>0.1452</v>
+        <v>0.1531</v>
       </c>
       <c r="D114">
-        <v>0.2224</v>
+        <v>0.2722</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3675</v>
+        <v>0.427</v>
       </c>
       <c r="C115">
-        <v>0.1452</v>
+        <v>0.1532</v>
       </c>
       <c r="D115">
-        <v>0.2223</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3674</v>
+        <v>0.4287</v>
       </c>
       <c r="C116">
-        <v>0.1454</v>
+        <v>0.1534</v>
       </c>
       <c r="D116">
-        <v>0.222</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3667</v>
+        <v>0.43</v>
       </c>
       <c r="C117">
-        <v>0.1457</v>
+        <v>0.1539</v>
       </c>
       <c r="D117">
-        <v>0.2209</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3655</v>
+        <v>0.4306</v>
       </c>
       <c r="C118">
-        <v>0.1456</v>
+        <v>0.1538</v>
       </c>
       <c r="D118">
-        <v>0.2199</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3648</v>
+        <v>0.4315</v>
       </c>
       <c r="C119">
-        <v>0.1453</v>
+        <v>0.1536</v>
       </c>
       <c r="D119">
-        <v>0.2195</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3654</v>
+        <v>0.4335</v>
       </c>
       <c r="C120">
-        <v>0.1455</v>
+        <v>0.1539</v>
       </c>
       <c r="D120">
-        <v>0.2199</v>
+        <v>0.2796</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3652</v>
+        <v>0.4345</v>
       </c>
       <c r="C121">
-        <v>0.1454</v>
+        <v>0.1538</v>
       </c>
       <c r="D121">
-        <v>0.2198</v>
+        <v>0.2807</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3662</v>
+        <v>0.4365</v>
       </c>
       <c r="C122">
-        <v>0.1457</v>
+        <v>0.1541</v>
       </c>
       <c r="D122">
-        <v>0.2206</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3667</v>
+        <v>0.4381</v>
       </c>
       <c r="C123">
-        <v>0.1469</v>
+        <v>0.1554</v>
       </c>
       <c r="D123">
-        <v>0.2198</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3663</v>
+        <v>0.4385</v>
       </c>
       <c r="C124">
-        <v>0.1475</v>
+        <v>0.1561</v>
       </c>
       <c r="D124">
-        <v>0.2189</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3646</v>
+        <v>0.4374</v>
       </c>
       <c r="C125">
-        <v>0.1473</v>
+        <v>0.156</v>
       </c>
       <c r="D125">
-        <v>0.2173</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3636</v>
+        <v>0.4365</v>
       </c>
       <c r="C126">
-        <v>0.1473</v>
+        <v>0.156</v>
       </c>
       <c r="D126">
-        <v>0.2162</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3612</v>
+        <v>0.4339</v>
       </c>
       <c r="C127">
-        <v>0.146</v>
+        <v>0.1546</v>
       </c>
       <c r="D127">
-        <v>0.2152</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3591</v>
+        <v>0.4315</v>
       </c>
       <c r="C128">
-        <v>0.1449</v>
+        <v>0.1534</v>
       </c>
       <c r="D128">
-        <v>0.2141</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3568</v>
+        <v>0.4291</v>
       </c>
       <c r="C129">
-        <v>0.1445</v>
+        <v>0.153</v>
       </c>
       <c r="D129">
-        <v>0.2123</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3562</v>
+        <v>0.428</v>
       </c>
       <c r="C130">
-        <v>0.1454</v>
+        <v>0.1539</v>
       </c>
       <c r="D130">
-        <v>0.2109</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3545</v>
+        <v>0.4255</v>
       </c>
       <c r="C131">
-        <v>0.1456</v>
+        <v>0.154</v>
       </c>
       <c r="D131">
-        <v>0.2089</v>
+        <v>0.2715</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3537</v>
+        <v>0.4238</v>
       </c>
       <c r="C132">
-        <v>0.1464</v>
+        <v>0.1549</v>
       </c>
       <c r="D132">
-        <v>0.2073</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3525</v>
+        <v>0.4213</v>
       </c>
       <c r="C133">
-        <v>0.1469</v>
+        <v>0.1553</v>
       </c>
       <c r="D133">
-        <v>0.2056</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3539</v>
+        <v>0.4207</v>
       </c>
       <c r="C134">
-        <v>0.1477</v>
+        <v>0.1561</v>
       </c>
       <c r="D134">
-        <v>0.2062</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.354</v>
+        <v>0.4187</v>
       </c>
       <c r="C135">
-        <v>0.1473</v>
+        <v>0.1555</v>
       </c>
       <c r="D135">
-        <v>0.2067</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3553</v>
+        <v>0.4177</v>
       </c>
       <c r="C136">
-        <v>0.1482</v>
+        <v>0.1563</v>
       </c>
       <c r="D136">
-        <v>0.2072</v>
+        <v>0.2614</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3571</v>
+        <v>0.4174</v>
       </c>
       <c r="C137">
-        <v>0.1497</v>
+        <v>0.1579</v>
       </c>
       <c r="D137">
-        <v>0.2074</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3586</v>
+        <v>0.4165</v>
       </c>
       <c r="C138">
-        <v>0.1507</v>
+        <v>0.1588</v>
       </c>
       <c r="D138">
-        <v>0.2078</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3595</v>
+        <v>0.4151</v>
       </c>
       <c r="C139">
-        <v>0.1509</v>
+        <v>0.1589</v>
       </c>
       <c r="D139">
-        <v>0.2086</v>
+        <v>0.2563</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3562</v>
+        <v>0.4097</v>
       </c>
       <c r="C140">
-        <v>0.1485</v>
+        <v>0.1562</v>
       </c>
       <c r="D140">
-        <v>0.2078</v>
+        <v>0.2535</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3532</v>
+        <v>0.4045</v>
       </c>
       <c r="C141">
-        <v>0.1464</v>
+        <v>0.154</v>
       </c>
       <c r="D141">
-        <v>0.2068</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3499</v>
+        <v>0.3989</v>
       </c>
       <c r="C142">
-        <v>0.1439</v>
+        <v>0.1513</v>
       </c>
       <c r="D142">
-        <v>0.2059</v>
+        <v>0.2477</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3462</v>
+        <v>0.393</v>
       </c>
       <c r="C143">
-        <v>0.141</v>
+        <v>0.148</v>
       </c>
       <c r="D143">
-        <v>0.2052</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3433</v>
+        <v>0.3883</v>
       </c>
       <c r="C144">
-        <v>0.1385</v>
+        <v>0.1453</v>
       </c>
       <c r="D144">
-        <v>0.2048</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3417</v>
+        <v>0.3849</v>
       </c>
       <c r="C145">
-        <v>0.1366</v>
+        <v>0.1433</v>
       </c>
       <c r="D145">
-        <v>0.2051</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3403</v>
+        <v>0.3821</v>
       </c>
       <c r="C146">
-        <v>0.1353</v>
+        <v>0.1418</v>
       </c>
       <c r="D146">
-        <v>0.205</v>
+        <v>0.2403</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3407</v>
+        <v>0.3813</v>
       </c>
       <c r="C147">
-        <v>0.1352</v>
+        <v>0.1417</v>
       </c>
       <c r="D147">
-        <v>0.2055</v>
+        <v>0.2397</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3413</v>
+        <v>0.3807</v>
       </c>
       <c r="C148">
-        <v>0.1352</v>
+        <v>0.1416</v>
       </c>
       <c r="D148">
-        <v>0.2061</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3416</v>
+        <v>0.38</v>
       </c>
       <c r="C149">
-        <v>0.1348</v>
+        <v>0.1412</v>
       </c>
       <c r="D149">
-        <v>0.2068</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3413</v>
+        <v>0.3789</v>
       </c>
       <c r="C150">
-        <v>0.134</v>
+        <v>0.1403</v>
       </c>
       <c r="D150">
-        <v>0.2073</v>
+        <v>0.2386</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3416</v>
+        <v>0.3786</v>
       </c>
       <c r="C151">
-        <v>0.134</v>
+        <v>0.1403</v>
       </c>
       <c r="D151">
-        <v>0.2076</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3415</v>
+        <v>0.3779</v>
       </c>
       <c r="C152">
-        <v>0.1338</v>
+        <v>0.14</v>
       </c>
       <c r="D152">
-        <v>0.2077</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3412</v>
+        <v>0.3772</v>
       </c>
       <c r="C153">
-        <v>0.1333</v>
+        <v>0.1395</v>
       </c>
       <c r="D153">
-        <v>0.2079</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.339</v>
+        <v>0.3754</v>
       </c>
       <c r="C154">
-        <v>0.1334</v>
+        <v>0.1397</v>
       </c>
       <c r="D154">
-        <v>0.2055</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3372</v>
+        <v>0.3741</v>
       </c>
       <c r="C155">
-        <v>0.1339</v>
+        <v>0.1402</v>
       </c>
       <c r="D155">
-        <v>0.2033</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3362</v>
+        <v>0.3734</v>
       </c>
       <c r="C156">
-        <v>0.1343</v>
+        <v>0.1406</v>
       </c>
       <c r="D156">
-        <v>0.2019</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3352</v>
+        <v>0.3725</v>
       </c>
       <c r="C157">
-        <v>0.1341</v>
+        <v>0.1404</v>
       </c>
       <c r="D157">
-        <v>0.2011</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3341</v>
+        <v>0.3715</v>
       </c>
       <c r="C158">
-        <v>0.1343</v>
+        <v>0.1406</v>
       </c>
       <c r="D158">
-        <v>0.1999</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3325</v>
+        <v>0.3701</v>
       </c>
       <c r="C159">
-        <v>0.1348</v>
+        <v>0.1412</v>
       </c>
       <c r="D159">
-        <v>0.1977</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3321</v>
+        <v>0.3699</v>
       </c>
       <c r="C160">
-        <v>0.1363</v>
+        <v>0.1428</v>
       </c>
       <c r="D160">
-        <v>0.1957</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3318</v>
+        <v>0.3697</v>
       </c>
       <c r="C161">
-        <v>0.1379</v>
+        <v>0.1444</v>
       </c>
       <c r="D161">
-        <v>0.1938</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.331</v>
+        <v>0.3692</v>
       </c>
       <c r="C162">
-        <v>0.1397</v>
+        <v>0.1463</v>
       </c>
       <c r="D162">
-        <v>0.1913</v>
+        <v>0.2229</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3315</v>
+        <v>0.3699</v>
       </c>
       <c r="C163">
-        <v>0.1425</v>
+        <v>0.1493</v>
       </c>
       <c r="D163">
-        <v>0.189</v>
+        <v>0.2207</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3312</v>
+        <v>0.3696</v>
       </c>
       <c r="C164">
-        <v>0.1446</v>
+        <v>0.1514</v>
       </c>
       <c r="D164">
-        <v>0.1866</v>
+        <v>0.2182</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3302</v>
+        <v>0.3685</v>
       </c>
       <c r="C165">
-        <v>0.1464</v>
+        <v>0.1533</v>
       </c>
       <c r="D165">
-        <v>0.1838</v>
+        <v>0.2152</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.329</v>
+        <v>0.3668</v>
       </c>
       <c r="C166">
-        <v>0.1476</v>
+        <v>0.1545</v>
       </c>
       <c r="D166">
-        <v>0.1814</v>
+        <v>0.2123</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3272</v>
+        <v>0.3642</v>
       </c>
       <c r="C167">
-        <v>0.1481</v>
+        <v>0.155</v>
       </c>
       <c r="D167">
-        <v>0.1791</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.326</v>
+        <v>0.3622</v>
       </c>
       <c r="C168">
-        <v>0.1489</v>
+        <v>0.1558</v>
       </c>
       <c r="D168">
-        <v>0.1771</v>
+        <v>0.2064</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3256</v>
+        <v>0.3607</v>
       </c>
       <c r="C169">
-        <v>0.15</v>
+        <v>0.1568</v>
       </c>
       <c r="D169">
-        <v>0.1757</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3258</v>
+        <v>0.3595</v>
       </c>
       <c r="C170">
-        <v>0.1511</v>
+        <v>0.1579</v>
       </c>
       <c r="D170">
-        <v>0.1747</v>
+        <v>0.2016</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3252</v>
+        <v>0.3574</v>
       </c>
       <c r="C171">
-        <v>0.1514</v>
+        <v>0.1581</v>
       </c>
       <c r="D171">
-        <v>0.1738</v>
+        <v>0.1993</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3259</v>
+        <v>0.3564</v>
       </c>
       <c r="C172">
-        <v>0.1523</v>
+        <v>0.1589</v>
       </c>
       <c r="D172">
-        <v>0.1736</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3555,13 +3555,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3271</v>
+        <v>0.3557</v>
       </c>
       <c r="C173">
-        <v>0.1533</v>
+        <v>0.1599</v>
       </c>
       <c r="D173">
-        <v>0.1738</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3275</v>
+        <v>0.3539</v>
       </c>
       <c r="C174">
-        <v>0.1535</v>
+        <v>0.1599</v>
       </c>
       <c r="D174">
-        <v>0.1741</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3276</v>
+        <v>0.3516</v>
       </c>
       <c r="C175">
-        <v>0.153</v>
+        <v>0.1592</v>
       </c>
       <c r="D175">
-        <v>0.1746</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3264</v>
+        <v>0.348</v>
       </c>
       <c r="C176">
-        <v>0.1517</v>
+        <v>0.1577</v>
       </c>
       <c r="D176">
-        <v>0.1747</v>
+        <v>0.1903</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3255</v>
+        <v>0.3449</v>
       </c>
       <c r="C177">
-        <v>0.1504</v>
+        <v>0.1562</v>
       </c>
       <c r="D177">
-        <v>0.1752</v>
+        <v>0.1888</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3251</v>
+        <v>0.3421</v>
       </c>
       <c r="C178">
-        <v>0.1488</v>
+        <v>0.1543</v>
       </c>
       <c r="D178">
-        <v>0.1764</v>
+        <v>0.1878</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3247</v>
+        <v>0.3394</v>
       </c>
       <c r="C179">
-        <v>0.1469</v>
+        <v>0.1523</v>
       </c>
       <c r="D179">
-        <v>0.1778</v>
+        <v>0.1871</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3244</v>
+        <v>0.3368</v>
       </c>
       <c r="C180">
-        <v>0.145</v>
+        <v>0.1501</v>
       </c>
       <c r="D180">
-        <v>0.1795</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3242</v>
+        <v>0.3343</v>
       </c>
       <c r="C181">
-        <v>0.1428</v>
+        <v>0.1477</v>
       </c>
       <c r="D181">
-        <v>0.1814</v>
+        <v>0.1866</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3243</v>
+        <v>0.3323</v>
       </c>
       <c r="C182">
-        <v>0.1407</v>
+        <v>0.1454</v>
       </c>
       <c r="D182">
-        <v>0.1836</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3248</v>
+        <v>0.3306</v>
       </c>
       <c r="C183">
-        <v>0.1387</v>
+        <v>0.1431</v>
       </c>
       <c r="D183">
-        <v>0.1861</v>
+        <v>0.1874</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3265</v>
+        <v>0.3304</v>
       </c>
       <c r="C184">
-        <v>0.1374</v>
+        <v>0.1418</v>
       </c>
       <c r="D184">
-        <v>0.189</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3279</v>
+        <v>0.33</v>
       </c>
       <c r="C185">
-        <v>0.1359</v>
+        <v>0.1401</v>
       </c>
       <c r="D185">
-        <v>0.1921</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3304</v>
+        <v>0.3308</v>
       </c>
       <c r="C186">
-        <v>0.135</v>
+        <v>0.139</v>
       </c>
       <c r="D186">
-        <v>0.1954</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3332</v>
+        <v>0.3323</v>
       </c>
       <c r="C187">
-        <v>0.1343</v>
+        <v>0.1383</v>
       </c>
       <c r="D187">
-        <v>0.1989</v>
+        <v>0.1939</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3365</v>
+        <v>0.3339</v>
       </c>
       <c r="C188">
-        <v>0.134</v>
+        <v>0.138</v>
       </c>
       <c r="D188">
-        <v>0.2025</v>
+        <v>0.1959</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3394</v>
+        <v>0.3354</v>
       </c>
       <c r="C189">
-        <v>0.1336</v>
+        <v>0.1375</v>
       </c>
       <c r="D189">
-        <v>0.2058</v>
+        <v>0.1979</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3426</v>
+        <v>0.3374</v>
       </c>
       <c r="C190">
-        <v>0.1334</v>
+        <v>0.1372</v>
       </c>
       <c r="D190">
-        <v>0.2092</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3462</v>
+        <v>0.3398</v>
       </c>
       <c r="C191">
-        <v>0.1332</v>
+        <v>0.137</v>
       </c>
       <c r="D191">
-        <v>0.213</v>
+        <v>0.2029</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3497</v>
+        <v>0.3424</v>
       </c>
       <c r="C192">
-        <v>0.1325</v>
+        <v>0.1362</v>
       </c>
       <c r="D192">
-        <v>0.2173</v>
+        <v>0.2061</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3537</v>
+        <v>0.3456</v>
       </c>
       <c r="C193">
-        <v>0.1319</v>
+        <v>0.1357</v>
       </c>
       <c r="D193">
-        <v>0.2218</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3586</v>
+        <v>0.3499</v>
       </c>
       <c r="C194">
-        <v>0.1323</v>
+        <v>0.1361</v>
       </c>
       <c r="D194">
-        <v>0.2263</v>
+        <v>0.2138</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3639</v>
+        <v>0.3548</v>
       </c>
       <c r="C195">
-        <v>0.1328</v>
+        <v>0.1367</v>
       </c>
       <c r="D195">
-        <v>0.2311</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3692</v>
+        <v>0.3596</v>
       </c>
       <c r="C196">
-        <v>0.1333</v>
+        <v>0.1373</v>
       </c>
       <c r="D196">
-        <v>0.2359</v>
+        <v>0.2224</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3745</v>
+        <v>0.3645</v>
       </c>
       <c r="C197">
-        <v>0.1341</v>
+        <v>0.1381</v>
       </c>
       <c r="D197">
-        <v>0.2404</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3799</v>
+        <v>0.3698</v>
       </c>
       <c r="C198">
-        <v>0.1355</v>
+        <v>0.1396</v>
       </c>
       <c r="D198">
-        <v>0.2444</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3852</v>
+        <v>0.375</v>
       </c>
       <c r="C199">
-        <v>0.1368</v>
+        <v>0.1411</v>
       </c>
       <c r="D199">
-        <v>0.2484</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3902</v>
+        <v>0.3797</v>
       </c>
       <c r="C200">
-        <v>0.138</v>
+        <v>0.1424</v>
       </c>
       <c r="D200">
-        <v>0.2521</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.395</v>
+        <v>0.3844</v>
       </c>
       <c r="C201">
-        <v>0.1392</v>
+        <v>0.1436</v>
       </c>
       <c r="D201">
-        <v>0.2558</v>
+        <v>0.2408</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3998</v>
+        <v>0.3892</v>
       </c>
       <c r="C202">
-        <v>0.1406</v>
+        <v>0.1451</v>
       </c>
       <c r="D202">
-        <v>0.2592</v>
+        <v>0.2441</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4046</v>
+        <v>0.394</v>
       </c>
       <c r="C203">
-        <v>0.1422</v>
+        <v>0.1469</v>
       </c>
       <c r="D203">
-        <v>0.2624</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4082</v>
+        <v>0.3972</v>
       </c>
       <c r="C204">
-        <v>0.1429</v>
+        <v>0.1477</v>
       </c>
       <c r="D204">
-        <v>0.2653</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.412</v>
+        <v>0.4005</v>
       </c>
       <c r="C205">
-        <v>0.1437</v>
+        <v>0.1485</v>
       </c>
       <c r="D205">
-        <v>0.2683</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4146</v>
+        <v>0.4025</v>
       </c>
       <c r="C206">
-        <v>0.1437</v>
+        <v>0.1485</v>
       </c>
       <c r="D206">
-        <v>0.2709</v>
+        <v>0.2541</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4166</v>
+        <v>0.4039</v>
       </c>
       <c r="C207">
-        <v>0.1432</v>
+        <v>0.148</v>
       </c>
       <c r="D207">
-        <v>0.2734</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4182</v>
+        <v>0.4051</v>
       </c>
       <c r="C208">
-        <v>0.1426</v>
+        <v>0.1474</v>
       </c>
       <c r="D208">
-        <v>0.2756</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4194</v>
+        <v>0.4058</v>
       </c>
       <c r="C209">
-        <v>0.1418</v>
+        <v>0.1466</v>
       </c>
       <c r="D209">
-        <v>0.2776</v>
+        <v>0.2593</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4212</v>
+        <v>0.407</v>
       </c>
       <c r="C210">
-        <v>0.1412</v>
+        <v>0.1459</v>
       </c>
       <c r="D210">
-        <v>0.28</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4227</v>
+        <v>0.4078</v>
       </c>
       <c r="C211">
-        <v>0.1404</v>
+        <v>0.1451</v>
       </c>
       <c r="D211">
-        <v>0.2823</v>
+        <v>0.2626</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4237</v>
+        <v>0.4081</v>
       </c>
       <c r="C212">
-        <v>0.1399</v>
+        <v>0.1445</v>
       </c>
       <c r="D212">
-        <v>0.2838</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4246</v>
+        <v>0.4083</v>
       </c>
       <c r="C213">
-        <v>0.1397</v>
+        <v>0.1443</v>
       </c>
       <c r="D213">
-        <v>0.2849</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4256</v>
+        <v>0.4085</v>
       </c>
       <c r="C214">
-        <v>0.1394</v>
+        <v>0.144</v>
       </c>
       <c r="D214">
-        <v>0.2862</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4264</v>
+        <v>0.4085</v>
       </c>
       <c r="C215">
-        <v>0.1388</v>
+        <v>0.1434</v>
       </c>
       <c r="D215">
-        <v>0.2876</v>
+        <v>0.2651</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4273</v>
+        <v>0.4085</v>
       </c>
       <c r="C216">
-        <v>0.1383</v>
+        <v>0.1428</v>
       </c>
       <c r="D216">
-        <v>0.289</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4277</v>
+        <v>0.4082</v>
       </c>
       <c r="C217">
-        <v>0.1372</v>
+        <v>0.1417</v>
       </c>
       <c r="D217">
-        <v>0.2905</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4277</v>
+        <v>0.4073</v>
       </c>
       <c r="C218">
-        <v>0.1356</v>
+        <v>0.14</v>
       </c>
       <c r="D218">
-        <v>0.2921</v>
+        <v>0.2673</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4276</v>
+        <v>0.4063</v>
       </c>
       <c r="C219">
-        <v>0.1339</v>
+        <v>0.1382</v>
       </c>
       <c r="D219">
-        <v>0.2937</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4273</v>
+        <v>0.4051</v>
       </c>
       <c r="C220">
-        <v>0.1319</v>
+        <v>0.1361</v>
       </c>
       <c r="D220">
-        <v>0.2955</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4271</v>
+        <v>0.404</v>
       </c>
       <c r="C221">
-        <v>0.13</v>
+        <v>0.1341</v>
       </c>
       <c r="D221">
-        <v>0.2971</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4272</v>
+        <v>0.4032</v>
       </c>
       <c r="C222">
-        <v>0.1284</v>
+        <v>0.1324</v>
       </c>
       <c r="D222">
-        <v>0.2988</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.427</v>
+        <v>0.4021</v>
       </c>
       <c r="C223">
-        <v>0.1265</v>
+        <v>0.1304</v>
       </c>
       <c r="D223">
-        <v>0.3005</v>
+        <v>0.2717</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.4274</v>
+        <v>0.4017</v>
       </c>
       <c r="C224">
-        <v>0.1252</v>
+        <v>0.129</v>
       </c>
       <c r="D224">
-        <v>0.3022</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.4283</v>
+        <v>0.402</v>
       </c>
       <c r="C225">
-        <v>0.1244</v>
+        <v>0.1282</v>
       </c>
       <c r="D225">
-        <v>0.3039</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.4298</v>
+        <v>0.4028</v>
       </c>
       <c r="C226">
-        <v>0.1244</v>
+        <v>0.1281</v>
       </c>
       <c r="D226">
-        <v>0.3054</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4318</v>
+        <v>0.4043</v>
       </c>
       <c r="C227">
-        <v>0.1249</v>
+        <v>0.1287</v>
       </c>
       <c r="D227">
-        <v>0.3068</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.434</v>
+        <v>0.4059</v>
       </c>
       <c r="C228">
-        <v>0.1258</v>
+        <v>0.1296</v>
       </c>
       <c r="D228">
-        <v>0.3082</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4364</v>
+        <v>0.4079</v>
       </c>
       <c r="C229">
-        <v>0.1267</v>
+        <v>0.1306</v>
       </c>
       <c r="D229">
-        <v>0.3097</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4382</v>
+        <v>0.4093</v>
       </c>
       <c r="C230">
-        <v>0.1276</v>
+        <v>0.1315</v>
       </c>
       <c r="D230">
-        <v>0.3106</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.44</v>
+        <v>0.4108</v>
       </c>
       <c r="C231">
-        <v>0.1288</v>
+        <v>0.1328</v>
       </c>
       <c r="D231">
-        <v>0.3112</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4417</v>
+        <v>0.4122</v>
       </c>
       <c r="C232">
-        <v>0.1301</v>
+        <v>0.1341</v>
       </c>
       <c r="D232">
-        <v>0.3116</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4429</v>
+        <v>0.413</v>
       </c>
       <c r="C233">
-        <v>0.1309</v>
+        <v>0.1349</v>
       </c>
       <c r="D233">
-        <v>0.312</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4431</v>
+        <v>0.4127</v>
       </c>
       <c r="C234">
-        <v>0.1308</v>
+        <v>0.1348</v>
       </c>
       <c r="D234">
-        <v>0.3123</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4435</v>
+        <v>0.4126</v>
       </c>
       <c r="C235">
-        <v>0.131</v>
+        <v>0.135</v>
       </c>
       <c r="D235">
-        <v>0.3125</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.444</v>
+        <v>0.4126</v>
       </c>
       <c r="C236">
-        <v>0.1316</v>
+        <v>0.1355</v>
       </c>
       <c r="D236">
-        <v>0.3124</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4448</v>
+        <v>0.4127</v>
       </c>
       <c r="C237">
-        <v>0.1326</v>
+        <v>0.1366</v>
       </c>
       <c r="D237">
-        <v>0.3122</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4461</v>
+        <v>0.4132</v>
       </c>
       <c r="C238">
-        <v>0.1338</v>
+        <v>0.1378</v>
       </c>
       <c r="D238">
-        <v>0.3122</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.447</v>
+        <v>0.4133</v>
       </c>
       <c r="C239">
-        <v>0.1349</v>
+        <v>0.1389</v>
       </c>
       <c r="D239">
-        <v>0.3121</v>
+        <v>0.2744</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4481</v>
+        <v>0.4135</v>
       </c>
       <c r="C240">
-        <v>0.1361</v>
+        <v>0.1401</v>
       </c>
       <c r="D240">
-        <v>0.312</v>
+        <v>0.2734</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4485</v>
+        <v>0.413</v>
       </c>
       <c r="C241">
-        <v>0.1367</v>
+        <v>0.1407</v>
       </c>
       <c r="D241">
-        <v>0.3118</v>
+        <v>0.2722</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4485</v>
+        <v>0.4119</v>
       </c>
       <c r="C242">
-        <v>0.137</v>
+        <v>0.141</v>
       </c>
       <c r="D242">
-        <v>0.3115</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4483</v>
+        <v>0.4105</v>
       </c>
       <c r="C243">
-        <v>0.1371</v>
+        <v>0.141</v>
       </c>
       <c r="D243">
-        <v>0.3112</v>
+        <v>0.2695</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4482</v>
+        <v>0.4091</v>
       </c>
       <c r="C244">
-        <v>0.137</v>
+        <v>0.1408</v>
       </c>
       <c r="D244">
-        <v>0.3112</v>
+        <v>0.2683</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4479</v>
+        <v>0.4075</v>
       </c>
       <c r="C245">
-        <v>0.1369</v>
+        <v>0.1407</v>
       </c>
       <c r="D245">
-        <v>0.311</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4479</v>
+        <v>0.4063</v>
       </c>
       <c r="C246">
-        <v>0.1369</v>
+        <v>0.1406</v>
       </c>
       <c r="D246">
-        <v>0.311</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4471</v>
+        <v>0.4044</v>
       </c>
       <c r="C247">
-        <v>0.1362</v>
+        <v>0.1399</v>
       </c>
       <c r="D247">
-        <v>0.3109</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4457</v>
+        <v>0.4018</v>
       </c>
       <c r="C248">
-        <v>0.135</v>
+        <v>0.1386</v>
       </c>
       <c r="D248">
-        <v>0.3106</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.4446</v>
+        <v>0.3997</v>
       </c>
       <c r="C249">
-        <v>0.1345</v>
+        <v>0.1379</v>
       </c>
       <c r="D249">
-        <v>0.3101</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.4431</v>
+        <v>0.3971</v>
       </c>
       <c r="C250">
-        <v>0.1336</v>
+        <v>0.1369</v>
       </c>
       <c r="D250">
-        <v>0.3095</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.4414</v>
+        <v>0.3944</v>
       </c>
       <c r="C251">
-        <v>0.1321</v>
+        <v>0.1354</v>
       </c>
       <c r="D251">
-        <v>0.3093</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.4403</v>
+        <v>0.392</v>
       </c>
       <c r="C252">
-        <v>0.131</v>
+        <v>0.1341</v>
       </c>
       <c r="D252">
-        <v>0.3093</v>
+        <v>0.2578</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2020 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2020 - Diaria.xlsx
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3487</v>
+        <v>0.3511</v>
       </c>
       <c r="C2">
-        <v>0.1977</v>
+        <v>0.1978</v>
       </c>
       <c r="D2">
-        <v>0.151</v>
+        <v>0.1532</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3345</v>
+        <v>0.3367</v>
       </c>
       <c r="C3">
-        <v>0.1917</v>
+        <v>0.1918</v>
       </c>
       <c r="D3">
-        <v>0.1427</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3215</v>
+        <v>0.3237</v>
       </c>
       <c r="C4">
-        <v>0.1863</v>
+        <v>0.1864</v>
       </c>
       <c r="D4">
-        <v>0.1351</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3119</v>
+        <v>0.3141</v>
       </c>
       <c r="C5">
-        <v>0.1835</v>
+        <v>0.1836</v>
       </c>
       <c r="D5">
-        <v>0.1284</v>
+        <v>0.1305</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3004</v>
+        <v>0.3026</v>
       </c>
       <c r="C6">
-        <v>0.1798</v>
+        <v>0.1799</v>
       </c>
       <c r="D6">
-        <v>0.1207</v>
+        <v>0.1227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2883</v>
+        <v>0.2904</v>
       </c>
       <c r="C7">
-        <v>0.1747</v>
+        <v>0.1748</v>
       </c>
       <c r="D7">
-        <v>0.1136</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2778</v>
+        <v>0.2798</v>
       </c>
       <c r="C8">
-        <v>0.1701</v>
+        <v>0.1703</v>
       </c>
       <c r="D8">
-        <v>0.1077</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2678</v>
+        <v>0.2698</v>
       </c>
       <c r="C9">
-        <v>0.1656</v>
+        <v>0.1658</v>
       </c>
       <c r="D9">
-        <v>0.1022</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2581</v>
+        <v>0.26</v>
       </c>
       <c r="C10">
-        <v>0.161</v>
+        <v>0.1612</v>
       </c>
       <c r="D10">
-        <v>0.09710000000000001</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2499</v>
+        <v>0.2516</v>
       </c>
       <c r="C11">
-        <v>0.1572</v>
+        <v>0.1574</v>
       </c>
       <c r="D11">
-        <v>0.0927</v>
+        <v>0.09429999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2413</v>
+        <v>0.2429</v>
       </c>
       <c r="C12">
-        <v>0.1526</v>
+        <v>0.1528</v>
       </c>
       <c r="D12">
-        <v>0.0887</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2333</v>
+        <v>0.2349</v>
       </c>
       <c r="C13">
-        <v>0.1485</v>
+        <v>0.1487</v>
       </c>
       <c r="D13">
-        <v>0.0848</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2249</v>
+        <v>0.2265</v>
       </c>
       <c r="C14">
-        <v>0.1448</v>
+        <v>0.145</v>
       </c>
       <c r="D14">
-        <v>0.0801</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.217</v>
+        <v>0.2185</v>
       </c>
       <c r="C15">
-        <v>0.1411</v>
+        <v>0.1413</v>
       </c>
       <c r="D15">
-        <v>0.0759</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2095</v>
+        <v>0.2109</v>
       </c>
       <c r="C16">
-        <v>0.1375</v>
+        <v>0.1377</v>
       </c>
       <c r="D16">
-        <v>0.07199999999999999</v>
+        <v>0.0733</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2023</v>
+        <v>0.2037</v>
       </c>
       <c r="C17">
-        <v>0.1337</v>
+        <v>0.1338</v>
       </c>
       <c r="D17">
-        <v>0.0687</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.1963</v>
+        <v>0.1975</v>
       </c>
       <c r="C18">
-        <v>0.1305</v>
+        <v>0.1307</v>
       </c>
       <c r="D18">
-        <v>0.0658</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1909</v>
+        <v>0.1921</v>
       </c>
       <c r="C19">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="D19">
-        <v>0.0633</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.1868</v>
+        <v>0.1879</v>
       </c>
       <c r="C20">
-        <v>0.1257</v>
+        <v>0.1259</v>
       </c>
       <c r="D20">
-        <v>0.0611</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.1833</v>
+        <v>0.1844</v>
       </c>
       <c r="C21">
-        <v>0.1241</v>
+        <v>0.1243</v>
       </c>
       <c r="D21">
-        <v>0.0592</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.1799</v>
+        <v>0.1809</v>
       </c>
       <c r="C22">
-        <v>0.1221</v>
+        <v>0.1223</v>
       </c>
       <c r="D22">
-        <v>0.0578</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.1776</v>
+        <v>0.1784</v>
       </c>
       <c r="C23">
-        <v>0.1209</v>
+        <v>0.1211</v>
       </c>
       <c r="D23">
-        <v>0.0566</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1764</v>
+        <v>0.1771</v>
       </c>
       <c r="C24">
-        <v>0.1204</v>
+        <v>0.1205</v>
       </c>
       <c r="D24">
-        <v>0.056</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.1747</v>
+        <v>0.1753</v>
       </c>
       <c r="C25">
-        <v>0.1191</v>
+        <v>0.1193</v>
       </c>
       <c r="D25">
-        <v>0.0556</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.1738</v>
+        <v>0.1743</v>
       </c>
       <c r="C26">
-        <v>0.1181</v>
+        <v>0.1183</v>
       </c>
       <c r="D26">
-        <v>0.0556</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.1736</v>
+        <v>0.174</v>
       </c>
       <c r="C27">
-        <v>0.118</v>
+        <v>0.1181</v>
       </c>
       <c r="D27">
-        <v>0.0557</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.173</v>
+        <v>0.1734</v>
       </c>
       <c r="C28">
-        <v>0.1176</v>
+        <v>0.1177</v>
       </c>
       <c r="D28">
-        <v>0.0554</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.1733</v>
+        <v>0.1736</v>
       </c>
       <c r="C29">
         <v>0.1177</v>
       </c>
       <c r="D29">
-        <v>0.0556</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.1748</v>
+        <v>0.1751</v>
       </c>
       <c r="C30">
-        <v>0.1185</v>
+        <v>0.1186</v>
       </c>
       <c r="D30">
-        <v>0.0563</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.1751</v>
+        <v>0.1753</v>
       </c>
       <c r="C31">
-        <v>0.1181</v>
+        <v>0.1182</v>
       </c>
       <c r="D31">
-        <v>0.057</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.1759</v>
+        <v>0.1761</v>
       </c>
       <c r="C32">
-        <v>0.118</v>
+        <v>0.1181</v>
       </c>
       <c r="D32">
-        <v>0.0579</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,7 +1598,7 @@
         <v>0.1774</v>
       </c>
       <c r="C33">
-        <v>0.1181</v>
+        <v>0.1182</v>
       </c>
       <c r="D33">
         <v>0.0592</v>
@@ -1623,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.182</v>
+        <v>0.1819</v>
       </c>
       <c r="C35">
         <v>0.1186</v>
       </c>
       <c r="D35">
-        <v>0.0634</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.1859</v>
+        <v>0.1857</v>
       </c>
       <c r="C36">
         <v>0.1194</v>
       </c>
       <c r="D36">
-        <v>0.0665</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.191</v>
+        <v>0.1908</v>
       </c>
       <c r="C37">
         <v>0.1208</v>
       </c>
       <c r="D37">
-        <v>0.0702</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.1973</v>
+        <v>0.197</v>
       </c>
       <c r="C38">
         <v>0.1222</v>
       </c>
       <c r="D38">
-        <v>0.0751</v>
+        <v>0.07480000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2045</v>
+        <v>0.2041</v>
       </c>
       <c r="C39">
         <v>0.1238</v>
       </c>
       <c r="D39">
-        <v>0.08069999999999999</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2146</v>
+        <v>0.2141</v>
       </c>
       <c r="C40">
         <v>0.1257</v>
       </c>
       <c r="D40">
-        <v>0.08890000000000001</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2253</v>
+        <v>0.2247</v>
       </c>
       <c r="C41">
-        <v>0.1277</v>
+        <v>0.1276</v>
       </c>
       <c r="D41">
-        <v>0.09760000000000001</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2371</v>
+        <v>0.2365</v>
       </c>
       <c r="C42">
-        <v>0.1306</v>
+        <v>0.1305</v>
       </c>
       <c r="D42">
-        <v>0.1065</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2499</v>
+        <v>0.2493</v>
       </c>
       <c r="C43">
-        <v>0.134</v>
+        <v>0.1339</v>
       </c>
       <c r="D43">
-        <v>0.1159</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.263</v>
+        <v>0.2623</v>
       </c>
       <c r="C44">
-        <v>0.1376</v>
+        <v>0.1375</v>
       </c>
       <c r="D44">
-        <v>0.1254</v>
+        <v>0.1248</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2759</v>
+        <v>0.2752</v>
       </c>
       <c r="C45">
-        <v>0.1406</v>
+        <v>0.1405</v>
       </c>
       <c r="D45">
-        <v>0.1354</v>
+        <v>0.1347</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2886</v>
+        <v>0.2879</v>
       </c>
       <c r="C46">
-        <v>0.143</v>
+        <v>0.1429</v>
       </c>
       <c r="D46">
-        <v>0.1456</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3038</v>
+        <v>0.303</v>
       </c>
       <c r="C47">
-        <v>0.146</v>
+        <v>0.1459</v>
       </c>
       <c r="D47">
-        <v>0.1578</v>
+        <v>0.1571</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3187</v>
+        <v>0.318</v>
       </c>
       <c r="C48">
-        <v>0.1488</v>
+        <v>0.1487</v>
       </c>
       <c r="D48">
-        <v>0.1699</v>
+        <v>0.1693</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3329</v>
+        <v>0.3322</v>
       </c>
       <c r="C49">
-        <v>0.151</v>
+        <v>0.1509</v>
       </c>
       <c r="D49">
-        <v>0.1819</v>
+        <v>0.1813</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3483</v>
+        <v>0.3476</v>
       </c>
       <c r="C50">
-        <v>0.1539</v>
+        <v>0.1538</v>
       </c>
       <c r="D50">
-        <v>0.1944</v>
+        <v>0.1938</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3652</v>
+        <v>0.3645</v>
       </c>
       <c r="C51">
-        <v>0.1582</v>
+        <v>0.1581</v>
       </c>
       <c r="D51">
-        <v>0.207</v>
+        <v>0.2064</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3843</v>
+        <v>0.3837</v>
       </c>
       <c r="C52">
-        <v>0.1657</v>
+        <v>0.1656</v>
       </c>
       <c r="D52">
-        <v>0.2187</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4094</v>
+        <v>0.4087</v>
       </c>
       <c r="C53">
-        <v>0.1752</v>
+        <v>0.1751</v>
       </c>
       <c r="D53">
-        <v>0.2342</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4328</v>
+        <v>0.4321</v>
       </c>
       <c r="C54">
-        <v>0.1842</v>
+        <v>0.1841</v>
       </c>
       <c r="D54">
-        <v>0.2486</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4578</v>
+        <v>0.4571</v>
       </c>
       <c r="C55">
-        <v>0.1941</v>
+        <v>0.194</v>
       </c>
       <c r="D55">
-        <v>0.2637</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.482</v>
+        <v>0.4814</v>
       </c>
       <c r="C56">
-        <v>0.205</v>
+        <v>0.2049</v>
       </c>
       <c r="D56">
-        <v>0.277</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.5107</v>
+        <v>0.5101</v>
       </c>
       <c r="C57">
-        <v>0.2175</v>
+        <v>0.2174</v>
       </c>
       <c r="D57">
-        <v>0.2932</v>
+        <v>0.2927</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.5351</v>
+        <v>0.5344</v>
       </c>
       <c r="C58">
-        <v>0.2279</v>
+        <v>0.2278</v>
       </c>
       <c r="D58">
-        <v>0.3072</v>
+        <v>0.3066</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.5563</v>
+        <v>0.5557</v>
       </c>
       <c r="C59">
-        <v>0.237</v>
+        <v>0.2369</v>
       </c>
       <c r="D59">
-        <v>0.3193</v>
+        <v>0.3188</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.5737</v>
+        <v>0.5732</v>
       </c>
       <c r="C60">
-        <v>0.2457</v>
+        <v>0.2456</v>
       </c>
       <c r="D60">
-        <v>0.328</v>
+        <v>0.3276</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.5904</v>
+        <v>0.5901</v>
       </c>
       <c r="C61">
-        <v>0.2546</v>
+        <v>0.2545</v>
       </c>
       <c r="D61">
-        <v>0.3358</v>
+        <v>0.3355</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.606</v>
+        <v>0.6058</v>
       </c>
       <c r="C62">
-        <v>0.2632</v>
+        <v>0.2631</v>
       </c>
       <c r="D62">
-        <v>0.3428</v>
+        <v>0.3427</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,7 +2018,7 @@
         <v>0.6204</v>
       </c>
       <c r="C63">
-        <v>0.2716</v>
+        <v>0.2715</v>
       </c>
       <c r="D63">
         <v>0.3489</v>
@@ -2029,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.6332</v>
+        <v>0.6333</v>
       </c>
       <c r="C64">
         <v>0.279</v>
       </c>
       <c r="D64">
-        <v>0.3541</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.6445</v>
+        <v>0.6448</v>
       </c>
       <c r="C65">
         <v>0.2863</v>
       </c>
       <c r="D65">
-        <v>0.3582</v>
+        <v>0.3586</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.6544</v>
+        <v>0.6549</v>
       </c>
       <c r="C66">
         <v>0.2932</v>
       </c>
       <c r="D66">
-        <v>0.3612</v>
+        <v>0.3617</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.6629</v>
+        <v>0.6635</v>
       </c>
       <c r="C67">
-        <v>0.2997</v>
+        <v>0.2996</v>
       </c>
       <c r="D67">
-        <v>0.3632</v>
+        <v>0.3639</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.6701</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="C68">
         <v>0.3054</v>
       </c>
       <c r="D68">
-        <v>0.3647</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.6772</v>
+        <v>0.6782</v>
       </c>
       <c r="C69">
-        <v>0.3117</v>
+        <v>0.3116</v>
       </c>
       <c r="D69">
-        <v>0.3655</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.6828</v>
+        <v>0.6839</v>
       </c>
       <c r="C70">
-        <v>0.3177</v>
+        <v>0.3176</v>
       </c>
       <c r="D70">
-        <v>0.3652</v>
+        <v>0.3663</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.6863</v>
+        <v>0.6876</v>
       </c>
       <c r="C71">
         <v>0.3221</v>
       </c>
       <c r="D71">
-        <v>0.3642</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.6871</v>
+        <v>0.6886</v>
       </c>
       <c r="C72">
-        <v>0.3234</v>
+        <v>0.3233</v>
       </c>
       <c r="D72">
-        <v>0.3638</v>
+        <v>0.3653</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.6812</v>
+        <v>0.6829</v>
       </c>
       <c r="C73">
         <v>0.3224</v>
       </c>
       <c r="D73">
-        <v>0.3588</v>
+        <v>0.3605</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.6766</v>
+        <v>0.6784</v>
       </c>
       <c r="C74">
         <v>0.3222</v>
       </c>
       <c r="D74">
-        <v>0.3543</v>
+        <v>0.3562</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.6696</v>
+        <v>0.6716</v>
       </c>
       <c r="C75">
-        <v>0.3212</v>
+        <v>0.3211</v>
       </c>
       <c r="D75">
-        <v>0.3484</v>
+        <v>0.3505</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.6623</v>
+        <v>0.6645</v>
       </c>
       <c r="C76">
         <v>0.3184</v>
       </c>
       <c r="D76">
-        <v>0.3438</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.6502</v>
+        <v>0.6526999999999999</v>
       </c>
       <c r="C77">
         <v>0.3146</v>
       </c>
       <c r="D77">
-        <v>0.3356</v>
+        <v>0.3381</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.6414</v>
+        <v>0.6441</v>
       </c>
       <c r="C78">
         <v>0.313</v>
       </c>
       <c r="D78">
-        <v>0.3284</v>
+        <v>0.3311</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.6353</v>
+        <v>0.6382</v>
       </c>
       <c r="C79">
         <v>0.313</v>
       </c>
       <c r="D79">
-        <v>0.3224</v>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.6284999999999999</v>
+        <v>0.6314</v>
       </c>
       <c r="C80">
         <v>0.3113</v>
       </c>
       <c r="D80">
-        <v>0.3172</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="C81">
         <v>0.3079</v>
       </c>
       <c r="D81">
-        <v>0.3121</v>
+        <v>0.3151</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.6117</v>
+        <v>0.6147</v>
       </c>
       <c r="C82">
         <v>0.3039</v>
       </c>
       <c r="D82">
-        <v>0.3078</v>
+        <v>0.3108</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.6028</v>
+        <v>0.6058</v>
       </c>
       <c r="C83">
         <v>0.2991</v>
       </c>
       <c r="D83">
-        <v>0.3037</v>
+        <v>0.3067</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5947</v>
+        <v>0.5977</v>
       </c>
       <c r="C84">
         <v>0.2947</v>
       </c>
       <c r="D84">
-        <v>0.3001</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5871</v>
+        <v>0.59</v>
       </c>
       <c r="C85">
         <v>0.29</v>
       </c>
       <c r="D85">
-        <v>0.2971</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.5807</v>
+        <v>0.5835</v>
       </c>
       <c r="C86">
         <v>0.2862</v>
       </c>
       <c r="D86">
-        <v>0.2944</v>
+        <v>0.2973</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5727</v>
+        <v>0.5755</v>
       </c>
       <c r="C87">
         <v>0.2821</v>
       </c>
       <c r="D87">
-        <v>0.2905</v>
+        <v>0.2933</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.5662</v>
+        <v>0.569</v>
       </c>
       <c r="C88">
         <v>0.2791</v>
       </c>
       <c r="D88">
-        <v>0.2872</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.5593</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="C89">
         <v>0.2752</v>
       </c>
       <c r="D89">
-        <v>0.2841</v>
+        <v>0.2869</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.552</v>
+        <v>0.5546</v>
       </c>
       <c r="C90">
         <v>0.2706</v>
       </c>
       <c r="D90">
-        <v>0.2814</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.5447</v>
+        <v>0.5472</v>
       </c>
       <c r="C91">
         <v>0.2657</v>
       </c>
       <c r="D91">
-        <v>0.279</v>
+        <v>0.2815</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.5369</v>
+        <v>0.5394</v>
       </c>
       <c r="C92">
         <v>0.2605</v>
       </c>
       <c r="D92">
-        <v>0.2765</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.5286999999999999</v>
+        <v>0.5311</v>
       </c>
       <c r="C93">
         <v>0.2546</v>
       </c>
       <c r="D93">
-        <v>0.2742</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.5202</v>
+        <v>0.5224</v>
       </c>
       <c r="C94">
         <v>0.248</v>
       </c>
       <c r="D94">
-        <v>0.2722</v>
+        <v>0.2745</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.5109</v>
+        <v>0.513</v>
       </c>
       <c r="C95">
         <v>0.2407</v>
       </c>
       <c r="D95">
-        <v>0.2701</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.5014</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="C96">
         <v>0.2334</v>
       </c>
       <c r="D96">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4914</v>
+        <v>0.4932</v>
       </c>
       <c r="C97">
-        <v>0.2251</v>
+        <v>0.225</v>
       </c>
       <c r="D97">
-        <v>0.2663</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4813</v>
+        <v>0.483</v>
       </c>
       <c r="C98">
-        <v>0.2167</v>
+        <v>0.2166</v>
       </c>
       <c r="D98">
-        <v>0.2647</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4716</v>
+        <v>0.4731</v>
       </c>
       <c r="C99">
         <v>0.2085</v>
       </c>
       <c r="D99">
-        <v>0.2631</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4647</v>
+        <v>0.4661</v>
       </c>
       <c r="C100">
         <v>0.2027</v>
       </c>
       <c r="D100">
-        <v>0.262</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4605</v>
+        <v>0.4617</v>
       </c>
       <c r="C101">
         <v>0.1987</v>
       </c>
       <c r="D101">
-        <v>0.2618</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4563</v>
+        <v>0.4573</v>
       </c>
       <c r="C102">
         <v>0.1951</v>
       </c>
       <c r="D102">
-        <v>0.2611</v>
+        <v>0.2622</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.452</v>
+        <v>0.4529</v>
       </c>
       <c r="C103">
         <v>0.1904</v>
       </c>
       <c r="D103">
-        <v>0.2616</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4486</v>
+        <v>0.4493</v>
       </c>
       <c r="C104">
-        <v>0.1864</v>
+        <v>0.1863</v>
       </c>
       <c r="D104">
-        <v>0.2622</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.4459</v>
+        <v>0.4465</v>
       </c>
       <c r="C105">
-        <v>0.1829</v>
+        <v>0.1828</v>
       </c>
       <c r="D105">
-        <v>0.263</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.4428</v>
+        <v>0.4433</v>
       </c>
       <c r="C106">
-        <v>0.1792</v>
+        <v>0.1791</v>
       </c>
       <c r="D106">
-        <v>0.2637</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4404</v>
+        <v>0.4408</v>
       </c>
       <c r="C107">
         <v>0.1762</v>
       </c>
       <c r="D107">
-        <v>0.2642</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.437</v>
+        <v>0.4372</v>
       </c>
       <c r="C108">
         <v>0.1723</v>
       </c>
       <c r="D108">
-        <v>0.2647</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4343</v>
+        <v>0.4344</v>
       </c>
       <c r="C109">
-        <v>0.1686</v>
+        <v>0.1685</v>
       </c>
       <c r="D109">
-        <v>0.2657</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.43</v>
+        <v>0.4301</v>
       </c>
       <c r="C110">
-        <v>0.1636</v>
+        <v>0.1635</v>
       </c>
       <c r="D110">
-        <v>0.2664</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,7 +2690,7 @@
         <v>0.4282</v>
       </c>
       <c r="C111">
-        <v>0.1604</v>
+        <v>0.1603</v>
       </c>
       <c r="D111">
         <v>0.2679</v>
@@ -2701,13 +2701,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.4265</v>
+        <v>0.4263</v>
       </c>
       <c r="C112">
         <v>0.1572</v>
       </c>
       <c r="D112">
-        <v>0.2693</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4257</v>
+        <v>0.4255</v>
       </c>
       <c r="C113">
-        <v>0.1551</v>
+        <v>0.155</v>
       </c>
       <c r="D113">
-        <v>0.2707</v>
+        <v>0.2705</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.4253</v>
+        <v>0.425</v>
       </c>
       <c r="C114">
-        <v>0.1531</v>
+        <v>0.153</v>
       </c>
       <c r="D114">
-        <v>0.2722</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.427</v>
+        <v>0.4266</v>
       </c>
       <c r="C115">
-        <v>0.1532</v>
+        <v>0.1531</v>
       </c>
       <c r="D115">
-        <v>0.2738</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.4287</v>
+        <v>0.4283</v>
       </c>
       <c r="C116">
         <v>0.1534</v>
       </c>
       <c r="D116">
-        <v>0.2753</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.43</v>
+        <v>0.4296</v>
       </c>
       <c r="C117">
-        <v>0.1539</v>
+        <v>0.1538</v>
       </c>
       <c r="D117">
-        <v>0.2761</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.4306</v>
+        <v>0.4303</v>
       </c>
       <c r="C118">
-        <v>0.1538</v>
+        <v>0.1537</v>
       </c>
       <c r="D118">
-        <v>0.2768</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.4315</v>
+        <v>0.4312</v>
       </c>
       <c r="C119">
-        <v>0.1536</v>
+        <v>0.1535</v>
       </c>
       <c r="D119">
-        <v>0.2779</v>
+        <v>0.2777</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4335</v>
+        <v>0.4331</v>
       </c>
       <c r="C120">
-        <v>0.1539</v>
+        <v>0.1538</v>
       </c>
       <c r="D120">
-        <v>0.2796</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.4345</v>
+        <v>0.4342</v>
       </c>
       <c r="C121">
-        <v>0.1538</v>
+        <v>0.1537</v>
       </c>
       <c r="D121">
-        <v>0.2807</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.4365</v>
+        <v>0.4362</v>
       </c>
       <c r="C122">
-        <v>0.1541</v>
+        <v>0.154</v>
       </c>
       <c r="D122">
-        <v>0.2824</v>
+        <v>0.2822</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.4381</v>
+        <v>0.4379</v>
       </c>
       <c r="C123">
         <v>0.1554</v>
       </c>
       <c r="D123">
-        <v>0.2827</v>
+        <v>0.2825</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.4385</v>
+        <v>0.4383</v>
       </c>
       <c r="C124">
-        <v>0.1561</v>
+        <v>0.156</v>
       </c>
       <c r="D124">
-        <v>0.2824</v>
+        <v>0.2823</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2883,10 +2883,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.4374</v>
+        <v>0.4372</v>
       </c>
       <c r="C125">
-        <v>0.156</v>
+        <v>0.1559</v>
       </c>
       <c r="D125">
         <v>0.2814</v>
@@ -2897,10 +2897,10 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4365</v>
+        <v>0.4364</v>
       </c>
       <c r="C126">
-        <v>0.156</v>
+        <v>0.1559</v>
       </c>
       <c r="D126">
         <v>0.2805</v>
@@ -2914,10 +2914,10 @@
         <v>0.4339</v>
       </c>
       <c r="C127">
-        <v>0.1546</v>
+        <v>0.1545</v>
       </c>
       <c r="D127">
-        <v>0.2793</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,10 +2928,10 @@
         <v>0.4315</v>
       </c>
       <c r="C128">
-        <v>0.1534</v>
+        <v>0.1533</v>
       </c>
       <c r="D128">
-        <v>0.2781</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,10 +2942,10 @@
         <v>0.4291</v>
       </c>
       <c r="C129">
-        <v>0.153</v>
+        <v>0.1529</v>
       </c>
       <c r="D129">
-        <v>0.2761</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.428</v>
+        <v>0.4281</v>
       </c>
       <c r="C130">
-        <v>0.1539</v>
+        <v>0.1538</v>
       </c>
       <c r="D130">
-        <v>0.2742</v>
+        <v>0.2744</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4255</v>
+        <v>0.4257</v>
       </c>
       <c r="C131">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="D131">
-        <v>0.2715</v>
+        <v>0.2718</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4238</v>
+        <v>0.424</v>
       </c>
       <c r="C132">
-        <v>0.1549</v>
+        <v>0.1548</v>
       </c>
       <c r="D132">
-        <v>0.2689</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4213</v>
+        <v>0.4215</v>
       </c>
       <c r="C133">
-        <v>0.1553</v>
+        <v>0.1552</v>
       </c>
       <c r="D133">
-        <v>0.266</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4207</v>
+        <v>0.4209</v>
       </c>
       <c r="C134">
-        <v>0.1561</v>
+        <v>0.156</v>
       </c>
       <c r="D134">
-        <v>0.2647</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4187</v>
+        <v>0.4188</v>
       </c>
       <c r="C135">
-        <v>0.1555</v>
+        <v>0.1554</v>
       </c>
       <c r="D135">
-        <v>0.2631</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4177</v>
+        <v>0.4178</v>
       </c>
       <c r="C136">
-        <v>0.1563</v>
+        <v>0.1562</v>
       </c>
       <c r="D136">
-        <v>0.2614</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4174</v>
+        <v>0.4175</v>
       </c>
       <c r="C137">
-        <v>0.1579</v>
+        <v>0.1578</v>
       </c>
       <c r="D137">
-        <v>0.2595</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4165</v>
+        <v>0.4166</v>
       </c>
       <c r="C138">
-        <v>0.1588</v>
+        <v>0.1587</v>
       </c>
       <c r="D138">
-        <v>0.2577</v>
+        <v>0.2579</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,10 +3082,10 @@
         <v>0.4151</v>
       </c>
       <c r="C139">
-        <v>0.1589</v>
+        <v>0.1588</v>
       </c>
       <c r="D139">
-        <v>0.2563</v>
+        <v>0.2564</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,10 +3096,10 @@
         <v>0.4097</v>
       </c>
       <c r="C140">
-        <v>0.1562</v>
+        <v>0.1561</v>
       </c>
       <c r="D140">
-        <v>0.2535</v>
+        <v>0.2536</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4045</v>
+        <v>0.4046</v>
       </c>
       <c r="C141">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="D141">
-        <v>0.2505</v>
+        <v>0.2507</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3989</v>
+        <v>0.399</v>
       </c>
       <c r="C142">
-        <v>0.1513</v>
+        <v>0.1512</v>
       </c>
       <c r="D142">
-        <v>0.2477</v>
+        <v>0.2478</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.393</v>
+        <v>0.3931</v>
       </c>
       <c r="C143">
         <v>0.148</v>
       </c>
       <c r="D143">
-        <v>0.245</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,10 +3152,10 @@
         <v>0.3883</v>
       </c>
       <c r="C144">
-        <v>0.1453</v>
+        <v>0.1452</v>
       </c>
       <c r="D144">
-        <v>0.2429</v>
+        <v>0.2431</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3849</v>
+        <v>0.385</v>
       </c>
       <c r="C145">
-        <v>0.1433</v>
+        <v>0.1432</v>
       </c>
       <c r="D145">
-        <v>0.2416</v>
+        <v>0.2417</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,10 +3180,10 @@
         <v>0.3821</v>
       </c>
       <c r="C146">
-        <v>0.1418</v>
+        <v>0.1417</v>
       </c>
       <c r="D146">
-        <v>0.2403</v>
+        <v>0.2404</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3813</v>
+        <v>0.3814</v>
       </c>
       <c r="C147">
-        <v>0.1417</v>
+        <v>0.1416</v>
       </c>
       <c r="D147">
-        <v>0.2397</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3807</v>
+        <v>0.3808</v>
       </c>
       <c r="C148">
-        <v>0.1416</v>
+        <v>0.1415</v>
       </c>
       <c r="D148">
-        <v>0.2391</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.38</v>
+        <v>0.3801</v>
       </c>
       <c r="C149">
-        <v>0.1412</v>
+        <v>0.1411</v>
       </c>
       <c r="D149">
-        <v>0.2389</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3789</v>
+        <v>0.379</v>
       </c>
       <c r="C150">
-        <v>0.1403</v>
+        <v>0.1402</v>
       </c>
       <c r="D150">
-        <v>0.2386</v>
+        <v>0.2387</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,10 +3250,10 @@
         <v>0.3786</v>
       </c>
       <c r="C151">
-        <v>0.1403</v>
+        <v>0.1402</v>
       </c>
       <c r="D151">
-        <v>0.2383</v>
+        <v>0.2384</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3779</v>
+        <v>0.378</v>
       </c>
       <c r="C152">
-        <v>0.14</v>
+        <v>0.1399</v>
       </c>
       <c r="D152">
-        <v>0.2379</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3772</v>
+        <v>0.3773</v>
       </c>
       <c r="C153">
-        <v>0.1395</v>
+        <v>0.1394</v>
       </c>
       <c r="D153">
-        <v>0.2378</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3754</v>
+        <v>0.3756</v>
       </c>
       <c r="C154">
-        <v>0.1397</v>
+        <v>0.1396</v>
       </c>
       <c r="D154">
-        <v>0.2358</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3741</v>
+        <v>0.3743</v>
       </c>
       <c r="C155">
-        <v>0.1402</v>
+        <v>0.1401</v>
       </c>
       <c r="D155">
-        <v>0.2339</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3734</v>
+        <v>0.3737</v>
       </c>
       <c r="C156">
         <v>0.1406</v>
       </c>
       <c r="D156">
-        <v>0.2329</v>
+        <v>0.2332</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3725</v>
+        <v>0.3728</v>
       </c>
       <c r="C157">
         <v>0.1404</v>
       </c>
       <c r="D157">
-        <v>0.232</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3715</v>
+        <v>0.3719</v>
       </c>
       <c r="C158">
-        <v>0.1406</v>
+        <v>0.1405</v>
       </c>
       <c r="D158">
-        <v>0.231</v>
+        <v>0.2313</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3701</v>
+        <v>0.3705</v>
       </c>
       <c r="C159">
-        <v>0.1412</v>
+        <v>0.1411</v>
       </c>
       <c r="D159">
-        <v>0.229</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3699</v>
+        <v>0.3703</v>
       </c>
       <c r="C160">
         <v>0.1428</v>
       </c>
       <c r="D160">
-        <v>0.2271</v>
+        <v>0.2276</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3697</v>
+        <v>0.3701</v>
       </c>
       <c r="C161">
         <v>0.1444</v>
       </c>
       <c r="D161">
-        <v>0.2252</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3692</v>
+        <v>0.3696</v>
       </c>
       <c r="C162">
         <v>0.1463</v>
       </c>
       <c r="D162">
-        <v>0.2229</v>
+        <v>0.2234</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3699</v>
+        <v>0.3704</v>
       </c>
       <c r="C163">
-        <v>0.1493</v>
+        <v>0.1492</v>
       </c>
       <c r="D163">
-        <v>0.2207</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3696</v>
+        <v>0.3701</v>
       </c>
       <c r="C164">
         <v>0.1514</v>
       </c>
       <c r="D164">
-        <v>0.2182</v>
+        <v>0.2187</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3685</v>
+        <v>0.369</v>
       </c>
       <c r="C165">
         <v>0.1533</v>
       </c>
       <c r="D165">
-        <v>0.2152</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3668</v>
+        <v>0.3673</v>
       </c>
       <c r="C166">
         <v>0.1545</v>
       </c>
       <c r="D166">
-        <v>0.2123</v>
+        <v>0.2128</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3642</v>
+        <v>0.3647</v>
       </c>
       <c r="C167">
         <v>0.155</v>
       </c>
       <c r="D167">
-        <v>0.2092</v>
+        <v>0.2097</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3622</v>
+        <v>0.3626</v>
       </c>
       <c r="C168">
         <v>0.1558</v>
       </c>
       <c r="D168">
-        <v>0.2064</v>
+        <v>0.2069</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3607</v>
+        <v>0.361</v>
       </c>
       <c r="C169">
         <v>0.1568</v>
       </c>
       <c r="D169">
-        <v>0.2039</v>
+        <v>0.2043</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3595</v>
+        <v>0.3598</v>
       </c>
       <c r="C170">
         <v>0.1579</v>
       </c>
       <c r="D170">
-        <v>0.2016</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3574</v>
+        <v>0.3577</v>
       </c>
       <c r="C171">
         <v>0.1581</v>
       </c>
       <c r="D171">
-        <v>0.1993</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3564</v>
+        <v>0.3565</v>
       </c>
       <c r="C172">
-        <v>0.1589</v>
+        <v>0.1588</v>
       </c>
       <c r="D172">
-        <v>0.1975</v>
+        <v>0.1977</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,10 +3558,10 @@
         <v>0.3557</v>
       </c>
       <c r="C173">
-        <v>0.1599</v>
+        <v>0.1598</v>
       </c>
       <c r="D173">
-        <v>0.1958</v>
+        <v>0.1959</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,7 +3572,7 @@
         <v>0.3539</v>
       </c>
       <c r="C174">
-        <v>0.1599</v>
+        <v>0.1598</v>
       </c>
       <c r="D174">
         <v>0.194</v>
@@ -3583,7 +3583,7 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3516</v>
+        <v>0.3515</v>
       </c>
       <c r="C175">
         <v>0.1592</v>
@@ -3597,13 +3597,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.348</v>
+        <v>0.3478</v>
       </c>
       <c r="C176">
         <v>0.1577</v>
       </c>
       <c r="D176">
-        <v>0.1903</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3449</v>
+        <v>0.3447</v>
       </c>
       <c r="C177">
-        <v>0.1562</v>
+        <v>0.1561</v>
       </c>
       <c r="D177">
-        <v>0.1888</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3421</v>
+        <v>0.3419</v>
       </c>
       <c r="C178">
         <v>0.1543</v>
       </c>
       <c r="D178">
-        <v>0.1878</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3394</v>
+        <v>0.339</v>
       </c>
       <c r="C179">
-        <v>0.1523</v>
+        <v>0.1522</v>
       </c>
       <c r="D179">
-        <v>0.1871</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3368</v>
+        <v>0.3364</v>
       </c>
       <c r="C180">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="D180">
-        <v>0.1868</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3343</v>
+        <v>0.3338</v>
       </c>
       <c r="C181">
-        <v>0.1477</v>
+        <v>0.1476</v>
       </c>
       <c r="D181">
-        <v>0.1866</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3323</v>
+        <v>0.3317</v>
       </c>
       <c r="C182">
-        <v>0.1454</v>
+        <v>0.1453</v>
       </c>
       <c r="D182">
-        <v>0.1868</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3306</v>
+        <v>0.33</v>
       </c>
       <c r="C183">
         <v>0.1431</v>
       </c>
       <c r="D183">
-        <v>0.1874</v>
+        <v>0.1869</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3304</v>
+        <v>0.3297</v>
       </c>
       <c r="C184">
-        <v>0.1418</v>
+        <v>0.1417</v>
       </c>
       <c r="D184">
-        <v>0.1886</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.33</v>
+        <v>0.3293</v>
       </c>
       <c r="C185">
-        <v>0.1401</v>
+        <v>0.14</v>
       </c>
       <c r="D185">
-        <v>0.19</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3308</v>
+        <v>0.33</v>
       </c>
       <c r="C186">
         <v>0.139</v>
       </c>
       <c r="D186">
-        <v>0.1918</v>
+        <v>0.1911</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3323</v>
+        <v>0.3314</v>
       </c>
       <c r="C187">
-        <v>0.1383</v>
+        <v>0.1382</v>
       </c>
       <c r="D187">
-        <v>0.1939</v>
+        <v>0.1932</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3339</v>
+        <v>0.333</v>
       </c>
       <c r="C188">
-        <v>0.138</v>
+        <v>0.1379</v>
       </c>
       <c r="D188">
-        <v>0.1959</v>
+        <v>0.1951</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3354</v>
+        <v>0.3345</v>
       </c>
       <c r="C189">
-        <v>0.1375</v>
+        <v>0.1374</v>
       </c>
       <c r="D189">
-        <v>0.1979</v>
+        <v>0.1971</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3374</v>
+        <v>0.3364</v>
       </c>
       <c r="C190">
-        <v>0.1372</v>
+        <v>0.1371</v>
       </c>
       <c r="D190">
-        <v>0.2002</v>
+        <v>0.1993</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3398</v>
+        <v>0.3388</v>
       </c>
       <c r="C191">
-        <v>0.137</v>
+        <v>0.1369</v>
       </c>
       <c r="D191">
-        <v>0.2029</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3424</v>
+        <v>0.3414</v>
       </c>
       <c r="C192">
-        <v>0.1362</v>
+        <v>0.1361</v>
       </c>
       <c r="D192">
-        <v>0.2061</v>
+        <v>0.2052</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3456</v>
+        <v>0.3445</v>
       </c>
       <c r="C193">
-        <v>0.1357</v>
+        <v>0.1356</v>
       </c>
       <c r="D193">
-        <v>0.2099</v>
+        <v>0.2089</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3499</v>
+        <v>0.3488</v>
       </c>
       <c r="C194">
-        <v>0.1361</v>
+        <v>0.136</v>
       </c>
       <c r="D194">
-        <v>0.2138</v>
+        <v>0.2128</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3548</v>
+        <v>0.3536</v>
       </c>
       <c r="C195">
-        <v>0.1367</v>
+        <v>0.1366</v>
       </c>
       <c r="D195">
-        <v>0.218</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3596</v>
+        <v>0.3585</v>
       </c>
       <c r="C196">
-        <v>0.1373</v>
+        <v>0.1372</v>
       </c>
       <c r="D196">
-        <v>0.2224</v>
+        <v>0.2213</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3645</v>
+        <v>0.3633</v>
       </c>
       <c r="C197">
-        <v>0.1381</v>
+        <v>0.138</v>
       </c>
       <c r="D197">
-        <v>0.2265</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3698</v>
+        <v>0.3686</v>
       </c>
       <c r="C198">
-        <v>0.1396</v>
+        <v>0.1395</v>
       </c>
       <c r="D198">
-        <v>0.2302</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.375</v>
+        <v>0.3737</v>
       </c>
       <c r="C199">
-        <v>0.1411</v>
+        <v>0.1409</v>
       </c>
       <c r="D199">
-        <v>0.2339</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3797</v>
+        <v>0.3785</v>
       </c>
       <c r="C200">
-        <v>0.1424</v>
+        <v>0.1423</v>
       </c>
       <c r="D200">
-        <v>0.2373</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3844</v>
+        <v>0.3832</v>
       </c>
       <c r="C201">
-        <v>0.1436</v>
+        <v>0.1435</v>
       </c>
       <c r="D201">
-        <v>0.2408</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3892</v>
+        <v>0.388</v>
       </c>
       <c r="C202">
-        <v>0.1451</v>
+        <v>0.145</v>
       </c>
       <c r="D202">
-        <v>0.2441</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.394</v>
+        <v>0.3928</v>
       </c>
       <c r="C203">
-        <v>0.1469</v>
+        <v>0.1468</v>
       </c>
       <c r="D203">
-        <v>0.2471</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3972</v>
+        <v>0.396</v>
       </c>
       <c r="C204">
-        <v>0.1477</v>
+        <v>0.1476</v>
       </c>
       <c r="D204">
-        <v>0.2495</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4005</v>
+        <v>0.3993</v>
       </c>
       <c r="C205">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D205">
-        <v>0.252</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4025</v>
+        <v>0.4013</v>
       </c>
       <c r="C206">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D206">
-        <v>0.2541</v>
+        <v>0.2529</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4039</v>
+        <v>0.4026</v>
       </c>
       <c r="C207">
-        <v>0.148</v>
+        <v>0.1479</v>
       </c>
       <c r="D207">
-        <v>0.2559</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4051</v>
+        <v>0.4039</v>
       </c>
       <c r="C208">
-        <v>0.1474</v>
+        <v>0.1473</v>
       </c>
       <c r="D208">
-        <v>0.2578</v>
+        <v>0.2566</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4058</v>
+        <v>0.4046</v>
       </c>
       <c r="C209">
-        <v>0.1466</v>
+        <v>0.1465</v>
       </c>
       <c r="D209">
-        <v>0.2593</v>
+        <v>0.2581</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.407</v>
+        <v>0.4057</v>
       </c>
       <c r="C210">
-        <v>0.1459</v>
+        <v>0.1458</v>
       </c>
       <c r="D210">
-        <v>0.261</v>
+        <v>0.2599</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4078</v>
+        <v>0.4065</v>
       </c>
       <c r="C211">
-        <v>0.1451</v>
+        <v>0.145</v>
       </c>
       <c r="D211">
-        <v>0.2626</v>
+        <v>0.2614</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4081</v>
+        <v>0.4067</v>
       </c>
       <c r="C212">
-        <v>0.1445</v>
+        <v>0.1444</v>
       </c>
       <c r="D212">
-        <v>0.2635</v>
+        <v>0.2623</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4083</v>
+        <v>0.407</v>
       </c>
       <c r="C213">
-        <v>0.1443</v>
+        <v>0.1442</v>
       </c>
       <c r="D213">
-        <v>0.264</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4085</v>
+        <v>0.4072</v>
       </c>
       <c r="C214">
-        <v>0.144</v>
+        <v>0.1439</v>
       </c>
       <c r="D214">
-        <v>0.2645</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4085</v>
+        <v>0.4072</v>
       </c>
       <c r="C215">
-        <v>0.1434</v>
+        <v>0.1433</v>
       </c>
       <c r="D215">
-        <v>0.2651</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4085</v>
+        <v>0.4072</v>
       </c>
       <c r="C216">
-        <v>0.1428</v>
+        <v>0.1427</v>
       </c>
       <c r="D216">
-        <v>0.2657</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4082</v>
+        <v>0.4068</v>
       </c>
       <c r="C217">
-        <v>0.1417</v>
+        <v>0.1416</v>
       </c>
       <c r="D217">
-        <v>0.2665</v>
+        <v>0.2652</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4073</v>
+        <v>0.4059</v>
       </c>
       <c r="C218">
-        <v>0.14</v>
+        <v>0.1399</v>
       </c>
       <c r="D218">
-        <v>0.2673</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4063</v>
+        <v>0.4049</v>
       </c>
       <c r="C219">
-        <v>0.1382</v>
+        <v>0.1381</v>
       </c>
       <c r="D219">
-        <v>0.2681</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4051</v>
+        <v>0.4037</v>
       </c>
       <c r="C220">
-        <v>0.1361</v>
+        <v>0.136</v>
       </c>
       <c r="D220">
-        <v>0.2691</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.404</v>
+        <v>0.4026</v>
       </c>
       <c r="C221">
-        <v>0.1341</v>
+        <v>0.134</v>
       </c>
       <c r="D221">
-        <v>0.27</v>
+        <v>0.2686</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4032</v>
+        <v>0.4017</v>
       </c>
       <c r="C222">
-        <v>0.1324</v>
+        <v>0.1323</v>
       </c>
       <c r="D222">
-        <v>0.2708</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.4021</v>
+        <v>0.4006</v>
       </c>
       <c r="C223">
-        <v>0.1304</v>
+        <v>0.1303</v>
       </c>
       <c r="D223">
-        <v>0.2717</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.4017</v>
+        <v>0.4002</v>
       </c>
       <c r="C224">
-        <v>0.129</v>
+        <v>0.1289</v>
       </c>
       <c r="D224">
-        <v>0.2727</v>
+        <v>0.2713</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.402</v>
+        <v>0.4005</v>
       </c>
       <c r="C225">
-        <v>0.1282</v>
+        <v>0.1281</v>
       </c>
       <c r="D225">
-        <v>0.2738</v>
+        <v>0.2724</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.4028</v>
+        <v>0.4013</v>
       </c>
       <c r="C226">
         <v>0.1281</v>
       </c>
       <c r="D226">
-        <v>0.2747</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4043</v>
+        <v>0.4027</v>
       </c>
       <c r="C227">
-        <v>0.1287</v>
+        <v>0.1286</v>
       </c>
       <c r="D227">
-        <v>0.2755</v>
+        <v>0.2741</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4059</v>
+        <v>0.4043</v>
       </c>
       <c r="C228">
-        <v>0.1296</v>
+        <v>0.1295</v>
       </c>
       <c r="D228">
-        <v>0.2763</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4079</v>
+        <v>0.4063</v>
       </c>
       <c r="C229">
-        <v>0.1306</v>
+        <v>0.1305</v>
       </c>
       <c r="D229">
-        <v>0.2773</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4093</v>
+        <v>0.4077</v>
       </c>
       <c r="C230">
-        <v>0.1315</v>
+        <v>0.1314</v>
       </c>
       <c r="D230">
-        <v>0.2778</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4108</v>
+        <v>0.4092</v>
       </c>
       <c r="C231">
-        <v>0.1328</v>
+        <v>0.1327</v>
       </c>
       <c r="D231">
-        <v>0.278</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4122</v>
+        <v>0.4105</v>
       </c>
       <c r="C232">
-        <v>0.1341</v>
+        <v>0.134</v>
       </c>
       <c r="D232">
-        <v>0.2781</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.413</v>
+        <v>0.4113</v>
       </c>
       <c r="C233">
-        <v>0.1349</v>
+        <v>0.1348</v>
       </c>
       <c r="D233">
-        <v>0.2781</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="C234">
-        <v>0.1348</v>
+        <v>0.1347</v>
       </c>
       <c r="D234">
-        <v>0.2779</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4126</v>
+        <v>0.4109</v>
       </c>
       <c r="C235">
-        <v>0.135</v>
+        <v>0.1349</v>
       </c>
       <c r="D235">
-        <v>0.2776</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4126</v>
+        <v>0.4109</v>
       </c>
       <c r="C236">
-        <v>0.1355</v>
+        <v>0.1354</v>
       </c>
       <c r="D236">
-        <v>0.2771</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="C237">
-        <v>0.1366</v>
+        <v>0.1365</v>
       </c>
       <c r="D237">
-        <v>0.2761</v>
+        <v>0.2745</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4132</v>
+        <v>0.4115</v>
       </c>
       <c r="C238">
-        <v>0.1378</v>
+        <v>0.1377</v>
       </c>
       <c r="D238">
-        <v>0.2753</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4133</v>
+        <v>0.4116</v>
       </c>
       <c r="C239">
-        <v>0.1389</v>
+        <v>0.1388</v>
       </c>
       <c r="D239">
-        <v>0.2744</v>
+        <v>0.2728</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4135</v>
+        <v>0.4118</v>
       </c>
       <c r="C240">
-        <v>0.1401</v>
+        <v>0.1399</v>
       </c>
       <c r="D240">
-        <v>0.2734</v>
+        <v>0.2718</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.413</v>
+        <v>0.4113</v>
       </c>
       <c r="C241">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
       <c r="D241">
-        <v>0.2722</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4119</v>
+        <v>0.4102</v>
       </c>
       <c r="C242">
-        <v>0.141</v>
+        <v>0.1409</v>
       </c>
       <c r="D242">
-        <v>0.2709</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4105</v>
+        <v>0.4088</v>
       </c>
       <c r="C243">
-        <v>0.141</v>
+        <v>0.1409</v>
       </c>
       <c r="D243">
-        <v>0.2695</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4091</v>
+        <v>0.4074</v>
       </c>
       <c r="C244">
-        <v>0.1408</v>
+        <v>0.1407</v>
       </c>
       <c r="D244">
-        <v>0.2683</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4075</v>
+        <v>0.4058</v>
       </c>
       <c r="C245">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
       <c r="D245">
-        <v>0.2668</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4063</v>
+        <v>0.4046</v>
       </c>
       <c r="C246">
-        <v>0.1406</v>
+        <v>0.1405</v>
       </c>
       <c r="D246">
-        <v>0.2657</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4044</v>
+        <v>0.4027</v>
       </c>
       <c r="C247">
-        <v>0.1399</v>
+        <v>0.1398</v>
       </c>
       <c r="D247">
-        <v>0.2646</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4018</v>
+        <v>0.4001</v>
       </c>
       <c r="C248">
-        <v>0.1386</v>
+        <v>0.1385</v>
       </c>
       <c r="D248">
-        <v>0.2632</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3997</v>
+        <v>0.398</v>
       </c>
       <c r="C249">
-        <v>0.1379</v>
+        <v>0.1378</v>
       </c>
       <c r="D249">
-        <v>0.2617</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3971</v>
+        <v>0.3954</v>
       </c>
       <c r="C250">
-        <v>0.1369</v>
+        <v>0.1368</v>
       </c>
       <c r="D250">
-        <v>0.2602</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3944</v>
+        <v>0.3927</v>
       </c>
       <c r="C251">
-        <v>0.1354</v>
+        <v>0.1353</v>
       </c>
       <c r="D251">
-        <v>0.2589</v>
+        <v>0.2574</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.392</v>
+        <v>0.3903</v>
       </c>
       <c r="C252">
-        <v>0.1341</v>
+        <v>0.134</v>
       </c>
       <c r="D252">
-        <v>0.2578</v>
+        <v>0.2563</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2020 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2020 - Diaria.xlsx
@@ -1161,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3511</v>
+        <v>0.3514</v>
       </c>
       <c r="C2">
-        <v>0.1978</v>
+        <v>0.1982</v>
       </c>
       <c r="D2">
         <v>0.1532</v>
@@ -1175,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3367</v>
+        <v>0.3371</v>
       </c>
       <c r="C3">
-        <v>0.1918</v>
+        <v>0.1922</v>
       </c>
       <c r="D3">
         <v>0.1449</v>
@@ -1189,10 +1189,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3237</v>
+        <v>0.324</v>
       </c>
       <c r="C4">
-        <v>0.1864</v>
+        <v>0.1868</v>
       </c>
       <c r="D4">
         <v>0.1372</v>
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3141</v>
+        <v>0.3144</v>
       </c>
       <c r="C5">
-        <v>0.1836</v>
+        <v>0.184</v>
       </c>
       <c r="D5">
-        <v>0.1305</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,10 +1217,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3026</v>
+        <v>0.3029</v>
       </c>
       <c r="C6">
-        <v>0.1799</v>
+        <v>0.1803</v>
       </c>
       <c r="D6">
         <v>0.1227</v>
@@ -1231,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2904</v>
+        <v>0.2907</v>
       </c>
       <c r="C7">
-        <v>0.1748</v>
+        <v>0.1752</v>
       </c>
       <c r="D7">
         <v>0.1155</v>
@@ -1245,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2798</v>
+        <v>0.2801</v>
       </c>
       <c r="C8">
-        <v>0.1703</v>
+        <v>0.1706</v>
       </c>
       <c r="D8">
         <v>0.1095</v>
@@ -1259,10 +1259,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2698</v>
+        <v>0.2701</v>
       </c>
       <c r="C9">
-        <v>0.1658</v>
+        <v>0.1661</v>
       </c>
       <c r="D9">
         <v>0.104</v>
@@ -1273,10 +1273,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.26</v>
+        <v>0.2603</v>
       </c>
       <c r="C10">
-        <v>0.1612</v>
+        <v>0.1615</v>
       </c>
       <c r="D10">
         <v>0.0988</v>
@@ -1287,10 +1287,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2516</v>
+        <v>0.252</v>
       </c>
       <c r="C11">
-        <v>0.1574</v>
+        <v>0.1577</v>
       </c>
       <c r="D11">
         <v>0.09429999999999999</v>
@@ -1301,10 +1301,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2429</v>
+        <v>0.2433</v>
       </c>
       <c r="C12">
-        <v>0.1528</v>
+        <v>0.1531</v>
       </c>
       <c r="D12">
         <v>0.0902</v>
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2349</v>
+        <v>0.2353</v>
       </c>
       <c r="C13">
-        <v>0.1487</v>
+        <v>0.149</v>
       </c>
       <c r="D13">
-        <v>0.0862</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2265</v>
+        <v>0.2268</v>
       </c>
       <c r="C14">
-        <v>0.145</v>
+        <v>0.1453</v>
       </c>
       <c r="D14">
-        <v>0.0815</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,10 +1343,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2185</v>
+        <v>0.2188</v>
       </c>
       <c r="C15">
-        <v>0.1413</v>
+        <v>0.1416</v>
       </c>
       <c r="D15">
         <v>0.0772</v>
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2109</v>
+        <v>0.2113</v>
       </c>
       <c r="C16">
-        <v>0.1377</v>
+        <v>0.138</v>
       </c>
       <c r="D16">
-        <v>0.0733</v>
+        <v>0.07340000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2037</v>
+        <v>0.2041</v>
       </c>
       <c r="C17">
-        <v>0.1338</v>
+        <v>0.1341</v>
       </c>
       <c r="D17">
-        <v>0.0699</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.1975</v>
+        <v>0.1979</v>
       </c>
       <c r="C18">
-        <v>0.1307</v>
+        <v>0.131</v>
       </c>
       <c r="D18">
-        <v>0.0669</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1921</v>
+        <v>0.1925</v>
       </c>
       <c r="C19">
-        <v>0.1278</v>
+        <v>0.1281</v>
       </c>
       <c r="D19">
-        <v>0.0643</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.1879</v>
+        <v>0.1883</v>
       </c>
       <c r="C20">
-        <v>0.1259</v>
+        <v>0.1261</v>
       </c>
       <c r="D20">
-        <v>0.062</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.1844</v>
+        <v>0.1848</v>
       </c>
       <c r="C21">
-        <v>0.1243</v>
+        <v>0.1245</v>
       </c>
       <c r="D21">
-        <v>0.0601</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.1809</v>
+        <v>0.1813</v>
       </c>
       <c r="C22">
-        <v>0.1223</v>
+        <v>0.1225</v>
       </c>
       <c r="D22">
-        <v>0.0586</v>
+        <v>0.0587</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.1784</v>
+        <v>0.1788</v>
       </c>
       <c r="C23">
-        <v>0.1211</v>
+        <v>0.1213</v>
       </c>
       <c r="D23">
-        <v>0.0573</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1771</v>
+        <v>0.1775</v>
       </c>
       <c r="C24">
-        <v>0.1205</v>
+        <v>0.1207</v>
       </c>
       <c r="D24">
-        <v>0.0566</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.1753</v>
+        <v>0.1757</v>
       </c>
       <c r="C25">
-        <v>0.1193</v>
+        <v>0.1195</v>
       </c>
       <c r="D25">
-        <v>0.056</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.1743</v>
+        <v>0.1747</v>
       </c>
       <c r="C26">
-        <v>0.1183</v>
+        <v>0.1185</v>
       </c>
       <c r="D26">
-        <v>0.056</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.174</v>
+        <v>0.1745</v>
       </c>
       <c r="C27">
-        <v>0.1181</v>
+        <v>0.1183</v>
       </c>
       <c r="D27">
-        <v>0.056</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.1734</v>
+        <v>0.1738</v>
       </c>
       <c r="C28">
-        <v>0.1177</v>
+        <v>0.1179</v>
       </c>
       <c r="D28">
-        <v>0.0557</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.1736</v>
+        <v>0.174</v>
       </c>
       <c r="C29">
-        <v>0.1177</v>
+        <v>0.1179</v>
       </c>
       <c r="D29">
-        <v>0.0558</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.1751</v>
+        <v>0.1755</v>
       </c>
       <c r="C30">
-        <v>0.1186</v>
+        <v>0.1188</v>
       </c>
       <c r="D30">
-        <v>0.0564</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.1753</v>
+        <v>0.1758</v>
       </c>
       <c r="C31">
-        <v>0.1182</v>
+        <v>0.1184</v>
       </c>
       <c r="D31">
-        <v>0.0571</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.1761</v>
+        <v>0.1766</v>
       </c>
       <c r="C32">
-        <v>0.1181</v>
+        <v>0.1183</v>
       </c>
       <c r="D32">
-        <v>0.058</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.1774</v>
+        <v>0.1779</v>
       </c>
       <c r="C33">
-        <v>0.1182</v>
+        <v>0.1184</v>
       </c>
       <c r="D33">
-        <v>0.0592</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.1791</v>
+        <v>0.1797</v>
       </c>
       <c r="C34">
-        <v>0.1181</v>
+        <v>0.1183</v>
       </c>
       <c r="D34">
-        <v>0.061</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.1819</v>
+        <v>0.1825</v>
       </c>
       <c r="C35">
-        <v>0.1186</v>
+        <v>0.1188</v>
       </c>
       <c r="D35">
-        <v>0.0633</v>
+        <v>0.06370000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.1857</v>
+        <v>0.1863</v>
       </c>
       <c r="C36">
-        <v>0.1194</v>
+        <v>0.1196</v>
       </c>
       <c r="D36">
-        <v>0.0664</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.1908</v>
+        <v>0.1913</v>
       </c>
       <c r="C37">
-        <v>0.1208</v>
+        <v>0.1209</v>
       </c>
       <c r="D37">
-        <v>0.07000000000000001</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.197</v>
+        <v>0.1976</v>
       </c>
       <c r="C38">
-        <v>0.1222</v>
+        <v>0.1224</v>
       </c>
       <c r="D38">
-        <v>0.07480000000000001</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2041</v>
+        <v>0.2047</v>
       </c>
       <c r="C39">
-        <v>0.1238</v>
+        <v>0.124</v>
       </c>
       <c r="D39">
-        <v>0.0803</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2141</v>
+        <v>0.2147</v>
       </c>
       <c r="C40">
-        <v>0.1257</v>
+        <v>0.1259</v>
       </c>
       <c r="D40">
-        <v>0.08840000000000001</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2247</v>
+        <v>0.2254</v>
       </c>
       <c r="C41">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="D41">
-        <v>0.09710000000000001</v>
+        <v>0.09760000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2365</v>
+        <v>0.2372</v>
       </c>
       <c r="C42">
-        <v>0.1305</v>
+        <v>0.1307</v>
       </c>
       <c r="D42">
-        <v>0.106</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2493</v>
+        <v>0.2499</v>
       </c>
       <c r="C43">
-        <v>0.1339</v>
+        <v>0.1341</v>
       </c>
       <c r="D43">
-        <v>0.1153</v>
+        <v>0.1158</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2623</v>
+        <v>0.263</v>
       </c>
       <c r="C44">
-        <v>0.1375</v>
+        <v>0.1377</v>
       </c>
       <c r="D44">
-        <v>0.1248</v>
+        <v>0.1253</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2752</v>
+        <v>0.2759</v>
       </c>
       <c r="C45">
-        <v>0.1405</v>
+        <v>0.1406</v>
       </c>
       <c r="D45">
-        <v>0.1347</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2879</v>
+        <v>0.2886</v>
       </c>
       <c r="C46">
-        <v>0.1429</v>
+        <v>0.1431</v>
       </c>
       <c r="D46">
-        <v>0.145</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.303</v>
+        <v>0.3037</v>
       </c>
       <c r="C47">
-        <v>0.1459</v>
+        <v>0.1461</v>
       </c>
       <c r="D47">
-        <v>0.1571</v>
+        <v>0.1577</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.318</v>
+        <v>0.3186</v>
       </c>
       <c r="C48">
-        <v>0.1487</v>
+        <v>0.1488</v>
       </c>
       <c r="D48">
-        <v>0.1693</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3322</v>
+        <v>0.3329</v>
       </c>
       <c r="C49">
-        <v>0.1509</v>
+        <v>0.1511</v>
       </c>
       <c r="D49">
-        <v>0.1813</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3476</v>
+        <v>0.3483</v>
       </c>
       <c r="C50">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="D50">
-        <v>0.1938</v>
+        <v>0.1943</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3645</v>
+        <v>0.3652</v>
       </c>
       <c r="C51">
-        <v>0.1581</v>
+        <v>0.1583</v>
       </c>
       <c r="D51">
-        <v>0.2064</v>
+        <v>0.2069</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3837</v>
+        <v>0.3843</v>
       </c>
       <c r="C52">
-        <v>0.1656</v>
+        <v>0.1657</v>
       </c>
       <c r="D52">
-        <v>0.2181</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4087</v>
+        <v>0.4093</v>
       </c>
       <c r="C53">
-        <v>0.1751</v>
+        <v>0.1752</v>
       </c>
       <c r="D53">
-        <v>0.2336</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4321</v>
+        <v>0.4327</v>
       </c>
       <c r="C54">
-        <v>0.1841</v>
+        <v>0.1842</v>
       </c>
       <c r="D54">
-        <v>0.2479</v>
+        <v>0.2485</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4571</v>
+        <v>0.4577</v>
       </c>
       <c r="C55">
         <v>0.194</v>
       </c>
       <c r="D55">
-        <v>0.2631</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4814</v>
+        <v>0.482</v>
       </c>
       <c r="C56">
-        <v>0.2049</v>
+        <v>0.205</v>
       </c>
       <c r="D56">
-        <v>0.2765</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.5101</v>
+        <v>0.5106000000000001</v>
       </c>
       <c r="C57">
         <v>0.2174</v>
       </c>
       <c r="D57">
-        <v>0.2927</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.5344</v>
+        <v>0.535</v>
       </c>
       <c r="C58">
         <v>0.2278</v>
       </c>
       <c r="D58">
-        <v>0.3066</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.5557</v>
+        <v>0.5563</v>
       </c>
       <c r="C59">
-        <v>0.2369</v>
+        <v>0.237</v>
       </c>
       <c r="D59">
-        <v>0.3188</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.5732</v>
+        <v>0.5737</v>
       </c>
       <c r="C60">
         <v>0.2456</v>
       </c>
       <c r="D60">
-        <v>0.3276</v>
+        <v>0.3281</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.5901</v>
+        <v>0.5906</v>
       </c>
       <c r="C61">
         <v>0.2545</v>
       </c>
       <c r="D61">
-        <v>0.3355</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.6058</v>
+        <v>0.6063</v>
       </c>
       <c r="C62">
         <v>0.2631</v>
       </c>
       <c r="D62">
-        <v>0.3427</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.6204</v>
+        <v>0.6209</v>
       </c>
       <c r="C63">
         <v>0.2715</v>
       </c>
       <c r="D63">
-        <v>0.3489</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.6333</v>
+        <v>0.6337</v>
       </c>
       <c r="C64">
         <v>0.279</v>
       </c>
       <c r="D64">
-        <v>0.3543</v>
+        <v>0.3547</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.6448</v>
+        <v>0.6452</v>
       </c>
       <c r="C65">
         <v>0.2863</v>
       </c>
       <c r="D65">
-        <v>0.3586</v>
+        <v>0.3589</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.6549</v>
+        <v>0.6553</v>
       </c>
       <c r="C66">
         <v>0.2932</v>
       </c>
       <c r="D66">
-        <v>0.3617</v>
+        <v>0.3621</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.6635</v>
+        <v>0.6639</v>
       </c>
       <c r="C67">
         <v>0.2996</v>
       </c>
       <c r="D67">
-        <v>0.3639</v>
+        <v>0.3643</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.6709000000000001</v>
+        <v>0.6713</v>
       </c>
       <c r="C68">
         <v>0.3054</v>
       </c>
       <c r="D68">
-        <v>0.3655</v>
+        <v>0.3659</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.6782</v>
+        <v>0.6785</v>
       </c>
       <c r="C69">
-        <v>0.3116</v>
+        <v>0.3117</v>
       </c>
       <c r="D69">
-        <v>0.3665</v>
+        <v>0.3668</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.6839</v>
+        <v>0.6843</v>
       </c>
       <c r="C70">
-        <v>0.3176</v>
+        <v>0.3177</v>
       </c>
       <c r="D70">
-        <v>0.3663</v>
+        <v>0.3666</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.6876</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C71">
-        <v>0.3221</v>
+        <v>0.3222</v>
       </c>
       <c r="D71">
-        <v>0.3655</v>
+        <v>0.3658</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.6886</v>
+        <v>0.6889</v>
       </c>
       <c r="C72">
-        <v>0.3233</v>
+        <v>0.3234</v>
       </c>
       <c r="D72">
-        <v>0.3653</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.6829</v>
+        <v>0.6832</v>
       </c>
       <c r="C73">
-        <v>0.3224</v>
+        <v>0.3225</v>
       </c>
       <c r="D73">
-        <v>0.3605</v>
+        <v>0.3607</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.6784</v>
+        <v>0.6787</v>
       </c>
       <c r="C74">
-        <v>0.3222</v>
+        <v>0.3223</v>
       </c>
       <c r="D74">
-        <v>0.3562</v>
+        <v>0.3564</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.6716</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="C75">
-        <v>0.3211</v>
+        <v>0.3213</v>
       </c>
       <c r="D75">
-        <v>0.3505</v>
+        <v>0.3507</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.6645</v>
+        <v>0.6647999999999999</v>
       </c>
       <c r="C76">
-        <v>0.3184</v>
+        <v>0.3186</v>
       </c>
       <c r="D76">
-        <v>0.346</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.6526999999999999</v>
+        <v>0.653</v>
       </c>
       <c r="C77">
-        <v>0.3146</v>
+        <v>0.3148</v>
       </c>
       <c r="D77">
-        <v>0.3381</v>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.6441</v>
+        <v>0.6444</v>
       </c>
       <c r="C78">
-        <v>0.313</v>
+        <v>0.3132</v>
       </c>
       <c r="D78">
-        <v>0.3311</v>
+        <v>0.3312</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.6382</v>
+        <v>0.6384</v>
       </c>
       <c r="C79">
-        <v>0.313</v>
+        <v>0.3132</v>
       </c>
       <c r="D79">
-        <v>0.3252</v>
+        <v>0.3253</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.6314</v>
+        <v>0.6317</v>
       </c>
       <c r="C80">
-        <v>0.3113</v>
+        <v>0.3115</v>
       </c>
       <c r="D80">
-        <v>0.3201</v>
+        <v>0.3202</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.623</v>
+        <v>0.6233</v>
       </c>
       <c r="C81">
-        <v>0.3079</v>
+        <v>0.3081</v>
       </c>
       <c r="D81">
-        <v>0.3151</v>
+        <v>0.3152</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,10 +2281,10 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.6147</v>
+        <v>0.615</v>
       </c>
       <c r="C82">
-        <v>0.3039</v>
+        <v>0.3042</v>
       </c>
       <c r="D82">
         <v>0.3108</v>
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.6058</v>
+        <v>0.6062</v>
       </c>
       <c r="C83">
-        <v>0.2991</v>
+        <v>0.2994</v>
       </c>
       <c r="D83">
-        <v>0.3067</v>
+        <v>0.3068</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5977</v>
+        <v>0.598</v>
       </c>
       <c r="C84">
-        <v>0.2947</v>
+        <v>0.295</v>
       </c>
       <c r="D84">
-        <v>0.303</v>
+        <v>0.3031</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,10 +2323,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.59</v>
+        <v>0.5903</v>
       </c>
       <c r="C85">
-        <v>0.29</v>
+        <v>0.2903</v>
       </c>
       <c r="D85">
         <v>0.3</v>
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.5835</v>
+        <v>0.5839</v>
       </c>
       <c r="C86">
-        <v>0.2862</v>
+        <v>0.2865</v>
       </c>
       <c r="D86">
-        <v>0.2973</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5755</v>
+        <v>0.5759</v>
       </c>
       <c r="C87">
-        <v>0.2821</v>
+        <v>0.2824</v>
       </c>
       <c r="D87">
-        <v>0.2933</v>
+        <v>0.2934</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.569</v>
+        <v>0.5694</v>
       </c>
       <c r="C88">
-        <v>0.2791</v>
+        <v>0.2794</v>
       </c>
       <c r="D88">
-        <v>0.2899</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.5620000000000001</v>
+        <v>0.5624</v>
       </c>
       <c r="C89">
-        <v>0.2752</v>
+        <v>0.2755</v>
       </c>
       <c r="D89">
-        <v>0.2869</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.5546</v>
+        <v>0.5551</v>
       </c>
       <c r="C90">
-        <v>0.2706</v>
+        <v>0.2709</v>
       </c>
       <c r="D90">
-        <v>0.284</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.5472</v>
+        <v>0.5477</v>
       </c>
       <c r="C91">
-        <v>0.2657</v>
+        <v>0.266</v>
       </c>
       <c r="D91">
-        <v>0.2815</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.5394</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="C92">
-        <v>0.2605</v>
+        <v>0.2607</v>
       </c>
       <c r="D92">
-        <v>0.2789</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.5311</v>
+        <v>0.5316</v>
       </c>
       <c r="C93">
-        <v>0.2546</v>
+        <v>0.2549</v>
       </c>
       <c r="D93">
-        <v>0.2765</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.5224</v>
+        <v>0.5229</v>
       </c>
       <c r="C94">
-        <v>0.248</v>
+        <v>0.2483</v>
       </c>
       <c r="D94">
-        <v>0.2745</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.513</v>
+        <v>0.5135</v>
       </c>
       <c r="C95">
-        <v>0.2407</v>
+        <v>0.241</v>
       </c>
       <c r="D95">
-        <v>0.2723</v>
+        <v>0.2725</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.5034999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="C96">
-        <v>0.2334</v>
+        <v>0.2337</v>
       </c>
       <c r="D96">
-        <v>0.27</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4932</v>
+        <v>0.4938</v>
       </c>
       <c r="C97">
-        <v>0.225</v>
+        <v>0.2253</v>
       </c>
       <c r="D97">
-        <v>0.2682</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.483</v>
+        <v>0.4836</v>
       </c>
       <c r="C98">
-        <v>0.2166</v>
+        <v>0.2169</v>
       </c>
       <c r="D98">
-        <v>0.2664</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4731</v>
+        <v>0.4737</v>
       </c>
       <c r="C99">
-        <v>0.2085</v>
+        <v>0.2087</v>
       </c>
       <c r="D99">
-        <v>0.2647</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4661</v>
+        <v>0.4666</v>
       </c>
       <c r="C100">
-        <v>0.2027</v>
+        <v>0.2029</v>
       </c>
       <c r="D100">
-        <v>0.2634</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4617</v>
+        <v>0.4623</v>
       </c>
       <c r="C101">
-        <v>0.1987</v>
+        <v>0.1989</v>
       </c>
       <c r="D101">
-        <v>0.263</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4573</v>
+        <v>0.4579</v>
       </c>
       <c r="C102">
-        <v>0.1951</v>
+        <v>0.1953</v>
       </c>
       <c r="D102">
-        <v>0.2622</v>
+        <v>0.2626</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4529</v>
+        <v>0.4535</v>
       </c>
       <c r="C103">
-        <v>0.1904</v>
+        <v>0.1906</v>
       </c>
       <c r="D103">
-        <v>0.2625</v>
+        <v>0.2629</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4493</v>
+        <v>0.4499</v>
       </c>
       <c r="C104">
-        <v>0.1863</v>
+        <v>0.1865</v>
       </c>
       <c r="D104">
-        <v>0.263</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.4465</v>
+        <v>0.4471</v>
       </c>
       <c r="C105">
-        <v>0.1828</v>
+        <v>0.183</v>
       </c>
       <c r="D105">
-        <v>0.2637</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.4433</v>
+        <v>0.4439</v>
       </c>
       <c r="C106">
-        <v>0.1791</v>
+        <v>0.1793</v>
       </c>
       <c r="D106">
-        <v>0.2642</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4408</v>
+        <v>0.4414</v>
       </c>
       <c r="C107">
-        <v>0.1762</v>
+        <v>0.1763</v>
       </c>
       <c r="D107">
-        <v>0.2646</v>
+        <v>0.2651</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.4372</v>
+        <v>0.4379</v>
       </c>
       <c r="C108">
-        <v>0.1723</v>
+        <v>0.1724</v>
       </c>
       <c r="D108">
-        <v>0.265</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4344</v>
+        <v>0.4351</v>
       </c>
       <c r="C109">
-        <v>0.1685</v>
+        <v>0.1687</v>
       </c>
       <c r="D109">
-        <v>0.2659</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.4301</v>
+        <v>0.4307</v>
       </c>
       <c r="C110">
-        <v>0.1635</v>
+        <v>0.1637</v>
       </c>
       <c r="D110">
-        <v>0.2665</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2687,13 +2687,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.4282</v>
+        <v>0.4289</v>
       </c>
       <c r="C111">
-        <v>0.1603</v>
+        <v>0.1604</v>
       </c>
       <c r="D111">
-        <v>0.2679</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.4263</v>
+        <v>0.427</v>
       </c>
       <c r="C112">
-        <v>0.1572</v>
+        <v>0.1573</v>
       </c>
       <c r="D112">
-        <v>0.2692</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4255</v>
+        <v>0.4262</v>
       </c>
       <c r="C113">
-        <v>0.155</v>
+        <v>0.1551</v>
       </c>
       <c r="D113">
-        <v>0.2705</v>
+        <v>0.2711</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.425</v>
+        <v>0.4257</v>
       </c>
       <c r="C114">
-        <v>0.153</v>
+        <v>0.1531</v>
       </c>
       <c r="D114">
-        <v>0.272</v>
+        <v>0.2726</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.4266</v>
+        <v>0.4273</v>
       </c>
       <c r="C115">
-        <v>0.1531</v>
+        <v>0.1532</v>
       </c>
       <c r="D115">
-        <v>0.2736</v>
+        <v>0.2741</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.4283</v>
+        <v>0.429</v>
       </c>
       <c r="C116">
-        <v>0.1534</v>
+        <v>0.1535</v>
       </c>
       <c r="D116">
-        <v>0.275</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.4296</v>
+        <v>0.4303</v>
       </c>
       <c r="C117">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="D117">
-        <v>0.2758</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.4303</v>
+        <v>0.431</v>
       </c>
       <c r="C118">
-        <v>0.1537</v>
+        <v>0.1539</v>
       </c>
       <c r="D118">
-        <v>0.2766</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.4312</v>
+        <v>0.4319</v>
       </c>
       <c r="C119">
-        <v>0.1535</v>
+        <v>0.1536</v>
       </c>
       <c r="D119">
-        <v>0.2777</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4331</v>
+        <v>0.4338</v>
       </c>
       <c r="C120">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="D120">
-        <v>0.2794</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.4342</v>
+        <v>0.4349</v>
       </c>
       <c r="C121">
-        <v>0.1537</v>
+        <v>0.1538</v>
       </c>
       <c r="D121">
-        <v>0.2805</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.4362</v>
+        <v>0.4369</v>
       </c>
       <c r="C122">
-        <v>0.154</v>
+        <v>0.1541</v>
       </c>
       <c r="D122">
-        <v>0.2822</v>
+        <v>0.2828</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.4379</v>
+        <v>0.4386</v>
       </c>
       <c r="C123">
-        <v>0.1554</v>
+        <v>0.1555</v>
       </c>
       <c r="D123">
-        <v>0.2825</v>
+        <v>0.2831</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.4383</v>
+        <v>0.439</v>
       </c>
       <c r="C124">
-        <v>0.156</v>
+        <v>0.1561</v>
       </c>
       <c r="D124">
-        <v>0.2823</v>
+        <v>0.2829</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.4372</v>
+        <v>0.4379</v>
       </c>
       <c r="C125">
-        <v>0.1559</v>
+        <v>0.156</v>
       </c>
       <c r="D125">
-        <v>0.2814</v>
+        <v>0.2819</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4364</v>
+        <v>0.4371</v>
       </c>
       <c r="C126">
-        <v>0.1559</v>
+        <v>0.156</v>
       </c>
       <c r="D126">
-        <v>0.2805</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.4339</v>
+        <v>0.4346</v>
       </c>
       <c r="C127">
-        <v>0.1545</v>
+        <v>0.1546</v>
       </c>
       <c r="D127">
-        <v>0.2794</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.4315</v>
+        <v>0.4322</v>
       </c>
       <c r="C128">
-        <v>0.1533</v>
+        <v>0.1535</v>
       </c>
       <c r="D128">
-        <v>0.2782</v>
+        <v>0.2787</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.4291</v>
+        <v>0.4298</v>
       </c>
       <c r="C129">
-        <v>0.1529</v>
+        <v>0.153</v>
       </c>
       <c r="D129">
-        <v>0.2762</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4281</v>
+        <v>0.4288</v>
       </c>
       <c r="C130">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="D130">
-        <v>0.2744</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4257</v>
+        <v>0.4264</v>
       </c>
       <c r="C131">
-        <v>0.1539</v>
+        <v>0.1541</v>
       </c>
       <c r="D131">
-        <v>0.2718</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.424</v>
+        <v>0.4247</v>
       </c>
       <c r="C132">
-        <v>0.1548</v>
+        <v>0.1549</v>
       </c>
       <c r="D132">
-        <v>0.2692</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4215</v>
+        <v>0.4222</v>
       </c>
       <c r="C133">
-        <v>0.1552</v>
+        <v>0.1554</v>
       </c>
       <c r="D133">
-        <v>0.2663</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4209</v>
+        <v>0.4216</v>
       </c>
       <c r="C134">
-        <v>0.156</v>
+        <v>0.1561</v>
       </c>
       <c r="D134">
-        <v>0.265</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4188</v>
+        <v>0.4195</v>
       </c>
       <c r="C135">
-        <v>0.1554</v>
+        <v>0.1556</v>
       </c>
       <c r="D135">
-        <v>0.2633</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4178</v>
+        <v>0.4186</v>
       </c>
       <c r="C136">
-        <v>0.1562</v>
+        <v>0.1564</v>
       </c>
       <c r="D136">
-        <v>0.2616</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4175</v>
+        <v>0.4182</v>
       </c>
       <c r="C137">
-        <v>0.1578</v>
+        <v>0.158</v>
       </c>
       <c r="D137">
-        <v>0.2597</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4166</v>
+        <v>0.4173</v>
       </c>
       <c r="C138">
-        <v>0.1587</v>
+        <v>0.1589</v>
       </c>
       <c r="D138">
-        <v>0.2579</v>
+        <v>0.2584</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4151</v>
+        <v>0.4159</v>
       </c>
       <c r="C139">
-        <v>0.1588</v>
+        <v>0.159</v>
       </c>
       <c r="D139">
-        <v>0.2564</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4097</v>
+        <v>0.4105</v>
       </c>
       <c r="C140">
-        <v>0.1561</v>
+        <v>0.1563</v>
       </c>
       <c r="D140">
-        <v>0.2536</v>
+        <v>0.2542</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4046</v>
+        <v>0.4053</v>
       </c>
       <c r="C141">
-        <v>0.1539</v>
+        <v>0.1541</v>
       </c>
       <c r="D141">
-        <v>0.2507</v>
+        <v>0.2512</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.399</v>
+        <v>0.3997</v>
       </c>
       <c r="C142">
-        <v>0.1512</v>
+        <v>0.1514</v>
       </c>
       <c r="D142">
-        <v>0.2478</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3931</v>
+        <v>0.3938</v>
       </c>
       <c r="C143">
-        <v>0.148</v>
+        <v>0.1482</v>
       </c>
       <c r="D143">
-        <v>0.2451</v>
+        <v>0.2457</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3883</v>
+        <v>0.3891</v>
       </c>
       <c r="C144">
-        <v>0.1452</v>
+        <v>0.1455</v>
       </c>
       <c r="D144">
-        <v>0.2431</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.385</v>
+        <v>0.3857</v>
       </c>
       <c r="C145">
-        <v>0.1432</v>
+        <v>0.1434</v>
       </c>
       <c r="D145">
-        <v>0.2417</v>
+        <v>0.2423</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3821</v>
+        <v>0.3829</v>
       </c>
       <c r="C146">
-        <v>0.1417</v>
+        <v>0.1419</v>
       </c>
       <c r="D146">
-        <v>0.2404</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3814</v>
+        <v>0.3821</v>
       </c>
       <c r="C147">
-        <v>0.1416</v>
+        <v>0.1418</v>
       </c>
       <c r="D147">
-        <v>0.2398</v>
+        <v>0.2403</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3808</v>
+        <v>0.3815</v>
       </c>
       <c r="C148">
-        <v>0.1415</v>
+        <v>0.1417</v>
       </c>
       <c r="D148">
-        <v>0.2392</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3801</v>
+        <v>0.3808</v>
       </c>
       <c r="C149">
-        <v>0.1411</v>
+        <v>0.1413</v>
       </c>
       <c r="D149">
-        <v>0.239</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.379</v>
+        <v>0.3797</v>
       </c>
       <c r="C150">
-        <v>0.1402</v>
+        <v>0.1404</v>
       </c>
       <c r="D150">
-        <v>0.2387</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3786</v>
+        <v>0.3794</v>
       </c>
       <c r="C151">
-        <v>0.1402</v>
+        <v>0.1404</v>
       </c>
       <c r="D151">
-        <v>0.2384</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.378</v>
+        <v>0.3788</v>
       </c>
       <c r="C152">
-        <v>0.1399</v>
+        <v>0.1401</v>
       </c>
       <c r="D152">
-        <v>0.2381</v>
+        <v>0.2386</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3773</v>
+        <v>0.3781</v>
       </c>
       <c r="C153">
-        <v>0.1394</v>
+        <v>0.1396</v>
       </c>
       <c r="D153">
-        <v>0.2379</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3756</v>
+        <v>0.3763</v>
       </c>
       <c r="C154">
-        <v>0.1396</v>
+        <v>0.1398</v>
       </c>
       <c r="D154">
-        <v>0.236</v>
+        <v>0.2365</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3743</v>
+        <v>0.375</v>
       </c>
       <c r="C155">
-        <v>0.1401</v>
+        <v>0.1403</v>
       </c>
       <c r="D155">
-        <v>0.2342</v>
+        <v>0.2347</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3737</v>
+        <v>0.3744</v>
       </c>
       <c r="C156">
-        <v>0.1406</v>
+        <v>0.1407</v>
       </c>
       <c r="D156">
-        <v>0.2332</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3728</v>
+        <v>0.3735</v>
       </c>
       <c r="C157">
-        <v>0.1404</v>
+        <v>0.1406</v>
       </c>
       <c r="D157">
-        <v>0.2324</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3719</v>
+        <v>0.3725</v>
       </c>
       <c r="C158">
-        <v>0.1405</v>
+        <v>0.1407</v>
       </c>
       <c r="D158">
-        <v>0.2313</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3705</v>
+        <v>0.3711</v>
       </c>
       <c r="C159">
-        <v>0.1411</v>
+        <v>0.1413</v>
       </c>
       <c r="D159">
-        <v>0.2294</v>
+        <v>0.2299</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3703</v>
+        <v>0.3709</v>
       </c>
       <c r="C160">
-        <v>0.1428</v>
+        <v>0.1429</v>
       </c>
       <c r="D160">
-        <v>0.2276</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3701</v>
+        <v>0.3707</v>
       </c>
       <c r="C161">
-        <v>0.1444</v>
+        <v>0.1446</v>
       </c>
       <c r="D161">
-        <v>0.2256</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3696</v>
+        <v>0.3702</v>
       </c>
       <c r="C162">
-        <v>0.1463</v>
+        <v>0.1464</v>
       </c>
       <c r="D162">
-        <v>0.2234</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3704</v>
+        <v>0.371</v>
       </c>
       <c r="C163">
-        <v>0.1492</v>
+        <v>0.1494</v>
       </c>
       <c r="D163">
-        <v>0.2212</v>
+        <v>0.2217</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3701</v>
+        <v>0.3707</v>
       </c>
       <c r="C164">
-        <v>0.1514</v>
+        <v>0.1516</v>
       </c>
       <c r="D164">
-        <v>0.2187</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.369</v>
+        <v>0.3696</v>
       </c>
       <c r="C165">
-        <v>0.1533</v>
+        <v>0.1534</v>
       </c>
       <c r="D165">
-        <v>0.2157</v>
+        <v>0.2162</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3673</v>
+        <v>0.3679</v>
       </c>
       <c r="C166">
-        <v>0.1545</v>
+        <v>0.1546</v>
       </c>
       <c r="D166">
-        <v>0.2128</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3647</v>
+        <v>0.3653</v>
       </c>
       <c r="C167">
-        <v>0.155</v>
+        <v>0.1551</v>
       </c>
       <c r="D167">
-        <v>0.2097</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3626</v>
+        <v>0.3633</v>
       </c>
       <c r="C168">
-        <v>0.1558</v>
+        <v>0.1559</v>
       </c>
       <c r="D168">
-        <v>0.2069</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.361</v>
+        <v>0.3617</v>
       </c>
       <c r="C169">
-        <v>0.1568</v>
+        <v>0.1569</v>
       </c>
       <c r="D169">
-        <v>0.2043</v>
+        <v>0.2048</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3598</v>
+        <v>0.3604</v>
       </c>
       <c r="C170">
-        <v>0.1579</v>
+        <v>0.158</v>
       </c>
       <c r="D170">
-        <v>0.2019</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3577</v>
+        <v>0.3583</v>
       </c>
       <c r="C171">
-        <v>0.1581</v>
+        <v>0.1582</v>
       </c>
       <c r="D171">
-        <v>0.1996</v>
+        <v>0.2001</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3565</v>
+        <v>0.3572</v>
       </c>
       <c r="C172">
-        <v>0.1588</v>
+        <v>0.159</v>
       </c>
       <c r="D172">
-        <v>0.1977</v>
+        <v>0.1982</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3555,13 +3555,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3557</v>
+        <v>0.3564</v>
       </c>
       <c r="C173">
-        <v>0.1598</v>
+        <v>0.16</v>
       </c>
       <c r="D173">
-        <v>0.1959</v>
+        <v>0.1964</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3539</v>
+        <v>0.3546</v>
       </c>
       <c r="C174">
-        <v>0.1598</v>
+        <v>0.16</v>
       </c>
       <c r="D174">
-        <v>0.194</v>
+        <v>0.1946</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3515</v>
+        <v>0.3523</v>
       </c>
       <c r="C175">
-        <v>0.1592</v>
+        <v>0.1594</v>
       </c>
       <c r="D175">
-        <v>0.1923</v>
+        <v>0.1929</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3478</v>
+        <v>0.3486</v>
       </c>
       <c r="C176">
-        <v>0.1577</v>
+        <v>0.1579</v>
       </c>
       <c r="D176">
-        <v>0.1902</v>
+        <v>0.1907</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3447</v>
+        <v>0.3455</v>
       </c>
       <c r="C177">
-        <v>0.1561</v>
+        <v>0.1563</v>
       </c>
       <c r="D177">
-        <v>0.1886</v>
+        <v>0.1892</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3419</v>
+        <v>0.3427</v>
       </c>
       <c r="C178">
-        <v>0.1543</v>
+        <v>0.1545</v>
       </c>
       <c r="D178">
-        <v>0.1876</v>
+        <v>0.1882</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.339</v>
+        <v>0.3399</v>
       </c>
       <c r="C179">
-        <v>0.1522</v>
+        <v>0.1525</v>
       </c>
       <c r="D179">
-        <v>0.1868</v>
+        <v>0.1874</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3364</v>
+        <v>0.3373</v>
       </c>
       <c r="C180">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="D180">
-        <v>0.1864</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3338</v>
+        <v>0.3347</v>
       </c>
       <c r="C181">
-        <v>0.1476</v>
+        <v>0.1479</v>
       </c>
       <c r="D181">
-        <v>0.1862</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3317</v>
+        <v>0.3326</v>
       </c>
       <c r="C182">
-        <v>0.1453</v>
+        <v>0.1456</v>
       </c>
       <c r="D182">
-        <v>0.1864</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.33</v>
+        <v>0.3308</v>
       </c>
       <c r="C183">
-        <v>0.1431</v>
+        <v>0.1433</v>
       </c>
       <c r="D183">
-        <v>0.1869</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3297</v>
+        <v>0.3305</v>
       </c>
       <c r="C184">
-        <v>0.1417</v>
+        <v>0.1419</v>
       </c>
       <c r="D184">
-        <v>0.188</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3293</v>
+        <v>0.3301</v>
       </c>
       <c r="C185">
-        <v>0.14</v>
+        <v>0.1402</v>
       </c>
       <c r="D185">
-        <v>0.1893</v>
+        <v>0.1899</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.33</v>
+        <v>0.3309</v>
       </c>
       <c r="C186">
-        <v>0.139</v>
+        <v>0.1392</v>
       </c>
       <c r="D186">
-        <v>0.1911</v>
+        <v>0.1917</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3314</v>
+        <v>0.3322</v>
       </c>
       <c r="C187">
-        <v>0.1382</v>
+        <v>0.1385</v>
       </c>
       <c r="D187">
-        <v>0.1932</v>
+        <v>0.1938</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.333</v>
+        <v>0.3338</v>
       </c>
       <c r="C188">
-        <v>0.1379</v>
+        <v>0.1381</v>
       </c>
       <c r="D188">
-        <v>0.1951</v>
+        <v>0.1957</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3345</v>
+        <v>0.3353</v>
       </c>
       <c r="C189">
-        <v>0.1374</v>
+        <v>0.1376</v>
       </c>
       <c r="D189">
-        <v>0.1971</v>
+        <v>0.1977</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3364</v>
+        <v>0.3372</v>
       </c>
       <c r="C190">
-        <v>0.1371</v>
+        <v>0.1373</v>
       </c>
       <c r="D190">
-        <v>0.1993</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3388</v>
+        <v>0.3397</v>
       </c>
       <c r="C191">
-        <v>0.1369</v>
+        <v>0.1371</v>
       </c>
       <c r="D191">
-        <v>0.202</v>
+        <v>0.2026</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3414</v>
+        <v>0.3422</v>
       </c>
       <c r="C192">
-        <v>0.1361</v>
+        <v>0.1363</v>
       </c>
       <c r="D192">
-        <v>0.2052</v>
+        <v>0.2058</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3445</v>
+        <v>0.3453</v>
       </c>
       <c r="C193">
-        <v>0.1356</v>
+        <v>0.1358</v>
       </c>
       <c r="D193">
-        <v>0.2089</v>
+        <v>0.2095</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3488</v>
+        <v>0.3496</v>
       </c>
       <c r="C194">
-        <v>0.136</v>
+        <v>0.1362</v>
       </c>
       <c r="D194">
-        <v>0.2128</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3536</v>
+        <v>0.3544</v>
       </c>
       <c r="C195">
-        <v>0.1366</v>
+        <v>0.1368</v>
       </c>
       <c r="D195">
-        <v>0.217</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3585</v>
+        <v>0.3592</v>
       </c>
       <c r="C196">
-        <v>0.1372</v>
+        <v>0.1373</v>
       </c>
       <c r="D196">
-        <v>0.2213</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3633</v>
+        <v>0.3641</v>
       </c>
       <c r="C197">
-        <v>0.138</v>
+        <v>0.1381</v>
       </c>
       <c r="D197">
-        <v>0.2254</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3686</v>
+        <v>0.3694</v>
       </c>
       <c r="C198">
-        <v>0.1395</v>
+        <v>0.1396</v>
       </c>
       <c r="D198">
-        <v>0.2291</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3737</v>
+        <v>0.3745</v>
       </c>
       <c r="C199">
-        <v>0.1409</v>
+        <v>0.1411</v>
       </c>
       <c r="D199">
-        <v>0.2328</v>
+        <v>0.2334</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3785</v>
+        <v>0.3792</v>
       </c>
       <c r="C200">
-        <v>0.1423</v>
+        <v>0.1424</v>
       </c>
       <c r="D200">
-        <v>0.2362</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3832</v>
+        <v>0.3839</v>
       </c>
       <c r="C201">
-        <v>0.1435</v>
+        <v>0.1436</v>
       </c>
       <c r="D201">
-        <v>0.2396</v>
+        <v>0.2402</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.388</v>
+        <v>0.3887</v>
       </c>
       <c r="C202">
-        <v>0.145</v>
+        <v>0.1452</v>
       </c>
       <c r="D202">
-        <v>0.2429</v>
+        <v>0.2435</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3928</v>
+        <v>0.3934</v>
       </c>
       <c r="C203">
-        <v>0.1468</v>
+        <v>0.1469</v>
       </c>
       <c r="D203">
-        <v>0.246</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.396</v>
+        <v>0.3966</v>
       </c>
       <c r="C204">
-        <v>0.1476</v>
+        <v>0.1477</v>
       </c>
       <c r="D204">
-        <v>0.2484</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3993</v>
+        <v>0.3999</v>
       </c>
       <c r="C205">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D205">
-        <v>0.2508</v>
+        <v>0.2514</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4013</v>
+        <v>0.4019</v>
       </c>
       <c r="C206">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D206">
-        <v>0.2529</v>
+        <v>0.2535</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4026</v>
+        <v>0.4033</v>
       </c>
       <c r="C207">
-        <v>0.1479</v>
+        <v>0.148</v>
       </c>
       <c r="D207">
-        <v>0.2547</v>
+        <v>0.2553</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4039</v>
+        <v>0.4045</v>
       </c>
       <c r="C208">
-        <v>0.1473</v>
+        <v>0.1474</v>
       </c>
       <c r="D208">
-        <v>0.2566</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4046</v>
+        <v>0.4052</v>
       </c>
       <c r="C209">
-        <v>0.1465</v>
+        <v>0.1466</v>
       </c>
       <c r="D209">
-        <v>0.2581</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4057</v>
+        <v>0.4063</v>
       </c>
       <c r="C210">
-        <v>0.1458</v>
+        <v>0.1459</v>
       </c>
       <c r="D210">
-        <v>0.2599</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4065</v>
+        <v>0.4071</v>
       </c>
       <c r="C211">
-        <v>0.145</v>
+        <v>0.1451</v>
       </c>
       <c r="D211">
-        <v>0.2614</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4067</v>
+        <v>0.4073</v>
       </c>
       <c r="C212">
-        <v>0.1444</v>
+        <v>0.1445</v>
       </c>
       <c r="D212">
-        <v>0.2623</v>
+        <v>0.2628</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.407</v>
+        <v>0.4076</v>
       </c>
       <c r="C213">
-        <v>0.1442</v>
+        <v>0.1443</v>
       </c>
       <c r="D213">
-        <v>0.2627</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4072</v>
+        <v>0.4078</v>
       </c>
       <c r="C214">
-        <v>0.1439</v>
+        <v>0.144</v>
       </c>
       <c r="D214">
-        <v>0.2633</v>
+        <v>0.2638</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4072</v>
+        <v>0.4077</v>
       </c>
       <c r="C215">
-        <v>0.1433</v>
+        <v>0.1434</v>
       </c>
       <c r="D215">
-        <v>0.2639</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4072</v>
+        <v>0.4077</v>
       </c>
       <c r="C216">
-        <v>0.1427</v>
+        <v>0.1428</v>
       </c>
       <c r="D216">
-        <v>0.2644</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4068</v>
+        <v>0.4074</v>
       </c>
       <c r="C217">
-        <v>0.1416</v>
+        <v>0.1417</v>
       </c>
       <c r="D217">
-        <v>0.2652</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4059</v>
+        <v>0.4065</v>
       </c>
       <c r="C218">
-        <v>0.1399</v>
+        <v>0.14</v>
       </c>
       <c r="D218">
-        <v>0.266</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4049</v>
+        <v>0.4055</v>
       </c>
       <c r="C219">
-        <v>0.1381</v>
+        <v>0.1382</v>
       </c>
       <c r="D219">
-        <v>0.2668</v>
+        <v>0.2673</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4037</v>
+        <v>0.4042</v>
       </c>
       <c r="C220">
         <v>0.136</v>
       </c>
       <c r="D220">
-        <v>0.2677</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4026</v>
+        <v>0.4031</v>
       </c>
       <c r="C221">
         <v>0.134</v>
       </c>
       <c r="D221">
-        <v>0.2686</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4017</v>
+        <v>0.4023</v>
       </c>
       <c r="C222">
-        <v>0.1323</v>
+        <v>0.1324</v>
       </c>
       <c r="D222">
-        <v>0.2694</v>
+        <v>0.2699</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.4006</v>
+        <v>0.4011</v>
       </c>
       <c r="C223">
-        <v>0.1303</v>
+        <v>0.1304</v>
       </c>
       <c r="D223">
-        <v>0.2703</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.4002</v>
+        <v>0.4007</v>
       </c>
       <c r="C224">
-        <v>0.1289</v>
+        <v>0.129</v>
       </c>
       <c r="D224">
-        <v>0.2713</v>
+        <v>0.2717</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.4005</v>
+        <v>0.401</v>
       </c>
       <c r="C225">
-        <v>0.1281</v>
+        <v>0.1282</v>
       </c>
       <c r="D225">
-        <v>0.2724</v>
+        <v>0.2728</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.4013</v>
+        <v>0.4018</v>
       </c>
       <c r="C226">
         <v>0.1281</v>
       </c>
       <c r="D226">
-        <v>0.2732</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4027</v>
+        <v>0.4032</v>
       </c>
       <c r="C227">
-        <v>0.1286</v>
+        <v>0.1287</v>
       </c>
       <c r="D227">
-        <v>0.2741</v>
+        <v>0.2745</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4043</v>
+        <v>0.4048</v>
       </c>
       <c r="C228">
         <v>0.1295</v>
       </c>
       <c r="D228">
-        <v>0.2748</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4063</v>
+        <v>0.4068</v>
       </c>
       <c r="C229">
-        <v>0.1305</v>
+        <v>0.1306</v>
       </c>
       <c r="D229">
-        <v>0.2758</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4077</v>
+        <v>0.4081</v>
       </c>
       <c r="C230">
-        <v>0.1314</v>
+        <v>0.1315</v>
       </c>
       <c r="D230">
-        <v>0.2763</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4092</v>
+        <v>0.4096</v>
       </c>
       <c r="C231">
         <v>0.1327</v>
       </c>
       <c r="D231">
-        <v>0.2765</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4105</v>
+        <v>0.411</v>
       </c>
       <c r="C232">
-        <v>0.134</v>
+        <v>0.1341</v>
       </c>
       <c r="D232">
-        <v>0.2765</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4113</v>
+        <v>0.4117</v>
       </c>
       <c r="C233">
         <v>0.1348</v>
       </c>
       <c r="D233">
-        <v>0.2766</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C234">
         <v>0.1347</v>
       </c>
       <c r="D234">
-        <v>0.2763</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4109</v>
+        <v>0.4113</v>
       </c>
       <c r="C235">
         <v>0.1349</v>
       </c>
       <c r="D235">
-        <v>0.276</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4109</v>
+        <v>0.4113</v>
       </c>
       <c r="C236">
-        <v>0.1354</v>
+        <v>0.1355</v>
       </c>
       <c r="D236">
-        <v>0.2755</v>
+        <v>0.2759</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C237">
         <v>0.1365</v>
       </c>
       <c r="D237">
-        <v>0.2745</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4115</v>
+        <v>0.4119</v>
       </c>
       <c r="C238">
-        <v>0.1377</v>
+        <v>0.1378</v>
       </c>
       <c r="D238">
-        <v>0.2738</v>
+        <v>0.2741</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4116</v>
+        <v>0.412</v>
       </c>
       <c r="C239">
         <v>0.1388</v>
       </c>
       <c r="D239">
-        <v>0.2728</v>
+        <v>0.2731</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4118</v>
+        <v>0.4121</v>
       </c>
       <c r="C240">
-        <v>0.1399</v>
+        <v>0.14</v>
       </c>
       <c r="D240">
-        <v>0.2718</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4113</v>
+        <v>0.4116</v>
       </c>
       <c r="C241">
-        <v>0.1406</v>
+        <v>0.1407</v>
       </c>
       <c r="D241">
-        <v>0.2706</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4102</v>
+        <v>0.4105</v>
       </c>
       <c r="C242">
         <v>0.1409</v>
       </c>
       <c r="D242">
-        <v>0.2693</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4088</v>
+        <v>0.4091</v>
       </c>
       <c r="C243">
         <v>0.1409</v>
       </c>
       <c r="D243">
-        <v>0.2679</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4074</v>
+        <v>0.4077</v>
       </c>
       <c r="C244">
-        <v>0.1407</v>
+        <v>0.1408</v>
       </c>
       <c r="D244">
-        <v>0.2667</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4058</v>
+        <v>0.4062</v>
       </c>
       <c r="C245">
         <v>0.1406</v>
       </c>
       <c r="D245">
-        <v>0.2653</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4046</v>
+        <v>0.405</v>
       </c>
       <c r="C246">
         <v>0.1405</v>
       </c>
       <c r="D246">
-        <v>0.2642</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4027</v>
+        <v>0.4031</v>
       </c>
       <c r="C247">
         <v>0.1398</v>
       </c>
       <c r="D247">
-        <v>0.263</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4001</v>
+        <v>0.4005</v>
       </c>
       <c r="C248">
         <v>0.1385</v>
       </c>
       <c r="D248">
-        <v>0.2617</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.398</v>
+        <v>0.3983</v>
       </c>
       <c r="C249">
-        <v>0.1378</v>
+        <v>0.1379</v>
       </c>
       <c r="D249">
-        <v>0.2602</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3954</v>
+        <v>0.3958</v>
       </c>
       <c r="C250">
-        <v>0.1368</v>
+        <v>0.1369</v>
       </c>
       <c r="D250">
-        <v>0.2586</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3927</v>
+        <v>0.393</v>
       </c>
       <c r="C251">
-        <v>0.1353</v>
+        <v>0.1354</v>
       </c>
       <c r="D251">
-        <v>0.2574</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3903</v>
+        <v>0.3906</v>
       </c>
       <c r="C252">
-        <v>0.134</v>
+        <v>0.1341</v>
       </c>
       <c r="D252">
-        <v>0.2563</v>
+        <v>0.2565</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2020 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2020 - Diaria.xlsx
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3514</v>
+        <v>0.3535</v>
       </c>
       <c r="C2">
-        <v>0.1982</v>
+        <v>0.1987</v>
       </c>
       <c r="D2">
-        <v>0.1532</v>
+        <v>0.1548</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3371</v>
+        <v>0.3392</v>
       </c>
       <c r="C3">
-        <v>0.1922</v>
+        <v>0.1928</v>
       </c>
       <c r="D3">
-        <v>0.1449</v>
+        <v>0.1464</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.324</v>
+        <v>0.3261</v>
       </c>
       <c r="C4">
-        <v>0.1868</v>
+        <v>0.1874</v>
       </c>
       <c r="D4">
-        <v>0.1372</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3144</v>
+        <v>0.3165</v>
       </c>
       <c r="C5">
-        <v>0.184</v>
+        <v>0.1846</v>
       </c>
       <c r="D5">
-        <v>0.1304</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3029</v>
+        <v>0.305</v>
       </c>
       <c r="C6">
-        <v>0.1803</v>
+        <v>0.1809</v>
       </c>
       <c r="D6">
-        <v>0.1227</v>
+        <v>0.1241</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2907</v>
+        <v>0.2928</v>
       </c>
       <c r="C7">
-        <v>0.1752</v>
+        <v>0.1758</v>
       </c>
       <c r="D7">
-        <v>0.1155</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2801</v>
+        <v>0.2821</v>
       </c>
       <c r="C8">
-        <v>0.1706</v>
+        <v>0.1712</v>
       </c>
       <c r="D8">
-        <v>0.1095</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2701</v>
+        <v>0.272</v>
       </c>
       <c r="C9">
-        <v>0.1661</v>
+        <v>0.1667</v>
       </c>
       <c r="D9">
-        <v>0.104</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2603</v>
+        <v>0.2621</v>
       </c>
       <c r="C10">
-        <v>0.1615</v>
+        <v>0.1621</v>
       </c>
       <c r="D10">
-        <v>0.0988</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.252</v>
+        <v>0.2537</v>
       </c>
       <c r="C11">
-        <v>0.1577</v>
+        <v>0.1583</v>
       </c>
       <c r="D11">
-        <v>0.09429999999999999</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2433</v>
+        <v>0.2449</v>
       </c>
       <c r="C12">
-        <v>0.1531</v>
+        <v>0.1537</v>
       </c>
       <c r="D12">
-        <v>0.0902</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2353</v>
+        <v>0.2368</v>
       </c>
       <c r="C13">
-        <v>0.149</v>
+        <v>0.1495</v>
       </c>
       <c r="D13">
-        <v>0.0863</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2268</v>
+        <v>0.2283</v>
       </c>
       <c r="C14">
-        <v>0.1453</v>
+        <v>0.1458</v>
       </c>
       <c r="D14">
-        <v>0.08160000000000001</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2188</v>
+        <v>0.2203</v>
       </c>
       <c r="C15">
-        <v>0.1416</v>
+        <v>0.1421</v>
       </c>
       <c r="D15">
-        <v>0.0772</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2113</v>
+        <v>0.2127</v>
       </c>
       <c r="C16">
-        <v>0.138</v>
+        <v>0.1385</v>
       </c>
       <c r="D16">
-        <v>0.07340000000000001</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2041</v>
+        <v>0.2054</v>
       </c>
       <c r="C17">
-        <v>0.1341</v>
+        <v>0.1346</v>
       </c>
       <c r="D17">
-        <v>0.07000000000000001</v>
+        <v>0.0708</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.1979</v>
+        <v>0.1992</v>
       </c>
       <c r="C18">
-        <v>0.131</v>
+        <v>0.1315</v>
       </c>
       <c r="D18">
-        <v>0.067</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1925</v>
+        <v>0.1937</v>
       </c>
       <c r="C19">
-        <v>0.1281</v>
+        <v>0.1286</v>
       </c>
       <c r="D19">
-        <v>0.0644</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.1883</v>
+        <v>0.1894</v>
       </c>
       <c r="C20">
-        <v>0.1261</v>
+        <v>0.1266</v>
       </c>
       <c r="D20">
-        <v>0.0622</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.1848</v>
+        <v>0.1858</v>
       </c>
       <c r="C21">
-        <v>0.1245</v>
+        <v>0.1249</v>
       </c>
       <c r="D21">
-        <v>0.0602</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.1813</v>
+        <v>0.1822</v>
       </c>
       <c r="C22">
-        <v>0.1225</v>
+        <v>0.1229</v>
       </c>
       <c r="D22">
-        <v>0.0587</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.1788</v>
+        <v>0.1796</v>
       </c>
       <c r="C23">
-        <v>0.1213</v>
+        <v>0.1217</v>
       </c>
       <c r="D23">
-        <v>0.0575</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1775</v>
+        <v>0.1782</v>
       </c>
       <c r="C24">
-        <v>0.1207</v>
+        <v>0.1211</v>
       </c>
       <c r="D24">
-        <v>0.0568</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.1757</v>
+        <v>0.1763</v>
       </c>
       <c r="C25">
-        <v>0.1195</v>
+        <v>0.1198</v>
       </c>
       <c r="D25">
-        <v>0.0563</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.1747</v>
+        <v>0.1752</v>
       </c>
       <c r="C26">
-        <v>0.1185</v>
+        <v>0.1188</v>
       </c>
       <c r="D26">
-        <v>0.0562</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.1745</v>
+        <v>0.1749</v>
       </c>
       <c r="C27">
-        <v>0.1183</v>
+        <v>0.1186</v>
       </c>
       <c r="D27">
-        <v>0.0562</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,10 +1525,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.1738</v>
+        <v>0.1742</v>
       </c>
       <c r="C28">
-        <v>0.1179</v>
+        <v>0.1182</v>
       </c>
       <c r="D28">
         <v>0.056</v>
@@ -1539,13 +1539,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.174</v>
+        <v>0.1744</v>
       </c>
       <c r="C29">
-        <v>0.1179</v>
+        <v>0.1182</v>
       </c>
       <c r="D29">
-        <v>0.0561</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.1755</v>
+        <v>0.1758</v>
       </c>
       <c r="C30">
-        <v>0.1188</v>
+        <v>0.1191</v>
       </c>
       <c r="D30">
-        <v>0.0567</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1567,10 +1567,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.1758</v>
+        <v>0.176</v>
       </c>
       <c r="C31">
-        <v>0.1184</v>
+        <v>0.1187</v>
       </c>
       <c r="D31">
         <v>0.0574</v>
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.1766</v>
+        <v>0.1768</v>
       </c>
       <c r="C32">
-        <v>0.1183</v>
+        <v>0.1185</v>
       </c>
       <c r="D32">
-        <v>0.0583</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.1779</v>
+        <v>0.1781</v>
       </c>
       <c r="C33">
-        <v>0.1184</v>
+        <v>0.1186</v>
       </c>
       <c r="D33">
-        <v>0.0596</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,10 +1612,10 @@
         <v>0.1797</v>
       </c>
       <c r="C34">
-        <v>0.1183</v>
+        <v>0.1186</v>
       </c>
       <c r="D34">
-        <v>0.0613</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,10 +1626,10 @@
         <v>0.1825</v>
       </c>
       <c r="C35">
-        <v>0.1188</v>
+        <v>0.119</v>
       </c>
       <c r="D35">
-        <v>0.06370000000000001</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,10 +1640,10 @@
         <v>0.1863</v>
       </c>
       <c r="C36">
-        <v>0.1196</v>
+        <v>0.1198</v>
       </c>
       <c r="D36">
-        <v>0.0667</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,10 +1654,10 @@
         <v>0.1913</v>
       </c>
       <c r="C37">
-        <v>0.1209</v>
+        <v>0.1211</v>
       </c>
       <c r="D37">
-        <v>0.0704</v>
+        <v>0.0702</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.1976</v>
+        <v>0.1974</v>
       </c>
       <c r="C38">
-        <v>0.1224</v>
+        <v>0.1225</v>
       </c>
       <c r="D38">
-        <v>0.0752</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2047</v>
+        <v>0.2045</v>
       </c>
       <c r="C39">
-        <v>0.124</v>
+        <v>0.1241</v>
       </c>
       <c r="D39">
-        <v>0.0808</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2147</v>
+        <v>0.2145</v>
       </c>
       <c r="C40">
-        <v>0.1259</v>
+        <v>0.126</v>
       </c>
       <c r="D40">
-        <v>0.08890000000000001</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2254</v>
+        <v>0.225</v>
       </c>
       <c r="C41">
-        <v>0.1278</v>
+        <v>0.1279</v>
       </c>
       <c r="D41">
-        <v>0.09760000000000001</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2372</v>
+        <v>0.2368</v>
       </c>
       <c r="C42">
-        <v>0.1307</v>
+        <v>0.1308</v>
       </c>
       <c r="D42">
-        <v>0.1065</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2499</v>
+        <v>0.2495</v>
       </c>
       <c r="C43">
-        <v>0.1341</v>
+        <v>0.1342</v>
       </c>
       <c r="D43">
-        <v>0.1158</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.263</v>
+        <v>0.2625</v>
       </c>
       <c r="C44">
-        <v>0.1377</v>
+        <v>0.1378</v>
       </c>
       <c r="D44">
-        <v>0.1253</v>
+        <v>0.1248</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2759</v>
+        <v>0.2754</v>
       </c>
       <c r="C45">
-        <v>0.1406</v>
+        <v>0.1407</v>
       </c>
       <c r="D45">
-        <v>0.1353</v>
+        <v>0.1347</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2886</v>
+        <v>0.2881</v>
       </c>
       <c r="C46">
-        <v>0.1431</v>
+        <v>0.1432</v>
       </c>
       <c r="D46">
-        <v>0.1455</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3037</v>
+        <v>0.3032</v>
       </c>
       <c r="C47">
         <v>0.1461</v>
       </c>
       <c r="D47">
-        <v>0.1577</v>
+        <v>0.1571</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3186</v>
+        <v>0.3181</v>
       </c>
       <c r="C48">
-        <v>0.1488</v>
+        <v>0.1489</v>
       </c>
       <c r="D48">
-        <v>0.1698</v>
+        <v>0.1692</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3329</v>
+        <v>0.3323</v>
       </c>
       <c r="C49">
         <v>0.1511</v>
       </c>
       <c r="D49">
-        <v>0.1818</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3483</v>
+        <v>0.3477</v>
       </c>
       <c r="C50">
         <v>0.1539</v>
       </c>
       <c r="D50">
-        <v>0.1943</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3652</v>
+        <v>0.3646</v>
       </c>
       <c r="C51">
         <v>0.1583</v>
       </c>
       <c r="D51">
-        <v>0.2069</v>
+        <v>0.2063</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3843</v>
+        <v>0.3837</v>
       </c>
       <c r="C52">
         <v>0.1657</v>
       </c>
       <c r="D52">
-        <v>0.2186</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4093</v>
+        <v>0.4087</v>
       </c>
       <c r="C53">
-        <v>0.1752</v>
+        <v>0.1751</v>
       </c>
       <c r="D53">
-        <v>0.2341</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4327</v>
+        <v>0.432</v>
       </c>
       <c r="C54">
         <v>0.1842</v>
       </c>
       <c r="D54">
-        <v>0.2485</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4577</v>
+        <v>0.457</v>
       </c>
       <c r="C55">
         <v>0.194</v>
       </c>
       <c r="D55">
-        <v>0.2637</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.482</v>
+        <v>0.4813</v>
       </c>
       <c r="C56">
-        <v>0.205</v>
+        <v>0.2049</v>
       </c>
       <c r="D56">
-        <v>0.277</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.5106000000000001</v>
+        <v>0.5098</v>
       </c>
       <c r="C57">
-        <v>0.2174</v>
+        <v>0.2173</v>
       </c>
       <c r="D57">
-        <v>0.2932</v>
+        <v>0.2925</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.535</v>
+        <v>0.5342</v>
       </c>
       <c r="C58">
-        <v>0.2278</v>
+        <v>0.2277</v>
       </c>
       <c r="D58">
-        <v>0.3072</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.5563</v>
+        <v>0.5555</v>
       </c>
       <c r="C59">
-        <v>0.237</v>
+        <v>0.2368</v>
       </c>
       <c r="D59">
-        <v>0.3193</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.5737</v>
+        <v>0.573</v>
       </c>
       <c r="C60">
-        <v>0.2456</v>
+        <v>0.2455</v>
       </c>
       <c r="D60">
-        <v>0.3281</v>
+        <v>0.3275</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.5906</v>
+        <v>0.5899</v>
       </c>
       <c r="C61">
-        <v>0.2545</v>
+        <v>0.2544</v>
       </c>
       <c r="D61">
-        <v>0.336</v>
+        <v>0.3355</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.6063</v>
+        <v>0.6057</v>
       </c>
       <c r="C62">
-        <v>0.2631</v>
+        <v>0.2629</v>
       </c>
       <c r="D62">
-        <v>0.3432</v>
+        <v>0.3427</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.6209</v>
+        <v>0.6204</v>
       </c>
       <c r="C63">
-        <v>0.2715</v>
+        <v>0.2714</v>
       </c>
       <c r="D63">
-        <v>0.3493</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.6337</v>
+        <v>0.6333</v>
       </c>
       <c r="C64">
-        <v>0.279</v>
+        <v>0.2788</v>
       </c>
       <c r="D64">
-        <v>0.3547</v>
+        <v>0.3545</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.6452</v>
+        <v>0.645</v>
       </c>
       <c r="C65">
-        <v>0.2863</v>
+        <v>0.2861</v>
       </c>
       <c r="D65">
-        <v>0.3589</v>
+        <v>0.3588</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2057,10 +2057,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.6553</v>
+        <v>0.6551</v>
       </c>
       <c r="C66">
-        <v>0.2932</v>
+        <v>0.293</v>
       </c>
       <c r="D66">
         <v>0.3621</v>
@@ -2074,10 +2074,10 @@
         <v>0.6639</v>
       </c>
       <c r="C67">
-        <v>0.2996</v>
+        <v>0.2995</v>
       </c>
       <c r="D67">
-        <v>0.3643</v>
+        <v>0.3644</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.6713</v>
+        <v>0.6714</v>
       </c>
       <c r="C68">
-        <v>0.3054</v>
+        <v>0.3053</v>
       </c>
       <c r="D68">
-        <v>0.3659</v>
+        <v>0.3661</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.6785</v>
+        <v>0.6788</v>
       </c>
       <c r="C69">
-        <v>0.3117</v>
+        <v>0.3116</v>
       </c>
       <c r="D69">
-        <v>0.3668</v>
+        <v>0.3672</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.6843</v>
+        <v>0.6847</v>
       </c>
       <c r="C70">
-        <v>0.3177</v>
+        <v>0.3176</v>
       </c>
       <c r="D70">
-        <v>0.3666</v>
+        <v>0.3671</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.6879999999999999</v>
+        <v>0.6885</v>
       </c>
       <c r="C71">
-        <v>0.3222</v>
+        <v>0.3221</v>
       </c>
       <c r="D71">
-        <v>0.3658</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.6889</v>
+        <v>0.6896</v>
       </c>
       <c r="C72">
         <v>0.3234</v>
       </c>
       <c r="D72">
-        <v>0.3655</v>
+        <v>0.3663</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.6832</v>
+        <v>0.6841</v>
       </c>
       <c r="C73">
         <v>0.3225</v>
       </c>
       <c r="D73">
-        <v>0.3607</v>
+        <v>0.3616</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.6787</v>
+        <v>0.6798</v>
       </c>
       <c r="C74">
         <v>0.3223</v>
       </c>
       <c r="D74">
-        <v>0.3564</v>
+        <v>0.3575</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.6719000000000001</v>
+        <v>0.6732</v>
       </c>
       <c r="C75">
         <v>0.3213</v>
       </c>
       <c r="D75">
-        <v>0.3507</v>
+        <v>0.3519</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.6647999999999999</v>
+        <v>0.6662</v>
       </c>
       <c r="C76">
-        <v>0.3186</v>
+        <v>0.3187</v>
       </c>
       <c r="D76">
-        <v>0.3462</v>
+        <v>0.3476</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.653</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="C77">
-        <v>0.3148</v>
+        <v>0.3149</v>
       </c>
       <c r="D77">
-        <v>0.3382</v>
+        <v>0.3398</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.6444</v>
+        <v>0.6463</v>
       </c>
       <c r="C78">
-        <v>0.3132</v>
+        <v>0.3134</v>
       </c>
       <c r="D78">
-        <v>0.3312</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.6384</v>
+        <v>0.6405999999999999</v>
       </c>
       <c r="C79">
-        <v>0.3132</v>
+        <v>0.3134</v>
       </c>
       <c r="D79">
-        <v>0.3253</v>
+        <v>0.3272</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.6317</v>
+        <v>0.634</v>
       </c>
       <c r="C80">
-        <v>0.3115</v>
+        <v>0.3118</v>
       </c>
       <c r="D80">
-        <v>0.3202</v>
+        <v>0.3222</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.6233</v>
+        <v>0.6257</v>
       </c>
       <c r="C81">
-        <v>0.3081</v>
+        <v>0.3084</v>
       </c>
       <c r="D81">
-        <v>0.3152</v>
+        <v>0.3173</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.615</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C82">
-        <v>0.3042</v>
+        <v>0.3045</v>
       </c>
       <c r="D82">
-        <v>0.3108</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.6062</v>
+        <v>0.6086</v>
       </c>
       <c r="C83">
-        <v>0.2994</v>
+        <v>0.2997</v>
       </c>
       <c r="D83">
-        <v>0.3068</v>
+        <v>0.3089</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.598</v>
+        <v>0.6005</v>
       </c>
       <c r="C84">
-        <v>0.295</v>
+        <v>0.2953</v>
       </c>
       <c r="D84">
-        <v>0.3031</v>
+        <v>0.3052</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5903</v>
+        <v>0.5928</v>
       </c>
       <c r="C85">
-        <v>0.2903</v>
+        <v>0.2906</v>
       </c>
       <c r="D85">
-        <v>0.3</v>
+        <v>0.3021</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.5839</v>
+        <v>0.5863</v>
       </c>
       <c r="C86">
-        <v>0.2865</v>
+        <v>0.2869</v>
       </c>
       <c r="D86">
-        <v>0.2974</v>
+        <v>0.2994</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5759</v>
+        <v>0.5783</v>
       </c>
       <c r="C87">
-        <v>0.2824</v>
+        <v>0.2828</v>
       </c>
       <c r="D87">
-        <v>0.2934</v>
+        <v>0.2955</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.5694</v>
+        <v>0.5718</v>
       </c>
       <c r="C88">
-        <v>0.2794</v>
+        <v>0.2797</v>
       </c>
       <c r="D88">
-        <v>0.29</v>
+        <v>0.2921</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.5624</v>
+        <v>0.5648</v>
       </c>
       <c r="C89">
-        <v>0.2755</v>
+        <v>0.2758</v>
       </c>
       <c r="D89">
-        <v>0.287</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.5551</v>
+        <v>0.5574</v>
       </c>
       <c r="C90">
-        <v>0.2709</v>
+        <v>0.2712</v>
       </c>
       <c r="D90">
-        <v>0.2842</v>
+        <v>0.2862</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.5477</v>
+        <v>0.55</v>
       </c>
       <c r="C91">
-        <v>0.266</v>
+        <v>0.2663</v>
       </c>
       <c r="D91">
-        <v>0.2817</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.5397999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="C92">
-        <v>0.2607</v>
+        <v>0.2611</v>
       </c>
       <c r="D92">
-        <v>0.2791</v>
+        <v>0.2809</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.5316</v>
+        <v>0.5337</v>
       </c>
       <c r="C93">
-        <v>0.2549</v>
+        <v>0.2552</v>
       </c>
       <c r="D93">
-        <v>0.2767</v>
+        <v>0.2785</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.5229</v>
+        <v>0.525</v>
       </c>
       <c r="C94">
-        <v>0.2483</v>
+        <v>0.2486</v>
       </c>
       <c r="D94">
-        <v>0.2746</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.5135</v>
+        <v>0.5155</v>
       </c>
       <c r="C95">
-        <v>0.241</v>
+        <v>0.2414</v>
       </c>
       <c r="D95">
-        <v>0.2725</v>
+        <v>0.2741</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.504</v>
+        <v>0.5059</v>
       </c>
       <c r="C96">
-        <v>0.2337</v>
+        <v>0.234</v>
       </c>
       <c r="D96">
-        <v>0.2703</v>
+        <v>0.2718</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4938</v>
+        <v>0.4955</v>
       </c>
       <c r="C97">
-        <v>0.2253</v>
+        <v>0.2256</v>
       </c>
       <c r="D97">
-        <v>0.2684</v>
+        <v>0.2699</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4836</v>
+        <v>0.4852</v>
       </c>
       <c r="C98">
-        <v>0.2169</v>
+        <v>0.2172</v>
       </c>
       <c r="D98">
-        <v>0.2667</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4737</v>
+        <v>0.4752</v>
       </c>
       <c r="C99">
-        <v>0.2087</v>
+        <v>0.209</v>
       </c>
       <c r="D99">
-        <v>0.265</v>
+        <v>0.2662</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4666</v>
+        <v>0.468</v>
       </c>
       <c r="C100">
-        <v>0.2029</v>
+        <v>0.2032</v>
       </c>
       <c r="D100">
-        <v>0.2637</v>
+        <v>0.2648</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4623</v>
+        <v>0.4635</v>
       </c>
       <c r="C101">
-        <v>0.1989</v>
+        <v>0.1992</v>
       </c>
       <c r="D101">
-        <v>0.2633</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4579</v>
+        <v>0.459</v>
       </c>
       <c r="C102">
-        <v>0.1953</v>
+        <v>0.1956</v>
       </c>
       <c r="D102">
-        <v>0.2626</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4535</v>
+        <v>0.4544</v>
       </c>
       <c r="C103">
-        <v>0.1906</v>
+        <v>0.1908</v>
       </c>
       <c r="D103">
-        <v>0.2629</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4499</v>
+        <v>0.4507</v>
       </c>
       <c r="C104">
-        <v>0.1865</v>
+        <v>0.1867</v>
       </c>
       <c r="D104">
-        <v>0.2634</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.4471</v>
+        <v>0.4477</v>
       </c>
       <c r="C105">
-        <v>0.183</v>
+        <v>0.1832</v>
       </c>
       <c r="D105">
-        <v>0.2641</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.4439</v>
+        <v>0.4444</v>
       </c>
       <c r="C106">
-        <v>0.1793</v>
+        <v>0.1794</v>
       </c>
       <c r="D106">
-        <v>0.2646</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4414</v>
+        <v>0.4418</v>
       </c>
       <c r="C107">
-        <v>0.1763</v>
+        <v>0.1765</v>
       </c>
       <c r="D107">
-        <v>0.2651</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.4379</v>
+        <v>0.4382</v>
       </c>
       <c r="C108">
-        <v>0.1724</v>
+        <v>0.1725</v>
       </c>
       <c r="D108">
-        <v>0.2654</v>
+        <v>0.2656</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4351</v>
+        <v>0.4352</v>
       </c>
       <c r="C109">
-        <v>0.1687</v>
+        <v>0.1688</v>
       </c>
       <c r="D109">
-        <v>0.2664</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2673,7 +2673,7 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.4307</v>
+        <v>0.4308</v>
       </c>
       <c r="C110">
         <v>0.1637</v>
@@ -2687,13 +2687,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.4289</v>
+        <v>0.4288</v>
       </c>
       <c r="C111">
-        <v>0.1604</v>
+        <v>0.1605</v>
       </c>
       <c r="D111">
-        <v>0.2684</v>
+        <v>0.2683</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.427</v>
+        <v>0.4269</v>
       </c>
       <c r="C112">
-        <v>0.1573</v>
+        <v>0.1574</v>
       </c>
       <c r="D112">
-        <v>0.2697</v>
+        <v>0.2695</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4262</v>
+        <v>0.426</v>
       </c>
       <c r="C113">
-        <v>0.1551</v>
+        <v>0.1552</v>
       </c>
       <c r="D113">
-        <v>0.2711</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.4257</v>
+        <v>0.4254</v>
       </c>
       <c r="C114">
-        <v>0.1531</v>
+        <v>0.1532</v>
       </c>
       <c r="D114">
-        <v>0.2726</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.4273</v>
+        <v>0.427</v>
       </c>
       <c r="C115">
         <v>0.1532</v>
       </c>
       <c r="D115">
-        <v>0.2741</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.429</v>
+        <v>0.4287</v>
       </c>
       <c r="C116">
         <v>0.1535</v>
       </c>
       <c r="D116">
-        <v>0.2755</v>
+        <v>0.2751</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.4303</v>
+        <v>0.4299</v>
       </c>
       <c r="C117">
         <v>0.1539</v>
       </c>
       <c r="D117">
-        <v>0.2764</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.431</v>
+        <v>0.4306</v>
       </c>
       <c r="C118">
         <v>0.1539</v>
       </c>
       <c r="D118">
-        <v>0.2772</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.4319</v>
+        <v>0.4315</v>
       </c>
       <c r="C119">
         <v>0.1536</v>
       </c>
       <c r="D119">
-        <v>0.2783</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4338</v>
+        <v>0.4334</v>
       </c>
       <c r="C120">
         <v>0.1539</v>
       </c>
       <c r="D120">
-        <v>0.2799</v>
+        <v>0.2795</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.4349</v>
+        <v>0.4345</v>
       </c>
       <c r="C121">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="D121">
-        <v>0.2811</v>
+        <v>0.2807</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.4369</v>
+        <v>0.4365</v>
       </c>
       <c r="C122">
-        <v>0.1541</v>
+        <v>0.1542</v>
       </c>
       <c r="D122">
-        <v>0.2828</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.4386</v>
+        <v>0.4382</v>
       </c>
       <c r="C123">
         <v>0.1555</v>
       </c>
       <c r="D123">
-        <v>0.2831</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.439</v>
+        <v>0.4387</v>
       </c>
       <c r="C124">
-        <v>0.1561</v>
+        <v>0.1562</v>
       </c>
       <c r="D124">
-        <v>0.2829</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.4379</v>
+        <v>0.4377</v>
       </c>
       <c r="C125">
-        <v>0.156</v>
+        <v>0.1561</v>
       </c>
       <c r="D125">
-        <v>0.2819</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4371</v>
+        <v>0.4369</v>
       </c>
       <c r="C126">
-        <v>0.156</v>
+        <v>0.1561</v>
       </c>
       <c r="D126">
-        <v>0.2811</v>
+        <v>0.2808</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.4346</v>
+        <v>0.4345</v>
       </c>
       <c r="C127">
-        <v>0.1546</v>
+        <v>0.1547</v>
       </c>
       <c r="D127">
-        <v>0.2799</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.4322</v>
+        <v>0.4321</v>
       </c>
       <c r="C128">
-        <v>0.1535</v>
+        <v>0.1536</v>
       </c>
       <c r="D128">
-        <v>0.2787</v>
+        <v>0.2785</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,10 +2942,10 @@
         <v>0.4298</v>
       </c>
       <c r="C129">
-        <v>0.153</v>
+        <v>0.1531</v>
       </c>
       <c r="D129">
-        <v>0.2768</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4288</v>
+        <v>0.4289</v>
       </c>
       <c r="C130">
-        <v>0.1539</v>
+        <v>0.154</v>
       </c>
       <c r="D130">
-        <v>0.2749</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,10 +2967,10 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4264</v>
+        <v>0.4265</v>
       </c>
       <c r="C131">
-        <v>0.1541</v>
+        <v>0.1542</v>
       </c>
       <c r="D131">
         <v>0.2723</v>
@@ -2981,10 +2981,10 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4247</v>
+        <v>0.4248</v>
       </c>
       <c r="C132">
-        <v>0.1549</v>
+        <v>0.1551</v>
       </c>
       <c r="D132">
         <v>0.2697</v>
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4222</v>
+        <v>0.4224</v>
       </c>
       <c r="C133">
-        <v>0.1554</v>
+        <v>0.1555</v>
       </c>
       <c r="D133">
-        <v>0.2668</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,10 +3009,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4216</v>
+        <v>0.4218</v>
       </c>
       <c r="C134">
-        <v>0.1561</v>
+        <v>0.1563</v>
       </c>
       <c r="D134">
         <v>0.2655</v>
@@ -3023,10 +3023,10 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4195</v>
+        <v>0.4197</v>
       </c>
       <c r="C135">
-        <v>0.1556</v>
+        <v>0.1558</v>
       </c>
       <c r="D135">
         <v>0.2639</v>
@@ -3037,10 +3037,10 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4186</v>
+        <v>0.4187</v>
       </c>
       <c r="C136">
-        <v>0.1564</v>
+        <v>0.1566</v>
       </c>
       <c r="D136">
         <v>0.2621</v>
@@ -3051,10 +3051,10 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4182</v>
+        <v>0.4183</v>
       </c>
       <c r="C137">
-        <v>0.158</v>
+        <v>0.1581</v>
       </c>
       <c r="D137">
         <v>0.2602</v>
@@ -3065,10 +3065,10 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4173</v>
+        <v>0.4174</v>
       </c>
       <c r="C138">
-        <v>0.1589</v>
+        <v>0.1591</v>
       </c>
       <c r="D138">
         <v>0.2584</v>
@@ -3079,10 +3079,10 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4159</v>
+        <v>0.416</v>
       </c>
       <c r="C139">
-        <v>0.159</v>
+        <v>0.1591</v>
       </c>
       <c r="D139">
         <v>0.2569</v>
@@ -3093,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4105</v>
+        <v>0.4106</v>
       </c>
       <c r="C140">
-        <v>0.1563</v>
+        <v>0.1565</v>
       </c>
       <c r="D140">
-        <v>0.2542</v>
+        <v>0.2541</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,10 +3107,10 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4053</v>
+        <v>0.4055</v>
       </c>
       <c r="C141">
-        <v>0.1541</v>
+        <v>0.1543</v>
       </c>
       <c r="D141">
         <v>0.2512</v>
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3997</v>
+        <v>0.3999</v>
       </c>
       <c r="C142">
-        <v>0.1514</v>
+        <v>0.1516</v>
       </c>
       <c r="D142">
-        <v>0.2484</v>
+        <v>0.2483</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3938</v>
+        <v>0.394</v>
       </c>
       <c r="C143">
-        <v>0.1482</v>
+        <v>0.1484</v>
       </c>
       <c r="D143">
-        <v>0.2457</v>
+        <v>0.2456</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3149,10 +3149,10 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3891</v>
+        <v>0.3892</v>
       </c>
       <c r="C144">
-        <v>0.1455</v>
+        <v>0.1456</v>
       </c>
       <c r="D144">
         <v>0.2436</v>
@@ -3163,10 +3163,10 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3857</v>
+        <v>0.3859</v>
       </c>
       <c r="C145">
-        <v>0.1434</v>
+        <v>0.1436</v>
       </c>
       <c r="D145">
         <v>0.2423</v>
@@ -3177,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3829</v>
+        <v>0.3831</v>
       </c>
       <c r="C146">
-        <v>0.1419</v>
+        <v>0.1421</v>
       </c>
       <c r="D146">
-        <v>0.241</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,10 +3191,10 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3821</v>
+        <v>0.3823</v>
       </c>
       <c r="C147">
-        <v>0.1418</v>
+        <v>0.142</v>
       </c>
       <c r="D147">
         <v>0.2403</v>
@@ -3205,10 +3205,10 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3815</v>
+        <v>0.3817</v>
       </c>
       <c r="C148">
-        <v>0.1417</v>
+        <v>0.1419</v>
       </c>
       <c r="D148">
         <v>0.2398</v>
@@ -3219,10 +3219,10 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3808</v>
+        <v>0.381</v>
       </c>
       <c r="C149">
-        <v>0.1413</v>
+        <v>0.1415</v>
       </c>
       <c r="D149">
         <v>0.2395</v>
@@ -3233,10 +3233,10 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3797</v>
+        <v>0.3799</v>
       </c>
       <c r="C150">
-        <v>0.1404</v>
+        <v>0.1406</v>
       </c>
       <c r="D150">
         <v>0.2393</v>
@@ -3247,10 +3247,10 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3794</v>
+        <v>0.3795</v>
       </c>
       <c r="C151">
-        <v>0.1404</v>
+        <v>0.1406</v>
       </c>
       <c r="D151">
         <v>0.239</v>
@@ -3261,10 +3261,10 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3788</v>
+        <v>0.3789</v>
       </c>
       <c r="C152">
-        <v>0.1401</v>
+        <v>0.1403</v>
       </c>
       <c r="D152">
         <v>0.2386</v>
@@ -3275,10 +3275,10 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3781</v>
+        <v>0.3782</v>
       </c>
       <c r="C153">
-        <v>0.1396</v>
+        <v>0.1397</v>
       </c>
       <c r="D153">
         <v>0.2385</v>
@@ -3289,13 +3289,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3763</v>
+        <v>0.3765</v>
       </c>
       <c r="C154">
-        <v>0.1398</v>
+        <v>0.1399</v>
       </c>
       <c r="D154">
-        <v>0.2365</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.375</v>
+        <v>0.3753</v>
       </c>
       <c r="C155">
-        <v>0.1403</v>
+        <v>0.1404</v>
       </c>
       <c r="D155">
-        <v>0.2347</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3744</v>
+        <v>0.3747</v>
       </c>
       <c r="C156">
-        <v>0.1407</v>
+        <v>0.1408</v>
       </c>
       <c r="D156">
-        <v>0.2337</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3735</v>
+        <v>0.3737</v>
       </c>
       <c r="C157">
-        <v>0.1406</v>
+        <v>0.1407</v>
       </c>
       <c r="D157">
-        <v>0.2329</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3725</v>
+        <v>0.3728</v>
       </c>
       <c r="C158">
-        <v>0.1407</v>
+        <v>0.1408</v>
       </c>
       <c r="D158">
-        <v>0.2318</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3711</v>
+        <v>0.3715</v>
       </c>
       <c r="C159">
-        <v>0.1413</v>
+        <v>0.1414</v>
       </c>
       <c r="D159">
-        <v>0.2299</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3709</v>
+        <v>0.3713</v>
       </c>
       <c r="C160">
-        <v>0.1429</v>
+        <v>0.143</v>
       </c>
       <c r="D160">
-        <v>0.2281</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3707</v>
+        <v>0.3711</v>
       </c>
       <c r="C161">
-        <v>0.1446</v>
+        <v>0.1447</v>
       </c>
       <c r="D161">
-        <v>0.2261</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3702</v>
+        <v>0.3706</v>
       </c>
       <c r="C162">
-        <v>0.1464</v>
+        <v>0.1465</v>
       </c>
       <c r="D162">
-        <v>0.2238</v>
+        <v>0.2241</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.371</v>
+        <v>0.3715</v>
       </c>
       <c r="C163">
-        <v>0.1494</v>
+        <v>0.1495</v>
       </c>
       <c r="D163">
-        <v>0.2217</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3707</v>
+        <v>0.3712</v>
       </c>
       <c r="C164">
-        <v>0.1516</v>
+        <v>0.1517</v>
       </c>
       <c r="D164">
-        <v>0.2192</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3696</v>
+        <v>0.3701</v>
       </c>
       <c r="C165">
-        <v>0.1534</v>
+        <v>0.1535</v>
       </c>
       <c r="D165">
-        <v>0.2162</v>
+        <v>0.2165</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3679</v>
+        <v>0.3684</v>
       </c>
       <c r="C166">
-        <v>0.1546</v>
+        <v>0.1547</v>
       </c>
       <c r="D166">
-        <v>0.2133</v>
+        <v>0.2136</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3653</v>
+        <v>0.3658</v>
       </c>
       <c r="C167">
-        <v>0.1551</v>
+        <v>0.1553</v>
       </c>
       <c r="D167">
-        <v>0.2102</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3633</v>
+        <v>0.3637</v>
       </c>
       <c r="C168">
-        <v>0.1559</v>
+        <v>0.1561</v>
       </c>
       <c r="D168">
-        <v>0.2074</v>
+        <v>0.2077</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3617</v>
+        <v>0.3621</v>
       </c>
       <c r="C169">
-        <v>0.1569</v>
+        <v>0.157</v>
       </c>
       <c r="D169">
-        <v>0.2048</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3604</v>
+        <v>0.3608</v>
       </c>
       <c r="C170">
-        <v>0.158</v>
+        <v>0.1582</v>
       </c>
       <c r="D170">
-        <v>0.2024</v>
+        <v>0.2027</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3583</v>
+        <v>0.3587</v>
       </c>
       <c r="C171">
-        <v>0.1582</v>
+        <v>0.1584</v>
       </c>
       <c r="D171">
-        <v>0.2001</v>
+        <v>0.2003</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3572</v>
+        <v>0.3575</v>
       </c>
       <c r="C172">
-        <v>0.159</v>
+        <v>0.1592</v>
       </c>
       <c r="D172">
-        <v>0.1982</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3555,13 +3555,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3564</v>
+        <v>0.3567</v>
       </c>
       <c r="C173">
-        <v>0.16</v>
+        <v>0.1601</v>
       </c>
       <c r="D173">
-        <v>0.1964</v>
+        <v>0.1965</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3569,10 +3569,10 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3546</v>
+        <v>0.3548</v>
       </c>
       <c r="C174">
-        <v>0.16</v>
+        <v>0.1602</v>
       </c>
       <c r="D174">
         <v>0.1946</v>
@@ -3583,10 +3583,10 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3523</v>
+        <v>0.3524</v>
       </c>
       <c r="C175">
-        <v>0.1594</v>
+        <v>0.1596</v>
       </c>
       <c r="D175">
         <v>0.1929</v>
@@ -3597,10 +3597,10 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3486</v>
+        <v>0.3488</v>
       </c>
       <c r="C176">
-        <v>0.1579</v>
+        <v>0.1581</v>
       </c>
       <c r="D176">
         <v>0.1907</v>
@@ -3611,13 +3611,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3455</v>
+        <v>0.3456</v>
       </c>
       <c r="C177">
-        <v>0.1563</v>
+        <v>0.1565</v>
       </c>
       <c r="D177">
-        <v>0.1892</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3427</v>
+        <v>0.3428</v>
       </c>
       <c r="C178">
-        <v>0.1545</v>
+        <v>0.1547</v>
       </c>
       <c r="D178">
-        <v>0.1882</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,10 +3642,10 @@
         <v>0.3399</v>
       </c>
       <c r="C179">
-        <v>0.1525</v>
+        <v>0.1527</v>
       </c>
       <c r="D179">
-        <v>0.1874</v>
+        <v>0.1872</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3373</v>
+        <v>0.3372</v>
       </c>
       <c r="C180">
-        <v>0.1503</v>
+        <v>0.1505</v>
       </c>
       <c r="D180">
-        <v>0.187</v>
+        <v>0.1867</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3347</v>
+        <v>0.3346</v>
       </c>
       <c r="C181">
-        <v>0.1479</v>
+        <v>0.1481</v>
       </c>
       <c r="D181">
-        <v>0.1868</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3326</v>
+        <v>0.3324</v>
       </c>
       <c r="C182">
-        <v>0.1456</v>
+        <v>0.1458</v>
       </c>
       <c r="D182">
-        <v>0.187</v>
+        <v>0.1866</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3308</v>
+        <v>0.3306</v>
       </c>
       <c r="C183">
-        <v>0.1433</v>
+        <v>0.1435</v>
       </c>
       <c r="D183">
-        <v>0.1875</v>
+        <v>0.1871</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3305</v>
+        <v>0.3303</v>
       </c>
       <c r="C184">
-        <v>0.1419</v>
+        <v>0.1422</v>
       </c>
       <c r="D184">
-        <v>0.1886</v>
+        <v>0.1881</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3301</v>
+        <v>0.3298</v>
       </c>
       <c r="C185">
-        <v>0.1402</v>
+        <v>0.1404</v>
       </c>
       <c r="D185">
-        <v>0.1899</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3309</v>
+        <v>0.3305</v>
       </c>
       <c r="C186">
-        <v>0.1392</v>
+        <v>0.1394</v>
       </c>
       <c r="D186">
-        <v>0.1917</v>
+        <v>0.1911</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3322</v>
+        <v>0.3318</v>
       </c>
       <c r="C187">
-        <v>0.1385</v>
+        <v>0.1387</v>
       </c>
       <c r="D187">
-        <v>0.1938</v>
+        <v>0.1932</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3338</v>
+        <v>0.3334</v>
       </c>
       <c r="C188">
-        <v>0.1381</v>
+        <v>0.1383</v>
       </c>
       <c r="D188">
-        <v>0.1957</v>
+        <v>0.1951</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3353</v>
+        <v>0.3348</v>
       </c>
       <c r="C189">
-        <v>0.1376</v>
+        <v>0.1378</v>
       </c>
       <c r="D189">
-        <v>0.1977</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3372</v>
+        <v>0.3367</v>
       </c>
       <c r="C190">
-        <v>0.1373</v>
+        <v>0.1375</v>
       </c>
       <c r="D190">
-        <v>0.1999</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3397</v>
+        <v>0.3391</v>
       </c>
       <c r="C191">
-        <v>0.1371</v>
+        <v>0.1373</v>
       </c>
       <c r="D191">
-        <v>0.2026</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3422</v>
+        <v>0.3416</v>
       </c>
       <c r="C192">
-        <v>0.1363</v>
+        <v>0.1365</v>
       </c>
       <c r="D192">
-        <v>0.2058</v>
+        <v>0.2051</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3453</v>
+        <v>0.3447</v>
       </c>
       <c r="C193">
-        <v>0.1358</v>
+        <v>0.1359</v>
       </c>
       <c r="D193">
-        <v>0.2095</v>
+        <v>0.2087</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3496</v>
+        <v>0.3489</v>
       </c>
       <c r="C194">
-        <v>0.1362</v>
+        <v>0.1364</v>
       </c>
       <c r="D194">
-        <v>0.2134</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3544</v>
+        <v>0.3537</v>
       </c>
       <c r="C195">
-        <v>0.1368</v>
+        <v>0.1369</v>
       </c>
       <c r="D195">
-        <v>0.2176</v>
+        <v>0.2168</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3592</v>
+        <v>0.3584</v>
       </c>
       <c r="C196">
-        <v>0.1373</v>
+        <v>0.1374</v>
       </c>
       <c r="D196">
-        <v>0.2219</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3641</v>
+        <v>0.3633</v>
       </c>
       <c r="C197">
-        <v>0.1381</v>
+        <v>0.1382</v>
       </c>
       <c r="D197">
-        <v>0.226</v>
+        <v>0.2251</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3694</v>
+        <v>0.3685</v>
       </c>
       <c r="C198">
-        <v>0.1396</v>
+        <v>0.1397</v>
       </c>
       <c r="D198">
-        <v>0.2297</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3745</v>
+        <v>0.3736</v>
       </c>
       <c r="C199">
         <v>0.1411</v>
       </c>
       <c r="D199">
-        <v>0.2334</v>
+        <v>0.2325</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3792</v>
+        <v>0.3784</v>
       </c>
       <c r="C200">
-        <v>0.1424</v>
+        <v>0.1425</v>
       </c>
       <c r="D200">
-        <v>0.2368</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3839</v>
+        <v>0.383</v>
       </c>
       <c r="C201">
-        <v>0.1436</v>
+        <v>0.1437</v>
       </c>
       <c r="D201">
-        <v>0.2402</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3887</v>
+        <v>0.3878</v>
       </c>
       <c r="C202">
         <v>0.1452</v>
       </c>
       <c r="D202">
-        <v>0.2435</v>
+        <v>0.2426</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3934</v>
+        <v>0.3925</v>
       </c>
       <c r="C203">
         <v>0.1469</v>
       </c>
       <c r="D203">
-        <v>0.2465</v>
+        <v>0.2456</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3966</v>
+        <v>0.3957</v>
       </c>
       <c r="C204">
         <v>0.1477</v>
       </c>
       <c r="D204">
-        <v>0.249</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3999</v>
+        <v>0.3989</v>
       </c>
       <c r="C205">
         <v>0.1485</v>
       </c>
       <c r="D205">
-        <v>0.2514</v>
+        <v>0.2504</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4019</v>
+        <v>0.4009</v>
       </c>
       <c r="C206">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D206">
-        <v>0.2535</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4033</v>
+        <v>0.4023</v>
       </c>
       <c r="C207">
         <v>0.148</v>
       </c>
       <c r="D207">
-        <v>0.2553</v>
+        <v>0.2543</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4045</v>
+        <v>0.4035</v>
       </c>
       <c r="C208">
-        <v>0.1474</v>
+        <v>0.1473</v>
       </c>
       <c r="D208">
-        <v>0.2571</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4052</v>
+        <v>0.4042</v>
       </c>
       <c r="C209">
-        <v>0.1466</v>
+        <v>0.1465</v>
       </c>
       <c r="D209">
-        <v>0.2586</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4063</v>
+        <v>0.4053</v>
       </c>
       <c r="C210">
         <v>0.1459</v>
       </c>
       <c r="D210">
-        <v>0.2604</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4071</v>
+        <v>0.406</v>
       </c>
       <c r="C211">
         <v>0.1451</v>
       </c>
       <c r="D211">
-        <v>0.262</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4073</v>
+        <v>0.4063</v>
       </c>
       <c r="C212">
         <v>0.1445</v>
       </c>
       <c r="D212">
-        <v>0.2628</v>
+        <v>0.2618</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4076</v>
+        <v>0.4065</v>
       </c>
       <c r="C213">
-        <v>0.1443</v>
+        <v>0.1442</v>
       </c>
       <c r="D213">
-        <v>0.2633</v>
+        <v>0.2623</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4078</v>
+        <v>0.4067</v>
       </c>
       <c r="C214">
-        <v>0.144</v>
+        <v>0.1439</v>
       </c>
       <c r="D214">
-        <v>0.2638</v>
+        <v>0.2628</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4077</v>
+        <v>0.4067</v>
       </c>
       <c r="C215">
-        <v>0.1434</v>
+        <v>0.1433</v>
       </c>
       <c r="D215">
-        <v>0.2644</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4077</v>
+        <v>0.4067</v>
       </c>
       <c r="C216">
-        <v>0.1428</v>
+        <v>0.1427</v>
       </c>
       <c r="D216">
-        <v>0.2649</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4074</v>
+        <v>0.4063</v>
       </c>
       <c r="C217">
-        <v>0.1417</v>
+        <v>0.1416</v>
       </c>
       <c r="D217">
-        <v>0.2657</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4065</v>
+        <v>0.4054</v>
       </c>
       <c r="C218">
-        <v>0.14</v>
+        <v>0.1399</v>
       </c>
       <c r="D218">
-        <v>0.2665</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4055</v>
+        <v>0.4044</v>
       </c>
       <c r="C219">
-        <v>0.1382</v>
+        <v>0.1381</v>
       </c>
       <c r="D219">
-        <v>0.2673</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4042</v>
+        <v>0.4031</v>
       </c>
       <c r="C220">
-        <v>0.136</v>
+        <v>0.1359</v>
       </c>
       <c r="D220">
-        <v>0.2682</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4031</v>
+        <v>0.402</v>
       </c>
       <c r="C221">
         <v>0.134</v>
       </c>
       <c r="D221">
-        <v>0.2691</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4023</v>
+        <v>0.4012</v>
       </c>
       <c r="C222">
-        <v>0.1324</v>
+        <v>0.1323</v>
       </c>
       <c r="D222">
-        <v>0.2699</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.4011</v>
+        <v>0.4</v>
       </c>
       <c r="C223">
-        <v>0.1304</v>
+        <v>0.1303</v>
       </c>
       <c r="D223">
-        <v>0.2707</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.4007</v>
+        <v>0.3996</v>
       </c>
       <c r="C224">
-        <v>0.129</v>
+        <v>0.1289</v>
       </c>
       <c r="D224">
-        <v>0.2717</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.401</v>
+        <v>0.3998</v>
       </c>
       <c r="C225">
-        <v>0.1282</v>
+        <v>0.1281</v>
       </c>
       <c r="D225">
-        <v>0.2728</v>
+        <v>0.2717</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.4018</v>
+        <v>0.4006</v>
       </c>
       <c r="C226">
-        <v>0.1281</v>
+        <v>0.128</v>
       </c>
       <c r="D226">
-        <v>0.2737</v>
+        <v>0.2726</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4032</v>
+        <v>0.402</v>
       </c>
       <c r="C227">
-        <v>0.1287</v>
+        <v>0.1286</v>
       </c>
       <c r="D227">
-        <v>0.2745</v>
+        <v>0.2734</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4048</v>
+        <v>0.4036</v>
       </c>
       <c r="C228">
         <v>0.1295</v>
       </c>
       <c r="D228">
-        <v>0.2753</v>
+        <v>0.2741</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4068</v>
+        <v>0.4055</v>
       </c>
       <c r="C229">
-        <v>0.1306</v>
+        <v>0.1305</v>
       </c>
       <c r="D229">
-        <v>0.2762</v>
+        <v>0.2751</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4081</v>
+        <v>0.4069</v>
       </c>
       <c r="C230">
-        <v>0.1315</v>
+        <v>0.1314</v>
       </c>
       <c r="D230">
-        <v>0.2767</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4096</v>
+        <v>0.4083</v>
       </c>
       <c r="C231">
         <v>0.1327</v>
       </c>
       <c r="D231">
-        <v>0.2769</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.411</v>
+        <v>0.4097</v>
       </c>
       <c r="C232">
-        <v>0.1341</v>
+        <v>0.134</v>
       </c>
       <c r="D232">
-        <v>0.2769</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4117</v>
+        <v>0.4105</v>
       </c>
       <c r="C233">
-        <v>0.1348</v>
+        <v>0.1347</v>
       </c>
       <c r="D233">
-        <v>0.2769</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="C234">
         <v>0.1347</v>
       </c>
       <c r="D234">
-        <v>0.2767</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4113</v>
+        <v>0.4101</v>
       </c>
       <c r="C235">
         <v>0.1349</v>
       </c>
       <c r="D235">
-        <v>0.2764</v>
+        <v>0.2752</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4113</v>
+        <v>0.4101</v>
       </c>
       <c r="C236">
-        <v>0.1355</v>
+        <v>0.1354</v>
       </c>
       <c r="D236">
-        <v>0.2759</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4114</v>
+        <v>0.4101</v>
       </c>
       <c r="C237">
         <v>0.1365</v>
       </c>
       <c r="D237">
-        <v>0.2749</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4119</v>
+        <v>0.4106</v>
       </c>
       <c r="C238">
-        <v>0.1378</v>
+        <v>0.1377</v>
       </c>
       <c r="D238">
-        <v>0.2741</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.412</v>
+        <v>0.4107</v>
       </c>
       <c r="C239">
         <v>0.1388</v>
       </c>
       <c r="D239">
-        <v>0.2731</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4121</v>
+        <v>0.4108</v>
       </c>
       <c r="C240">
-        <v>0.14</v>
+        <v>0.1399</v>
       </c>
       <c r="D240">
-        <v>0.2721</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4116</v>
+        <v>0.4103</v>
       </c>
       <c r="C241">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
       <c r="D241">
-        <v>0.2709</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4105</v>
+        <v>0.4092</v>
       </c>
       <c r="C242">
         <v>0.1409</v>
       </c>
       <c r="D242">
-        <v>0.2696</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4091</v>
+        <v>0.4078</v>
       </c>
       <c r="C243">
         <v>0.1409</v>
       </c>
       <c r="D243">
-        <v>0.2682</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4077</v>
+        <v>0.4064</v>
       </c>
       <c r="C244">
-        <v>0.1408</v>
+        <v>0.1407</v>
       </c>
       <c r="D244">
-        <v>0.267</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4062</v>
+        <v>0.4049</v>
       </c>
       <c r="C245">
         <v>0.1406</v>
       </c>
       <c r="D245">
-        <v>0.2655</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.405</v>
+        <v>0.4036</v>
       </c>
       <c r="C246">
         <v>0.1405</v>
       </c>
       <c r="D246">
-        <v>0.2645</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4031</v>
+        <v>0.4018</v>
       </c>
       <c r="C247">
         <v>0.1398</v>
       </c>
       <c r="D247">
-        <v>0.2633</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4005</v>
+        <v>0.3992</v>
       </c>
       <c r="C248">
         <v>0.1385</v>
       </c>
       <c r="D248">
-        <v>0.2619</v>
+        <v>0.2607</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3983</v>
+        <v>0.397</v>
       </c>
       <c r="C249">
-        <v>0.1379</v>
+        <v>0.1378</v>
       </c>
       <c r="D249">
-        <v>0.2604</v>
+        <v>0.2592</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3958</v>
+        <v>0.3944</v>
       </c>
       <c r="C250">
-        <v>0.1369</v>
+        <v>0.1368</v>
       </c>
       <c r="D250">
-        <v>0.2589</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.393</v>
+        <v>0.3917</v>
       </c>
       <c r="C251">
-        <v>0.1354</v>
+        <v>0.1353</v>
       </c>
       <c r="D251">
-        <v>0.2576</v>
+        <v>0.2564</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3906</v>
+        <v>0.3893</v>
       </c>
       <c r="C252">
-        <v>0.1341</v>
+        <v>0.134</v>
       </c>
       <c r="D252">
-        <v>0.2565</v>
+        <v>0.2553</v>
       </c>
     </row>
   </sheetData>
